--- a/AMR KAP+ Vet 2.0.xlsx
+++ b/AMR KAP+ Vet 2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79702002-EF78-4B9C-91AF-A54DEB01041C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB6F43-8425-41BE-A15F-CF98A0D344E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="1530" windowWidth="9390" windowHeight="8450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="323">
   <si>
     <t>c1_news1</t>
   </si>
@@ -704,13 +704,313 @@
   </si>
   <si>
     <t>somewhat effective</t>
+  </si>
+  <si>
+    <t>consistent enforcement</t>
+  </si>
+  <si>
+    <t>good communication</t>
+  </si>
+  <si>
+    <t>government support</t>
+  </si>
+  <si>
+    <t>keeping records</t>
+  </si>
+  <si>
+    <t>getting prescription</t>
+  </si>
+  <si>
+    <t>proper dosage</t>
+  </si>
+  <si>
+    <t>antibiotic use</t>
+  </si>
+  <si>
+    <t>antibiotic administration</t>
+  </si>
+  <si>
+    <t>antibiotic purpose</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>sns</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>4+ hrs</t>
+  </si>
+  <si>
+    <t>2-4 hrs</t>
+  </si>
+  <si>
+    <t>1-2 hrs</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>balanced</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>mostly news</t>
+  </si>
+  <si>
+    <t>mostly entertainment</t>
+  </si>
+  <si>
+    <t>colleagues</t>
+  </si>
+  <si>
+    <t>seminars</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>not interested</t>
+  </si>
+  <si>
+    <t>vet school</t>
+  </si>
+  <si>
+    <t>symposia</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>online course</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>online blogs</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIO-DEMOGRAPHIC </t>
+  </si>
+  <si>
+    <t>Knowledge on Antibiotics</t>
+  </si>
+  <si>
+    <t>Knowledge on Antibiotic Resistance</t>
+  </si>
+  <si>
+    <t>Knowledge on Antimicrobials</t>
+  </si>
+  <si>
+    <t>Knowledge on Antimicrobial Resistance</t>
+  </si>
+  <si>
+    <t>Perceived Severity</t>
+  </si>
+  <si>
+    <t>Self-efficacy in handling AMR</t>
+  </si>
+  <si>
+    <t>Attitude towards AMR/AMU</t>
+  </si>
+  <si>
+    <t>Normative Expectations</t>
+  </si>
+  <si>
+    <t>Prescribed Antibiotics</t>
+  </si>
+  <si>
+    <t>Access/Source</t>
+  </si>
+  <si>
+    <t>Frequency of Prescription</t>
+  </si>
+  <si>
+    <t>Giving instructions on antibiotic administration</t>
+  </si>
+  <si>
+    <t>Recording prescriptions</t>
+  </si>
+  <si>
+    <t>Instructions on Antibiotic Disposal</t>
+  </si>
+  <si>
+    <t>National AMR policy</t>
+  </si>
+  <si>
+    <t>Effectivness of AMR policy</t>
+  </si>
+  <si>
+    <t>Assessment/Recommendations for AMR</t>
+  </si>
+  <si>
+    <t>Preferred News Source</t>
+  </si>
+  <si>
+    <t>Preferred Entertainment Source</t>
+  </si>
+  <si>
+    <t>Uses and Gratification</t>
+  </si>
+  <si>
+    <t>Preferred Health Information Sources</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE</t>
+  </si>
+  <si>
+    <t>ATTITUDE</t>
+  </si>
+  <si>
+    <t>PRACTICES</t>
+  </si>
+  <si>
+    <t>POLICY, INFORMATION, AND SOCIO-CULTURAL ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>COMMUNICATION PREFERENCES</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>quartile</t>
+  </si>
+  <si>
+    <t>Giving Instructions on Antibiotic Administration</t>
+  </si>
+  <si>
+    <t>Recording Prescriptions</t>
+  </si>
+  <si>
+    <t>National AMR Policy</t>
+  </si>
+  <si>
+    <t>Assessment/Recommendations for AMR Policy</t>
+  </si>
+  <si>
+    <t>Suggestions for Effectiveness of AMR Policy</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>(%) of correct</t>
+  </si>
+  <si>
+    <t>Quartile Index</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Std. deviation</t>
+  </si>
+  <si>
+    <t>Giving instructions on Antibiotic Administration</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,8 +1071,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +1128,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1218,12 +1549,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1275,6 +1620,79 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,12 +1758,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,75 +1794,207 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3255,6 +3799,118 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCD53B18-5D39-4C59-93B6-F99243B3C75E}" name="Table2" displayName="Table2" ref="A4:M8" totalsRowShown="0">
+  <autoFilter ref="A4:M8" xr:uid="{01BEB63D-31C2-4272-BC82-2D1CC364DEED}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F1B8D47A-D355-408C-97B9-4CD6E2F3E673}" name="Array"/>
+    <tableColumn id="2" xr3:uid="{E3D4FDB0-CE89-4ABA-ADD0-BE8A0BC0F6A0}" name="Variables"/>
+    <tableColumn id="3" xr3:uid="{47FD962D-5E68-4E9C-A481-EA44441D78B5}" name="Min"/>
+    <tableColumn id="4" xr3:uid="{DFF2B310-3E24-47DF-816C-CC34A9556FF2}" name="Max"/>
+    <tableColumn id="5" xr3:uid="{21195403-3C8C-4F8A-BA03-816449BFF32A}" name="Mean"/>
+    <tableColumn id="6" xr3:uid="{E68006FC-72E7-4B97-BD26-2431EC225B0F}" name="Median"/>
+    <tableColumn id="7" xr3:uid="{EF6FF591-CA34-42AD-9735-C80732939611}" name="Mode"/>
+    <tableColumn id="8" xr3:uid="{B88D308E-EC8D-4C99-9F96-88974D08F022}" name="Total score"/>
+    <tableColumn id="9" xr3:uid="{8DFC66A5-3684-4C4A-926B-E566D7C6BD2A}" name="(%) of correct" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{997B8749-0293-436B-BD19-630D0FB35AEF}" name="Quartile Index">
+      <calculatedColumnFormula>IF(I5&lt;=20%, "very low", IF(I5&lt;=40%, "low", IF(I5&lt;=60%, "moderate", IF(I5&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{11777D34-9886-44AC-BB44-91409A955003}" name="Index">
+      <calculatedColumnFormula>IF(J5="very low", 1, IF(J5="low", 2, IF(J5="moderate", 3, IF(J5="high", 4, 5))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C3F0331C-1FDA-4B3E-A160-9892E9C67B67}" name="Range">
+      <calculatedColumnFormula>D5-C5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D4E2BA4E-671D-4E94-AD62-2FCCB27DD6FE}" name="Std. deviation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74010DA7-30D5-4879-BEED-B8F4B1D208D5}" name="Table3" displayName="Table3" ref="A10:M14" totalsRowShown="0">
+  <autoFilter ref="A10:M14" xr:uid="{793DB0FA-69EF-4206-BAA3-E71F875F662F}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{56F4D109-EDBC-4C98-9E5A-DC5BA602FED6}" name="Array"/>
+    <tableColumn id="2" xr3:uid="{ED2DF435-D9B3-4247-928C-98EDED053D5C}" name="Variables"/>
+    <tableColumn id="3" xr3:uid="{4D079279-29C3-4BF1-A5DF-57AEF28AB71A}" name="Min"/>
+    <tableColumn id="4" xr3:uid="{E5CAA805-7356-40ED-8468-133AFC4C1E5E}" name="Max"/>
+    <tableColumn id="5" xr3:uid="{88120724-ED9C-492C-9D1D-D2F04E2F58AD}" name="Mean"/>
+    <tableColumn id="6" xr3:uid="{32A42173-57F1-4650-ADF6-8299FAF41680}" name="Median"/>
+    <tableColumn id="7" xr3:uid="{9CCFB441-94C0-463A-BED6-F1698032182D}" name="Mode"/>
+    <tableColumn id="8" xr3:uid="{B159E0C8-02FB-427A-B385-2DF0356FE79A}" name="Total score"/>
+    <tableColumn id="9" xr3:uid="{F5E40E28-509B-4428-94B8-1EFB33478535}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{AE92ADDF-FF06-46CC-952F-62D3704913EC}" name="Quartile Index">
+      <calculatedColumnFormula>IF(I11&lt;=20%, "very low", IF(I11&lt;=40%, "low", IF(I11&lt;=60%, "moderate", IF(I11&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{366082E0-AF70-4870-A855-D32085DEB4C0}" name="Index">
+      <calculatedColumnFormula>IF(J11="very low", 1, IF(J11="low", 2, IF(J11="moderate", 3, IF(J11="high", 4, 5))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{46A4026D-FB04-492D-B52C-F77D62D8E6E7}" name="Range">
+      <calculatedColumnFormula>D11-C11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{5A801C18-B4F8-49B2-9BDC-54F5020877D7}" name="Std. deviation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9EC7DBEF-39A2-44E3-83AE-4A4DAF46525B}" name="Table4" displayName="Table4" ref="A16:M22" totalsRowShown="0">
+  <autoFilter ref="A16:M22" xr:uid="{8F3B6007-3AB3-4B63-B914-18917B5EC222}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{183AFB9F-7CCE-40F3-9BB9-B476F5753982}" name="Array"/>
+    <tableColumn id="2" xr3:uid="{319A706A-C4A9-4721-A703-6BACF14E7C13}" name="Variables"/>
+    <tableColumn id="3" xr3:uid="{FA0FCC49-932E-4366-9C92-49776425EDB5}" name="Min"/>
+    <tableColumn id="4" xr3:uid="{2ADC70CB-1CB2-4C23-A60B-8AD24D4512B7}" name="Max"/>
+    <tableColumn id="5" xr3:uid="{7AE763B6-5596-4C39-A4D4-5AE94B443982}" name="Mean"/>
+    <tableColumn id="6" xr3:uid="{2996F1F6-E445-4E8B-B394-0B22D145A655}" name="Median"/>
+    <tableColumn id="7" xr3:uid="{529A4F45-8299-44C8-8F62-11F0980DA23A}" name="Mode"/>
+    <tableColumn id="8" xr3:uid="{00825EEA-567D-4339-93AF-DBBA1BAC4F3F}" name="Total score"/>
+    <tableColumn id="9" xr3:uid="{5EAC9279-F85D-4506-9FE3-C869EE905BFF}" name="(%) of correct" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{40CC5A45-353C-4ADA-97AB-2C882B6F2F3E}" name="Quartile Index">
+      <calculatedColumnFormula>IF(I17&lt;=20%, "very low", IF(I17&lt;=40%, "low", IF(I17&lt;=60%, "moderate", IF(I17&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{15BBB751-DCC7-4DD2-94B0-272BE5E7CF91}" name="Index">
+      <calculatedColumnFormula>IF(J17="very low", 1, IF(J17="low", 2, IF(J17="moderate", 3, IF(J17="high", 4, 5))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9B13138B-7CED-4669-B57A-F6B6E348171D}" name="Range">
+      <calculatedColumnFormula>D17-C17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{AB9FA8F2-5543-42AA-B2CE-FD91FC591D3B}" name="Std. deviation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98513A98-A4A5-4EB0-8F1F-624F5303B418}" name="Table5" displayName="Table5" ref="A24:M27" totalsRowShown="0">
+  <autoFilter ref="A24:M27" xr:uid="{2416DAFE-EC50-41EB-8BB4-4E455915AE71}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DA601B24-6A45-49F6-ACD8-56ACADD318DB}" name="Array"/>
+    <tableColumn id="2" xr3:uid="{2D2DD622-9C2D-4B2B-9454-560D27D20E39}" name="Variables"/>
+    <tableColumn id="3" xr3:uid="{DEE5768D-7D61-4AA9-90DE-6DB329DA33C5}" name="Min"/>
+    <tableColumn id="4" xr3:uid="{207E169A-724F-4077-9DF2-52E9B6729E64}" name="Max"/>
+    <tableColumn id="5" xr3:uid="{3DD46204-499E-45A3-BCCB-82D2E64B5BC1}" name="Mean"/>
+    <tableColumn id="6" xr3:uid="{2C18B8A2-8FD7-485F-9506-740C55175201}" name="Median"/>
+    <tableColumn id="7" xr3:uid="{BD56E69C-DAD7-4451-904D-CCE6D3253205}" name="Mode"/>
+    <tableColumn id="8" xr3:uid="{AA605FA1-D43B-48C0-8C6B-0E3D5FE77B28}" name="Total score"/>
+    <tableColumn id="9" xr3:uid="{4C0F8464-C26D-4367-8305-BD93FBACAA77}" name="(%) of correct" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{5774C2B1-96C1-4CD7-A1D5-54ED292CB865}" name="Quartile Index">
+      <calculatedColumnFormula>IF(I25&lt;=20%, "very low", IF(I25&lt;=40%, "low", IF(I25&lt;=60%, "moderate", IF(I25&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{2CBA4E61-42FA-45BF-B7D5-158E382C76AA}" name="Index">
+      <calculatedColumnFormula>IF(J25="very low", 1, IF(J25="low", 2, IF(J25="moderate", 3, IF(J25="high", 4, 5))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D1E9D0D9-1B36-41FD-9836-C2239614E623}" name="Range">
+      <calculatedColumnFormula>D25-C25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7810C711-35A0-4F03-9858-86E0BB842189}" name="Std. deviation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3605,14 +4261,14 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -3648,11 +4304,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="69"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -3668,11 +4324,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3687,84 +4343,84 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="53" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -3777,23 +4433,23 @@
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="77" t="str">
+      <c r="B9" s="54" t="str">
         <f>CONCATENATE("(n =", COUNT(#REF!), ")")</f>
         <v>(n =0)</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -3806,22 +4462,22 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -3834,22 +4490,22 @@
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -3859,23 +4515,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -3885,25 +4541,25 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -3913,25 +4569,25 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -3944,16 +4600,16 @@
       <c r="A15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
@@ -4013,10 +4669,10 @@
     </row>
     <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="6"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="7"/>
@@ -4034,16 +4690,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
@@ -4060,6 +4706,16 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" location="raw_data!A1" display="raw_data!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4077,10 +4733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7729F0-3AAD-4E08-B554-65DC66367D14}">
-  <dimension ref="A3:DU13"/>
+  <dimension ref="A1:DU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO2" workbookViewId="0">
-      <selection activeCell="CW12" sqref="CW12"/>
+    <sheetView topLeftCell="CM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CO2" sqref="CO2:CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4093,6 +4749,312 @@
     <col min="122" max="122" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="111"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="114"/>
+      <c r="BR1" s="114"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="114"/>
+      <c r="BX1" s="114"/>
+      <c r="BY1" s="114"/>
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="114"/>
+      <c r="CC1" s="114"/>
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="114"/>
+      <c r="CH1" s="114"/>
+      <c r="CI1" s="114"/>
+      <c r="CJ1" s="115"/>
+      <c r="CK1" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="CL1" s="117"/>
+      <c r="CM1" s="117"/>
+      <c r="CN1" s="117"/>
+      <c r="CO1" s="117"/>
+      <c r="CP1" s="117"/>
+      <c r="CQ1" s="117"/>
+      <c r="CR1" s="117"/>
+      <c r="CS1" s="117"/>
+      <c r="CT1" s="117"/>
+      <c r="CU1" s="117"/>
+      <c r="CV1" s="117"/>
+      <c r="CW1" s="117"/>
+      <c r="CX1" s="118"/>
+      <c r="CY1" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ1" s="120"/>
+      <c r="DA1" s="120"/>
+      <c r="DB1" s="120"/>
+      <c r="DC1" s="120"/>
+      <c r="DD1" s="120"/>
+      <c r="DE1" s="120"/>
+      <c r="DF1" s="120"/>
+      <c r="DG1" s="120"/>
+      <c r="DH1" s="120"/>
+      <c r="DI1" s="120"/>
+      <c r="DJ1" s="120"/>
+      <c r="DK1" s="120"/>
+      <c r="DL1" s="120"/>
+      <c r="DM1" s="120"/>
+      <c r="DN1" s="120"/>
+      <c r="DO1" s="120"/>
+      <c r="DP1" s="120"/>
+      <c r="DQ1" s="120"/>
+      <c r="DR1" s="120"/>
+      <c r="DS1" s="120"/>
+      <c r="DT1" s="120"/>
+      <c r="DU1" s="121"/>
+    </row>
+    <row r="2" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN2" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="97"/>
+      <c r="BH2" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="97"/>
+      <c r="BO2" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP2" s="97"/>
+      <c r="BQ2" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR2" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="97"/>
+      <c r="BY2" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CI2" s="96"/>
+      <c r="CJ2" s="97"/>
+      <c r="CK2" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="CL2" s="96"/>
+      <c r="CM2" s="96"/>
+      <c r="CN2" s="97"/>
+      <c r="CO2" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="CP2" s="96"/>
+      <c r="CQ2" s="96"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="CT2" s="96"/>
+      <c r="CU2" s="96"/>
+      <c r="CV2" s="96"/>
+      <c r="CW2" s="96"/>
+      <c r="CX2" s="97"/>
+      <c r="CY2" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="CZ2" s="98"/>
+      <c r="DA2" s="98"/>
+      <c r="DB2" s="98"/>
+      <c r="DC2" s="98"/>
+      <c r="DD2" s="99"/>
+      <c r="DE2" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="DF2" s="98"/>
+      <c r="DG2" s="98"/>
+      <c r="DH2" s="98"/>
+      <c r="DI2" s="98"/>
+      <c r="DJ2" s="99"/>
+      <c r="DK2" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="DL2" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="DM2" s="96"/>
+      <c r="DN2" s="96"/>
+      <c r="DO2" s="96"/>
+      <c r="DP2" s="96"/>
+      <c r="DQ2" s="96"/>
+      <c r="DR2" s="96"/>
+      <c r="DS2" s="96"/>
+      <c r="DT2" s="96"/>
+      <c r="DU2" s="97"/>
+    </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
@@ -4749,6 +5711,102 @@
       </c>
       <c r="CO4" t="s">
         <v>221</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>233</v>
+      </c>
+      <c r="DB4" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DE4" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF4" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG4" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH4" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>241</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>245</v>
+      </c>
+      <c r="DR4" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>252</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.35">
@@ -5031,6 +6089,102 @@
       <c r="CO5" s="30" t="s">
         <v>221</v>
       </c>
+      <c r="CP5" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ5" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR5" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS5" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT5" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU5" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW5" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ5" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>233</v>
+      </c>
+      <c r="DB5" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC5" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD5" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE5" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF5" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG5" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH5" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI5" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ5" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK5" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>167</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ5" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="DR5" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>253</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -5312,6 +6466,102 @@
       <c r="CO6" s="30" t="s">
         <v>221</v>
       </c>
+      <c r="CP6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ6" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS6" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT6" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU6" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV6" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW6" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX6" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ6" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>233</v>
+      </c>
+      <c r="DB6" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC6" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DD6" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE6" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF6" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DG6" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH6" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI6" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ6" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK6" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="DR6" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>250</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>252</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -5593,6 +6843,102 @@
       <c r="CO7" t="s">
         <v>222</v>
       </c>
+      <c r="CP7" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ7" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR7" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS7" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT7" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU7" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW7" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX7" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>233</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>232</v>
+      </c>
+      <c r="DA7" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC7" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD7" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE7" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DF7" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG7" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DH7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI7" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ7" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>242</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>246</v>
+      </c>
+      <c r="DR7" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>251</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>254</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -5873,6 +7219,102 @@
       </c>
       <c r="CO8" s="30" t="s">
         <v>221</v>
+      </c>
+      <c r="CP8" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ8" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR8" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS8" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT8" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU8" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV8" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW8" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX8" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ8" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>233</v>
+      </c>
+      <c r="DB8" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DC8" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DD8" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE8" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF8" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DG8" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH8" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI8" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DJ8" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>242</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>167</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR8" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>251</v>
+      </c>
+      <c r="DU8" s="30" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.35">
@@ -6155,6 +7597,102 @@
       <c r="CO9" s="30" t="s">
         <v>222</v>
       </c>
+      <c r="CP9" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ9" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR9" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS9" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT9" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU9" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW9" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX9" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ9" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>233</v>
+      </c>
+      <c r="DB9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC9" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD9" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DE9" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF9" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DG9" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ9" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>167</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR9" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>251</v>
+      </c>
+      <c r="DU9" s="30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -6436,6 +7974,102 @@
       <c r="CO10" s="30" t="s">
         <v>222</v>
       </c>
+      <c r="CP10" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ10" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR10" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT10" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU10" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW10" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX10" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>233</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>232</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB10" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC10" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DD10" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE10" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DF10" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG10" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DH10" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI10" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ10" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>242</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR10" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>251</v>
+      </c>
+      <c r="DU10" s="30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -6717,6 +8351,102 @@
       <c r="CO11" s="30" t="s">
         <v>221</v>
       </c>
+      <c r="CP11" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR11" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS11" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT11" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU11" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW11" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX11" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>232</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB11" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC11" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DD11" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE11" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DF11" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG11" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DH11" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI11" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ11" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>244</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR11" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>252</v>
+      </c>
+      <c r="DU11" s="30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -6998,6 +8728,102 @@
       <c r="CO12" s="30" t="s">
         <v>222</v>
       </c>
+      <c r="CP12" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ12" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CS12" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT12" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU12" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW12" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX12" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>234</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>233</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>232</v>
+      </c>
+      <c r="DB12" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DC12" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD12" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE12" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="DF12" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DG12" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DH12" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DI12" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ12" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>242</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>166</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR12" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>252</v>
+      </c>
+      <c r="DU12" s="30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -7279,18 +9105,139 @@
       <c r="CO13" s="30" t="s">
         <v>221</v>
       </c>
+      <c r="CP13" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ13" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR13" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS13" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT13" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="CU13" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW13" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX13" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>233</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>232</v>
+      </c>
+      <c r="DA13" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB13" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC13" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DD13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE13" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="DF13" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG13" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="DH13" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI13" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="DJ13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="DK13" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>166</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>246</v>
+      </c>
+      <c r="DR13" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>250</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>255</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="CK1:CX1"/>
+    <mergeCell ref="CY1:DU1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="M1:AK1"/>
+    <mergeCell ref="AL1:BG1"/>
+    <mergeCell ref="BH1:CJ1"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="DL2:DU2"/>
+    <mergeCell ref="BY2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CR2"/>
+    <mergeCell ref="CS2:CX2"/>
+    <mergeCell ref="CY2:DD2"/>
+    <mergeCell ref="DE2:DJ2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B18BBC-88DD-4CDD-952D-652754AAA5CE}">
-  <dimension ref="A3:CJ13"/>
+  <dimension ref="A1:DU13"/>
   <sheetViews>
-    <sheetView topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CH11" sqref="CH11"/>
+    <sheetView topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CX7" sqref="CX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7298,7 +9245,313 @@
     <col min="19" max="20" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="111"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="114"/>
+      <c r="BR1" s="114"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="114"/>
+      <c r="BX1" s="114"/>
+      <c r="BY1" s="114"/>
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="114"/>
+      <c r="CC1" s="114"/>
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="114"/>
+      <c r="CH1" s="114"/>
+      <c r="CI1" s="114"/>
+      <c r="CJ1" s="115"/>
+      <c r="CK1" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="CL1" s="117"/>
+      <c r="CM1" s="117"/>
+      <c r="CN1" s="117"/>
+      <c r="CO1" s="117"/>
+      <c r="CP1" s="117"/>
+      <c r="CQ1" s="117"/>
+      <c r="CR1" s="117"/>
+      <c r="CS1" s="117"/>
+      <c r="CT1" s="117"/>
+      <c r="CU1" s="117"/>
+      <c r="CV1" s="117"/>
+      <c r="CW1" s="117"/>
+      <c r="CX1" s="118"/>
+      <c r="CY1" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ1" s="120"/>
+      <c r="DA1" s="120"/>
+      <c r="DB1" s="120"/>
+      <c r="DC1" s="120"/>
+      <c r="DD1" s="120"/>
+      <c r="DE1" s="120"/>
+      <c r="DF1" s="120"/>
+      <c r="DG1" s="120"/>
+      <c r="DH1" s="120"/>
+      <c r="DI1" s="120"/>
+      <c r="DJ1" s="120"/>
+      <c r="DK1" s="120"/>
+      <c r="DL1" s="120"/>
+      <c r="DM1" s="120"/>
+      <c r="DN1" s="120"/>
+      <c r="DO1" s="120"/>
+      <c r="DP1" s="120"/>
+      <c r="DQ1" s="120"/>
+      <c r="DR1" s="120"/>
+      <c r="DS1" s="120"/>
+      <c r="DT1" s="120"/>
+      <c r="DU1" s="121"/>
+    </row>
+    <row r="2" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN2" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="97"/>
+      <c r="BH2" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="97"/>
+      <c r="BO2" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP2" s="97"/>
+      <c r="BQ2" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR2" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="97"/>
+      <c r="BY2" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CI2" s="96"/>
+      <c r="CJ2" s="97"/>
+      <c r="CK2" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="CL2" s="96"/>
+      <c r="CM2" s="96"/>
+      <c r="CN2" s="97"/>
+      <c r="CO2" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="CP2" s="96"/>
+      <c r="CQ2" s="96"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="CT2" s="96"/>
+      <c r="CU2" s="96"/>
+      <c r="CV2" s="96"/>
+      <c r="CW2" s="96"/>
+      <c r="CX2" s="97"/>
+      <c r="CY2" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="CZ2" s="98"/>
+      <c r="DA2" s="98"/>
+      <c r="DB2" s="98"/>
+      <c r="DC2" s="98"/>
+      <c r="DD2" s="99"/>
+      <c r="DE2" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="DF2" s="98"/>
+      <c r="DG2" s="98"/>
+      <c r="DH2" s="98"/>
+      <c r="DI2" s="98"/>
+      <c r="DJ2" s="99"/>
+      <c r="DK2" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="DL2" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="DM2" s="96"/>
+      <c r="DN2" s="96"/>
+      <c r="DO2" s="96"/>
+      <c r="DP2" s="96"/>
+      <c r="DQ2" s="96"/>
+      <c r="DR2" s="96"/>
+      <c r="DS2" s="96"/>
+      <c r="DT2" s="96"/>
+      <c r="DU2" s="97"/>
+    </row>
+    <row r="3" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>48</v>
       </c>
@@ -7563,8 +9816,119 @@
       <c r="CJ3" s="30" t="s">
         <v>115</v>
       </c>
+      <c r="CK3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="CL3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="CR3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="CY3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="DC3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="DH3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="DJ3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="DM3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="DO3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="DP3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="DQ3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="DS3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="DT3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU3" s="30" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7916,8 +10280,156 @@
         <f>IF(raw_data!CJ4="no",0,IF(raw_data!CJ4="na",0,1))</f>
         <v>1</v>
       </c>
+      <c r="CK4" s="30">
+        <f>IF(raw_data!CK4="no",0,IF(raw_data!CK4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL4" s="30">
+        <f>IF(raw_data!CL4="no",0,IF(raw_data!CL4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM4" s="30">
+        <f>IF(raw_data!CM4="no",0,IF(raw_data!CM4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN4" s="30">
+        <f>IF(raw_data!CN4="no",0,IF(raw_data!CN4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <f>IF(raw_data!CO4="least effective",1,IF(raw_data!CO4="somewhat effective",2,IF(raw_data!CO4="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP4" s="30">
+        <f>IF(raw_data!CP4="no",0,IF(raw_data!CP4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="30">
+        <f>IF(raw_data!CQ4="no",0,IF(raw_data!CQ4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR4" s="30">
+        <f>IF(raw_data!CR4="no",0,IF(raw_data!CR4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS4" s="30">
+        <f>IF(raw_data!CS4="no",0,IF(raw_data!CS4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT4" s="30">
+        <f>IF(raw_data!CT4="no",0,IF(raw_data!CT4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU4" s="30">
+        <f>IF(raw_data!CU4="no",0,IF(raw_data!CU4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV4" s="30">
+        <f>IF(raw_data!CV4="no",0,IF(raw_data!CV4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW4" s="30">
+        <f>IF(raw_data!CW4="no",0,IF(raw_data!CW4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX4" s="30">
+        <f>IF(raw_data!CX4="no",0,IF(raw_data!CX4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <f>IF(raw_data!CY4="na",0,IF(raw_data!CY4="tv",1,IF(raw_data!CY4="radio",1,IF(raw_data!CY4="newspaper",1,IF(raw_data!CY4="internet",1,IF(raw_data!CY4="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="30">
+        <f>IF(raw_data!CZ4="na",0,IF(raw_data!CZ4="tv",1,IF(raw_data!CZ4="radio",1,IF(raw_data!CZ4="newspaper",1,IF(raw_data!CZ4="internet",1,IF(raw_data!CZ4="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA4" s="30">
+        <f>IF(raw_data!DA4="na",0,IF(raw_data!DA4="tv",1,IF(raw_data!DA4="radio",1,IF(raw_data!DA4="newspaper",1,IF(raw_data!DA4="internet",1,IF(raw_data!DA4="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <f>IF(raw_data!DB4="4+ hrs",4,IF(raw_data!DB4="2-4 hrs",3,IF(raw_data!DB4="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC4" s="30">
+        <f>IF(raw_data!DC4="4+ hrs",4,IF(raw_data!DC4="2-4 hrs",3,IF(raw_data!DC4="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD4" s="30">
+        <f>IF(raw_data!DD4="4+ hrs",4,IF(raw_data!DD4="2-4 hrs",3,IF(raw_data!DD4="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DE4" s="30">
+        <f>IF(raw_data!DE4="na",0,IF(raw_data!DE4="tv",1,IF(raw_data!DE4="radio",1,IF(raw_data!DE4="newspaper",1,IF(raw_data!DE4="internet",1,IF(raw_data!DE4="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF4" s="30">
+        <f>IF(raw_data!DF4="na",0,IF(raw_data!DF4="tv",1,IF(raw_data!DF4="radio",1,IF(raw_data!DF4="newspaper",1,IF(raw_data!DF4="internet",1,IF(raw_data!DF4="sns",1,2))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DG4" s="30">
+        <f>IF(raw_data!DG4="na",0,IF(raw_data!DG4="tv",1,IF(raw_data!DG4="radio",1,IF(raw_data!DG4="newspaper",1,IF(raw_data!DG4="internet",1,IF(raw_data!DG4="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH4" s="30">
+        <f>IF(raw_data!DH4="4+ hrs",4,IF(raw_data!DH4="2-4 hrs",3,IF(raw_data!DH4="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI4" s="30">
+        <f>IF(raw_data!DI4="4+ hrs",4,IF(raw_data!DI4="2-4 hrs",3,IF(raw_data!DI4="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ4" s="30">
+        <f>IF(raw_data!DJ4="4+ hrs",4,IF(raw_data!DJ4="2-4 hrs",3,IF(raw_data!DJ4="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DK4">
+        <f>IF(raw_data!DK4="only news", 1, IF(raw_data!DK4="mostly news", 2, IF(raw_data!DK4="balanced", 3, IF(raw_data!DK4="mostly entertainment", 2, 1))))</f>
+        <v>3</v>
+      </c>
+      <c r="DL4" s="30">
+        <f>IF(raw_data!DL4="no",0,IF(raw_data!DL4="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="30">
+        <f>IF(raw_data!DM4="no",0,IF(raw_data!DM4="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="30">
+        <f>IF(raw_data!DN4="no",0,IF(raw_data!DN4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO4" s="30">
+        <f>IF(raw_data!DO4="no",0,IF(raw_data!DO4="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DP4" s="30">
+        <f>IF(raw_data!DP4="no",0,IF(raw_data!DP4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="30">
+        <f>IF(raw_data!DQ4="no",0,IF(raw_data!DQ4="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <f>IF(raw_data!DR4="interested", 3, IF(raw_data!DR4="neutral", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="DS4">
+        <f>IF(raw_data!DS4="vet school", 1, IF(raw_data!DS4="symposia", 1, IF(raw_data!DS4="conferences", 1, IF(raw_data!DS4="online course", 1, IF(raw_data!DS4="websites", 1, IF(raw_data!DS4="documentary", 1, IF(raw_data!DS4="tv", 1, IF(raw_data!DS4="newspaper", 1, IF(raw_data!DS4="blogs", 1, IF(raw_data!DS4="sns", 1, IF(raw_data!DS4="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DT4" s="30">
+        <f>IF(raw_data!DT4="vet school", 1, IF(raw_data!DT4="symposia", 1, IF(raw_data!DT4="conferences", 1, IF(raw_data!DT4="online course", 1, IF(raw_data!DT4="websites", 1, IF(raw_data!DT4="documentary", 1, IF(raw_data!DT4="tv", 1, IF(raw_data!DT4="newspaper", 1, IF(raw_data!DT4="blogs", 1, IF(raw_data!DT4="sns", 1, IF(raw_data!DT4="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU4" s="30">
+        <f>IF(raw_data!DU4="vet school", 1, IF(raw_data!DU4="symposia", 1, IF(raw_data!DU4="conferences", 1, IF(raw_data!DU4="online course", 1, IF(raw_data!DU4="websites", 1, IF(raw_data!DU4="documentary", 1, IF(raw_data!DU4="tv", 1, IF(raw_data!DU4="newspaper", 1, IF(raw_data!DU4="blogs", 1, IF(raw_data!DU4="sns", 1, IF(raw_data!DU4="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8269,8 +10781,156 @@
         <f>IF(raw_data!CJ5="no",0,IF(raw_data!CJ5="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK5" s="30">
+        <f>IF(raw_data!CK5="no",0,IF(raw_data!CK5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL5" s="30">
+        <f>IF(raw_data!CL5="no",0,IF(raw_data!CL5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM5" s="30">
+        <f>IF(raw_data!CM5="no",0,IF(raw_data!CM5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN5" s="30">
+        <f>IF(raw_data!CN5="no",0,IF(raw_data!CN5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO5" s="30">
+        <f>IF(raw_data!CO5="least effective",1,IF(raw_data!CO5="somewhat effective",2,IF(raw_data!CO5="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP5" s="30">
+        <f>IF(raw_data!CP5="no",0,IF(raw_data!CP5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="30">
+        <f>IF(raw_data!CQ5="no",0,IF(raw_data!CQ5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR5" s="30">
+        <f>IF(raw_data!CR5="no",0,IF(raw_data!CR5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS5" s="30">
+        <f>IF(raw_data!CS5="no",0,IF(raw_data!CS5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT5" s="30">
+        <f>IF(raw_data!CT5="no",0,IF(raw_data!CT5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU5" s="30">
+        <f>IF(raw_data!CU5="no",0,IF(raw_data!CU5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV5" s="30">
+        <f>IF(raw_data!CV5="no",0,IF(raw_data!CV5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW5" s="30">
+        <f>IF(raw_data!CW5="no",0,IF(raw_data!CW5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX5" s="30">
+        <f>IF(raw_data!CX5="no",0,IF(raw_data!CX5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY5" s="30">
+        <f>IF(raw_data!CY5="na",0,IF(raw_data!CY5="tv",1,IF(raw_data!CY5="radio",1,IF(raw_data!CY5="newspaper",1,IF(raw_data!CY5="internet",1,IF(raw_data!CY5="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="30">
+        <f>IF(raw_data!CZ5="na",0,IF(raw_data!CZ5="tv",1,IF(raw_data!CZ5="radio",1,IF(raw_data!CZ5="newspaper",1,IF(raw_data!CZ5="internet",1,IF(raw_data!CZ5="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA5" s="30">
+        <f>IF(raw_data!DA5="na",0,IF(raw_data!DA5="tv",1,IF(raw_data!DA5="radio",1,IF(raw_data!DA5="newspaper",1,IF(raw_data!DA5="internet",1,IF(raw_data!DA5="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB5" s="30">
+        <f>IF(raw_data!DB5="4+ hrs",4,IF(raw_data!DB5="2-4 hrs",3,IF(raw_data!DB5="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC5" s="30">
+        <f>IF(raw_data!DC5="4+ hrs",4,IF(raw_data!DC5="2-4 hrs",3,IF(raw_data!DC5="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD5" s="30">
+        <f>IF(raw_data!DD5="4+ hrs",4,IF(raw_data!DD5="2-4 hrs",3,IF(raw_data!DD5="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE5" s="30">
+        <f>IF(raw_data!DE5="na",0,IF(raw_data!DE5="tv",1,IF(raw_data!DE5="radio",1,IF(raw_data!DE5="newspaper",1,IF(raw_data!DE5="internet",1,IF(raw_data!DE5="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF5" s="30">
+        <f>IF(raw_data!DF5="na",0,IF(raw_data!DF5="tv",1,IF(raw_data!DF5="radio",1,IF(raw_data!DF5="newspaper",1,IF(raw_data!DF5="internet",1,IF(raw_data!DF5="sns",1,2))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DG5" s="30">
+        <f>IF(raw_data!DG5="na",0,IF(raw_data!DG5="tv",1,IF(raw_data!DG5="radio",1,IF(raw_data!DG5="newspaper",1,IF(raw_data!DG5="internet",1,IF(raw_data!DG5="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH5" s="30">
+        <f>IF(raw_data!DH5="4+ hrs",4,IF(raw_data!DH5="2-4 hrs",3,IF(raw_data!DH5="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI5" s="30">
+        <f>IF(raw_data!DI5="4+ hrs",4,IF(raw_data!DI5="2-4 hrs",3,IF(raw_data!DI5="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ5" s="30">
+        <f>IF(raw_data!DJ5="4+ hrs",4,IF(raw_data!DJ5="2-4 hrs",3,IF(raw_data!DJ5="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK5" s="30">
+        <f>IF(raw_data!DK5="only news", 1, IF(raw_data!DK5="mostly news", 2, IF(raw_data!DK5="balanced", 3, IF(raw_data!DK5="mostly entertainment", 2, 1))))</f>
+        <v>3</v>
+      </c>
+      <c r="DL5" s="30">
+        <f>IF(raw_data!DL5="no",0,IF(raw_data!DL5="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM5" s="30">
+        <f>IF(raw_data!DM5="no",0,IF(raw_data!DM5="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN5" s="30">
+        <f>IF(raw_data!DN5="no",0,IF(raw_data!DN5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO5" s="30">
+        <f>IF(raw_data!DO5="no",0,IF(raw_data!DO5="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DP5" s="30">
+        <f>IF(raw_data!DP5="no",0,IF(raw_data!DP5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="30">
+        <f>IF(raw_data!DQ5="no",0,IF(raw_data!DQ5="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DR5" s="30">
+        <f>IF(raw_data!DR5="interested", 3, IF(raw_data!DR5="neutral", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="DS5" s="30">
+        <f>IF(raw_data!DS5="vet school", 1, IF(raw_data!DS5="symposia", 1, IF(raw_data!DS5="conferences", 1, IF(raw_data!DS5="online course", 1, IF(raw_data!DS5="websites", 1, IF(raw_data!DS5="documentary", 1, IF(raw_data!DS5="tv", 1, IF(raw_data!DS5="newspaper", 1, IF(raw_data!DS5="blogs", 1, IF(raw_data!DS5="sns", 1, IF(raw_data!DS5="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DT5" s="30">
+        <f>IF(raw_data!DT5="vet school", 1, IF(raw_data!DT5="symposia", 1, IF(raw_data!DT5="conferences", 1, IF(raw_data!DT5="online course", 1, IF(raw_data!DT5="websites", 1, IF(raw_data!DT5="documentary", 1, IF(raw_data!DT5="tv", 1, IF(raw_data!DT5="newspaper", 1, IF(raw_data!DT5="blogs", 1, IF(raw_data!DT5="sns", 1, IF(raw_data!DT5="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU5" s="30">
+        <f>IF(raw_data!DU5="vet school", 1, IF(raw_data!DU5="symposia", 1, IF(raw_data!DU5="conferences", 1, IF(raw_data!DU5="online course", 1, IF(raw_data!DU5="websites", 1, IF(raw_data!DU5="documentary", 1, IF(raw_data!DU5="tv", 1, IF(raw_data!DU5="newspaper", 1, IF(raw_data!DU5="blogs", 1, IF(raw_data!DU5="sns", 1, IF(raw_data!DU5="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8622,8 +11282,156 @@
         <f>IF(raw_data!CJ6="no",0,IF(raw_data!CJ6="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK6" s="30">
+        <f>IF(raw_data!CK6="no",0,IF(raw_data!CK6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL6" s="30">
+        <f>IF(raw_data!CL6="no",0,IF(raw_data!CL6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM6" s="30">
+        <f>IF(raw_data!CM6="no",0,IF(raw_data!CM6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN6" s="30">
+        <f>IF(raw_data!CN6="no",0,IF(raw_data!CN6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO6" s="30">
+        <f>IF(raw_data!CO6="least effective",1,IF(raw_data!CO6="somewhat effective",2,IF(raw_data!CO6="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP6" s="30">
+        <f>IF(raw_data!CP6="no",0,IF(raw_data!CP6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="30">
+        <f>IF(raw_data!CQ6="no",0,IF(raw_data!CQ6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR6" s="30">
+        <f>IF(raw_data!CR6="no",0,IF(raw_data!CR6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS6" s="30">
+        <f>IF(raw_data!CS6="no",0,IF(raw_data!CS6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT6" s="30">
+        <f>IF(raw_data!CT6="no",0,IF(raw_data!CT6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU6" s="30">
+        <f>IF(raw_data!CU6="no",0,IF(raw_data!CU6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV6" s="30">
+        <f>IF(raw_data!CV6="no",0,IF(raw_data!CV6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW6" s="30">
+        <f>IF(raw_data!CW6="no",0,IF(raw_data!CW6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX6" s="30">
+        <f>IF(raw_data!CX6="no",0,IF(raw_data!CX6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY6" s="30">
+        <f>IF(raw_data!CY6="na",0,IF(raw_data!CY6="tv",1,IF(raw_data!CY6="radio",1,IF(raw_data!CY6="newspaper",1,IF(raw_data!CY6="internet",1,IF(raw_data!CY6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="30">
+        <f>IF(raw_data!CZ6="na",0,IF(raw_data!CZ6="tv",1,IF(raw_data!CZ6="radio",1,IF(raw_data!CZ6="newspaper",1,IF(raw_data!CZ6="internet",1,IF(raw_data!CZ6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA6" s="30">
+        <f>IF(raw_data!DA6="na",0,IF(raw_data!DA6="tv",1,IF(raw_data!DA6="radio",1,IF(raw_data!DA6="newspaper",1,IF(raw_data!DA6="internet",1,IF(raw_data!DA6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB6" s="30">
+        <f>IF(raw_data!DB6="4+ hrs",4,IF(raw_data!DB6="2-4 hrs",3,IF(raw_data!DB6="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC6" s="30">
+        <f>IF(raw_data!DC6="4+ hrs",4,IF(raw_data!DC6="2-4 hrs",3,IF(raw_data!DC6="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DD6" s="30">
+        <f>IF(raw_data!DD6="4+ hrs",4,IF(raw_data!DD6="2-4 hrs",3,IF(raw_data!DD6="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE6" s="30">
+        <f>IF(raw_data!DE6="na",0,IF(raw_data!DE6="tv",1,IF(raw_data!DE6="radio",1,IF(raw_data!DE6="newspaper",1,IF(raw_data!DE6="internet",1,IF(raw_data!DE6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF6" s="30">
+        <f>IF(raw_data!DF6="na",0,IF(raw_data!DF6="tv",1,IF(raw_data!DF6="radio",1,IF(raw_data!DF6="newspaper",1,IF(raw_data!DF6="internet",1,IF(raw_data!DF6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG6" s="30">
+        <f>IF(raw_data!DG6="na",0,IF(raw_data!DG6="tv",1,IF(raw_data!DG6="radio",1,IF(raw_data!DG6="newspaper",1,IF(raw_data!DG6="internet",1,IF(raw_data!DG6="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH6" s="30">
+        <f>IF(raw_data!DH6="4+ hrs",4,IF(raw_data!DH6="2-4 hrs",3,IF(raw_data!DH6="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI6" s="30">
+        <f>IF(raw_data!DI6="4+ hrs",4,IF(raw_data!DI6="2-4 hrs",3,IF(raw_data!DI6="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DJ6" s="30">
+        <f>IF(raw_data!DJ6="4+ hrs",4,IF(raw_data!DJ6="2-4 hrs",3,IF(raw_data!DJ6="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DK6" s="30">
+        <f>IF(raw_data!DK6="only news", 1, IF(raw_data!DK6="mostly news", 2, IF(raw_data!DK6="balanced", 3, IF(raw_data!DK6="mostly entertainment", 2, 1))))</f>
+        <v>3</v>
+      </c>
+      <c r="DL6" s="30">
+        <f>IF(raw_data!DL6="no",0,IF(raw_data!DL6="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM6" s="30">
+        <f>IF(raw_data!DM6="no",0,IF(raw_data!DM6="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN6" s="30">
+        <f>IF(raw_data!DN6="no",0,IF(raw_data!DN6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO6" s="30">
+        <f>IF(raw_data!DO6="no",0,IF(raw_data!DO6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP6" s="30">
+        <f>IF(raw_data!DP6="no",0,IF(raw_data!DP6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ6" s="30">
+        <f>IF(raw_data!DQ6="no",0,IF(raw_data!DQ6="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DR6" s="30">
+        <f>IF(raw_data!DR6="interested", 3, IF(raw_data!DR6="neutral", 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="DS6" s="30">
+        <f>IF(raw_data!DS6="vet school", 1, IF(raw_data!DS6="symposia", 1, IF(raw_data!DS6="conferences", 1, IF(raw_data!DS6="online course", 1, IF(raw_data!DS6="websites", 1, IF(raw_data!DS6="documentary", 1, IF(raw_data!DS6="tv", 1, IF(raw_data!DS6="newspaper", 1, IF(raw_data!DS6="blogs", 1, IF(raw_data!DS6="sns", 1, IF(raw_data!DS6="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DT6" s="30">
+        <f>IF(raw_data!DT6="vet school", 1, IF(raw_data!DT6="symposia", 1, IF(raw_data!DT6="conferences", 1, IF(raw_data!DT6="online course", 1, IF(raw_data!DT6="websites", 1, IF(raw_data!DT6="documentary", 1, IF(raw_data!DT6="tv", 1, IF(raw_data!DT6="newspaper", 1, IF(raw_data!DT6="blogs", 1, IF(raw_data!DT6="sns", 1, IF(raw_data!DT6="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU6" s="30">
+        <f>IF(raw_data!DU6="vet school", 1, IF(raw_data!DU6="symposia", 1, IF(raw_data!DU6="conferences", 1, IF(raw_data!DU6="online course", 1, IF(raw_data!DU6="websites", 1, IF(raw_data!DU6="documentary", 1, IF(raw_data!DU6="tv", 1, IF(raw_data!DU6="newspaper", 1, IF(raw_data!DU6="blogs", 1, IF(raw_data!DU6="sns", 1, IF(raw_data!DU6="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8975,8 +11783,156 @@
         <f>IF(raw_data!CJ7="no",0,IF(raw_data!CJ7="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK7" s="30">
+        <f>IF(raw_data!CK7="no",0,IF(raw_data!CK7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL7" s="30">
+        <f>IF(raw_data!CL7="no",0,IF(raw_data!CL7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM7" s="30">
+        <f>IF(raw_data!CM7="no",0,IF(raw_data!CM7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN7" s="30">
+        <f>IF(raw_data!CN7="no",0,IF(raw_data!CN7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO7" s="30">
+        <f>IF(raw_data!CO7="least effective",1,IF(raw_data!CO7="somewhat effective",2,IF(raw_data!CO7="effective",3,4)))</f>
+        <v>2</v>
+      </c>
+      <c r="CP7" s="30">
+        <f>IF(raw_data!CP7="no",0,IF(raw_data!CP7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="30">
+        <f>IF(raw_data!CQ7="no",0,IF(raw_data!CQ7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR7" s="30">
+        <f>IF(raw_data!CR7="no",0,IF(raw_data!CR7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS7" s="30">
+        <f>IF(raw_data!CS7="no",0,IF(raw_data!CS7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT7" s="30">
+        <f>IF(raw_data!CT7="no",0,IF(raw_data!CT7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU7" s="30">
+        <f>IF(raw_data!CU7="no",0,IF(raw_data!CU7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV7" s="30">
+        <f>IF(raw_data!CV7="no",0,IF(raw_data!CV7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW7" s="30">
+        <f>IF(raw_data!CW7="no",0,IF(raw_data!CW7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX7" s="30">
+        <f>IF(raw_data!CX7="no",0,IF(raw_data!CX7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY7" s="30">
+        <f>IF(raw_data!CY7="na",0,IF(raw_data!CY7="tv",1,IF(raw_data!CY7="radio",1,IF(raw_data!CY7="newspaper",1,IF(raw_data!CY7="internet",1,IF(raw_data!CY7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="30">
+        <f>IF(raw_data!CZ7="na",0,IF(raw_data!CZ7="tv",1,IF(raw_data!CZ7="radio",1,IF(raw_data!CZ7="newspaper",1,IF(raw_data!CZ7="internet",1,IF(raw_data!CZ7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA7" s="30">
+        <f>IF(raw_data!DA7="na",0,IF(raw_data!DA7="tv",1,IF(raw_data!DA7="radio",1,IF(raw_data!DA7="newspaper",1,IF(raw_data!DA7="internet",1,IF(raw_data!DA7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB7" s="30">
+        <f>IF(raw_data!DB7="4+ hrs",4,IF(raw_data!DB7="2-4 hrs",3,IF(raw_data!DB7="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC7" s="30">
+        <f>IF(raw_data!DC7="4+ hrs",4,IF(raw_data!DC7="2-4 hrs",3,IF(raw_data!DC7="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD7" s="30">
+        <f>IF(raw_data!DD7="4+ hrs",4,IF(raw_data!DD7="2-4 hrs",3,IF(raw_data!DD7="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE7" s="30">
+        <f>IF(raw_data!DE7="na",0,IF(raw_data!DE7="tv",1,IF(raw_data!DE7="radio",1,IF(raw_data!DE7="newspaper",1,IF(raw_data!DE7="internet",1,IF(raw_data!DE7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF7" s="30">
+        <f>IF(raw_data!DF7="na",0,IF(raw_data!DF7="tv",1,IF(raw_data!DF7="radio",1,IF(raw_data!DF7="newspaper",1,IF(raw_data!DF7="internet",1,IF(raw_data!DF7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG7" s="30">
+        <f>IF(raw_data!DG7="na",0,IF(raw_data!DG7="tv",1,IF(raw_data!DG7="radio",1,IF(raw_data!DG7="newspaper",1,IF(raw_data!DG7="internet",1,IF(raw_data!DG7="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH7" s="30">
+        <f>IF(raw_data!DH7="4+ hrs",4,IF(raw_data!DH7="2-4 hrs",3,IF(raw_data!DH7="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI7" s="30">
+        <f>IF(raw_data!DI7="4+ hrs",4,IF(raw_data!DI7="2-4 hrs",3,IF(raw_data!DI7="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="30">
+        <f>IF(raw_data!DJ7="4+ hrs",4,IF(raw_data!DJ7="2-4 hrs",3,IF(raw_data!DJ7="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK7" s="30">
+        <f>IF(raw_data!DK7="only news", 1, IF(raw_data!DK7="mostly news", 2, IF(raw_data!DK7="balanced", 3, IF(raw_data!DK7="mostly entertainment", 2, 1))))</f>
+        <v>1</v>
+      </c>
+      <c r="DL7" s="30">
+        <f>IF(raw_data!DL7="no",0,IF(raw_data!DL7="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM7" s="30">
+        <f>IF(raw_data!DM7="no",0,IF(raw_data!DM7="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN7" s="30">
+        <f>IF(raw_data!DN7="no",0,IF(raw_data!DN7="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DO7" s="30">
+        <f>IF(raw_data!DO7="no",0,IF(raw_data!DO7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP7" s="30">
+        <f>IF(raw_data!DP7="no",0,IF(raw_data!DP7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="30">
+        <f>IF(raw_data!DQ7="no",0,IF(raw_data!DQ7="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DR7" s="30">
+        <f>IF(raw_data!DR7="interested", 3, IF(raw_data!DR7="neutral", 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="DS7" s="30">
+        <f>IF(raw_data!DS7="vet school", 1, IF(raw_data!DS7="symposia", 1, IF(raw_data!DS7="conferences", 1, IF(raw_data!DS7="online course", 1, IF(raw_data!DS7="websites", 1, IF(raw_data!DS7="documentary", 1, IF(raw_data!DS7="tv", 1, IF(raw_data!DS7="newspaper", 1, IF(raw_data!DS7="blogs", 1, IF(raw_data!DS7="sns", 1, IF(raw_data!DS7="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DT7" s="30">
+        <f>IF(raw_data!DT7="vet school", 1, IF(raw_data!DT7="symposia", 1, IF(raw_data!DT7="conferences", 1, IF(raw_data!DT7="online course", 1, IF(raw_data!DT7="websites", 1, IF(raw_data!DT7="documentary", 1, IF(raw_data!DT7="tv", 1, IF(raw_data!DT7="newspaper", 1, IF(raw_data!DT7="blogs", 1, IF(raw_data!DT7="sns", 1, IF(raw_data!DT7="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DU7" s="30">
+        <f>IF(raw_data!DU7="vet school", 1, IF(raw_data!DU7="symposia", 1, IF(raw_data!DU7="conferences", 1, IF(raw_data!DU7="online course", 1, IF(raw_data!DU7="websites", 1, IF(raw_data!DU7="documentary", 1, IF(raw_data!DU7="tv", 1, IF(raw_data!DU7="newspaper", 1, IF(raw_data!DU7="blogs", 1, IF(raw_data!DU7="sns", 1, IF(raw_data!DU7="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9328,8 +12284,156 @@
         <f>IF(raw_data!CJ8="no",0,IF(raw_data!CJ8="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK8" s="30">
+        <f>IF(raw_data!CK8="no",0,IF(raw_data!CK8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL8" s="30">
+        <f>IF(raw_data!CL8="no",0,IF(raw_data!CL8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM8" s="30">
+        <f>IF(raw_data!CM8="no",0,IF(raw_data!CM8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN8" s="30">
+        <f>IF(raw_data!CN8="no",0,IF(raw_data!CN8="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="CO8" s="30">
+        <f>IF(raw_data!CO8="least effective",1,IF(raw_data!CO8="somewhat effective",2,IF(raw_data!CO8="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP8" s="30">
+        <f>IF(raw_data!CP8="no",0,IF(raw_data!CP8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="30">
+        <f>IF(raw_data!CQ8="no",0,IF(raw_data!CQ8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR8" s="30">
+        <f>IF(raw_data!CR8="no",0,IF(raw_data!CR8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS8" s="30">
+        <f>IF(raw_data!CS8="no",0,IF(raw_data!CS8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT8" s="30">
+        <f>IF(raw_data!CT8="no",0,IF(raw_data!CT8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU8" s="30">
+        <f>IF(raw_data!CU8="no",0,IF(raw_data!CU8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV8" s="30">
+        <f>IF(raw_data!CV8="no",0,IF(raw_data!CV8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW8" s="30">
+        <f>IF(raw_data!CW8="no",0,IF(raw_data!CW8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX8" s="30">
+        <f>IF(raw_data!CX8="no",0,IF(raw_data!CX8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY8" s="30">
+        <f>IF(raw_data!CY8="na",0,IF(raw_data!CY8="tv",1,IF(raw_data!CY8="radio",1,IF(raw_data!CY8="newspaper",1,IF(raw_data!CY8="internet",1,IF(raw_data!CY8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="30">
+        <f>IF(raw_data!CZ8="na",0,IF(raw_data!CZ8="tv",1,IF(raw_data!CZ8="radio",1,IF(raw_data!CZ8="newspaper",1,IF(raw_data!CZ8="internet",1,IF(raw_data!CZ8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA8" s="30">
+        <f>IF(raw_data!DA8="na",0,IF(raw_data!DA8="tv",1,IF(raw_data!DA8="radio",1,IF(raw_data!DA8="newspaper",1,IF(raw_data!DA8="internet",1,IF(raw_data!DA8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB8" s="30">
+        <f>IF(raw_data!DB8="4+ hrs",4,IF(raw_data!DB8="2-4 hrs",3,IF(raw_data!DB8="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DC8" s="30">
+        <f>IF(raw_data!DC8="4+ hrs",4,IF(raw_data!DC8="2-4 hrs",3,IF(raw_data!DC8="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DD8" s="30">
+        <f>IF(raw_data!DD8="4+ hrs",4,IF(raw_data!DD8="2-4 hrs",3,IF(raw_data!DD8="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE8" s="30">
+        <f>IF(raw_data!DE8="na",0,IF(raw_data!DE8="tv",1,IF(raw_data!DE8="radio",1,IF(raw_data!DE8="newspaper",1,IF(raw_data!DE8="internet",1,IF(raw_data!DE8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF8" s="30">
+        <f>IF(raw_data!DF8="na",0,IF(raw_data!DF8="tv",1,IF(raw_data!DF8="radio",1,IF(raw_data!DF8="newspaper",1,IF(raw_data!DF8="internet",1,IF(raw_data!DF8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG8" s="30">
+        <f>IF(raw_data!DG8="na",0,IF(raw_data!DG8="tv",1,IF(raw_data!DG8="radio",1,IF(raw_data!DG8="newspaper",1,IF(raw_data!DG8="internet",1,IF(raw_data!DG8="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH8" s="30">
+        <f>IF(raw_data!DH8="4+ hrs",4,IF(raw_data!DH8="2-4 hrs",3,IF(raw_data!DH8="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI8" s="30">
+        <f>IF(raw_data!DI8="4+ hrs",4,IF(raw_data!DI8="2-4 hrs",3,IF(raw_data!DI8="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DJ8" s="30">
+        <f>IF(raw_data!DJ8="4+ hrs",4,IF(raw_data!DJ8="2-4 hrs",3,IF(raw_data!DJ8="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DK8" s="30">
+        <f>IF(raw_data!DK8="only news", 1, IF(raw_data!DK8="mostly news", 2, IF(raw_data!DK8="balanced", 3, IF(raw_data!DK8="mostly entertainment", 2, 1))))</f>
+        <v>1</v>
+      </c>
+      <c r="DL8" s="30">
+        <f>IF(raw_data!DL8="no",0,IF(raw_data!DL8="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM8" s="30">
+        <f>IF(raw_data!DM8="no",0,IF(raw_data!DM8="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN8" s="30">
+        <f>IF(raw_data!DN8="no",0,IF(raw_data!DN8="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DO8" s="30">
+        <f>IF(raw_data!DO8="no",0,IF(raw_data!DO8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP8" s="30">
+        <f>IF(raw_data!DP8="no",0,IF(raw_data!DP8="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="30">
+        <f>IF(raw_data!DQ8="no",0,IF(raw_data!DQ8="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DR8" s="30">
+        <f>IF(raw_data!DR8="interested", 3, IF(raw_data!DR8="neutral", 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="DS8" s="30">
+        <f>IF(raw_data!DS8="vet school", 1, IF(raw_data!DS8="symposia", 1, IF(raw_data!DS8="conferences", 1, IF(raw_data!DS8="online course", 1, IF(raw_data!DS8="websites", 1, IF(raw_data!DS8="documentary", 1, IF(raw_data!DS8="tv", 1, IF(raw_data!DS8="newspaper", 1, IF(raw_data!DS8="blogs", 1, IF(raw_data!DS8="sns", 1, IF(raw_data!DS8="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DT8" s="30">
+        <f>IF(raw_data!DT8="vet school", 1, IF(raw_data!DT8="symposia", 1, IF(raw_data!DT8="conferences", 1, IF(raw_data!DT8="online course", 1, IF(raw_data!DT8="websites", 1, IF(raw_data!DT8="documentary", 1, IF(raw_data!DT8="tv", 1, IF(raw_data!DT8="newspaper", 1, IF(raw_data!DT8="blogs", 1, IF(raw_data!DT8="sns", 1, IF(raw_data!DT8="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU8" s="30">
+        <f>IF(raw_data!DU8="vet school", 1, IF(raw_data!DU8="symposia", 1, IF(raw_data!DU8="conferences", 1, IF(raw_data!DU8="online course", 1, IF(raw_data!DU8="websites", 1, IF(raw_data!DU8="documentary", 1, IF(raw_data!DU8="tv", 1, IF(raw_data!DU8="newspaper", 1, IF(raw_data!DU8="blogs", 1, IF(raw_data!DU8="sns", 1, IF(raw_data!DU8="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9681,8 +12785,156 @@
         <f>IF(raw_data!CJ9="no",0,IF(raw_data!CJ9="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK9" s="30">
+        <f>IF(raw_data!CK9="no",0,IF(raw_data!CK9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL9" s="30">
+        <f>IF(raw_data!CL9="no",0,IF(raw_data!CL9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM9" s="30">
+        <f>IF(raw_data!CM9="no",0,IF(raw_data!CM9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN9" s="30">
+        <f>IF(raw_data!CN9="no",0,IF(raw_data!CN9="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="CO9" s="30">
+        <f>IF(raw_data!CO9="least effective",1,IF(raw_data!CO9="somewhat effective",2,IF(raw_data!CO9="effective",3,4)))</f>
+        <v>2</v>
+      </c>
+      <c r="CP9" s="30">
+        <f>IF(raw_data!CP9="no",0,IF(raw_data!CP9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="30">
+        <f>IF(raw_data!CQ9="no",0,IF(raw_data!CQ9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR9" s="30">
+        <f>IF(raw_data!CR9="no",0,IF(raw_data!CR9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS9" s="30">
+        <f>IF(raw_data!CS9="no",0,IF(raw_data!CS9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT9" s="30">
+        <f>IF(raw_data!CT9="no",0,IF(raw_data!CT9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU9" s="30">
+        <f>IF(raw_data!CU9="no",0,IF(raw_data!CU9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV9" s="30">
+        <f>IF(raw_data!CV9="no",0,IF(raw_data!CV9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW9" s="30">
+        <f>IF(raw_data!CW9="no",0,IF(raw_data!CW9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX9" s="30">
+        <f>IF(raw_data!CX9="no",0,IF(raw_data!CX9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY9" s="30">
+        <f>IF(raw_data!CY9="na",0,IF(raw_data!CY9="tv",1,IF(raw_data!CY9="radio",1,IF(raw_data!CY9="newspaper",1,IF(raw_data!CY9="internet",1,IF(raw_data!CY9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ9" s="30">
+        <f>IF(raw_data!CZ9="na",0,IF(raw_data!CZ9="tv",1,IF(raw_data!CZ9="radio",1,IF(raw_data!CZ9="newspaper",1,IF(raw_data!CZ9="internet",1,IF(raw_data!CZ9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA9" s="30">
+        <f>IF(raw_data!DA9="na",0,IF(raw_data!DA9="tv",1,IF(raw_data!DA9="radio",1,IF(raw_data!DA9="newspaper",1,IF(raw_data!DA9="internet",1,IF(raw_data!DA9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB9" s="30">
+        <f>IF(raw_data!DB9="4+ hrs",4,IF(raw_data!DB9="2-4 hrs",3,IF(raw_data!DB9="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC9" s="30">
+        <f>IF(raw_data!DC9="4+ hrs",4,IF(raw_data!DC9="2-4 hrs",3,IF(raw_data!DC9="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD9" s="30">
+        <f>IF(raw_data!DD9="4+ hrs",4,IF(raw_data!DD9="2-4 hrs",3,IF(raw_data!DD9="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DE9" s="30">
+        <f>IF(raw_data!DE9="na",0,IF(raw_data!DE9="tv",1,IF(raw_data!DE9="radio",1,IF(raw_data!DE9="newspaper",1,IF(raw_data!DE9="internet",1,IF(raw_data!DE9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF9" s="30">
+        <f>IF(raw_data!DF9="na",0,IF(raw_data!DF9="tv",1,IF(raw_data!DF9="radio",1,IF(raw_data!DF9="newspaper",1,IF(raw_data!DF9="internet",1,IF(raw_data!DF9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG9" s="30">
+        <f>IF(raw_data!DG9="na",0,IF(raw_data!DG9="tv",1,IF(raw_data!DG9="radio",1,IF(raw_data!DG9="newspaper",1,IF(raw_data!DG9="internet",1,IF(raw_data!DG9="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH9" s="30">
+        <f>IF(raw_data!DH9="4+ hrs",4,IF(raw_data!DH9="2-4 hrs",3,IF(raw_data!DH9="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI9" s="30">
+        <f>IF(raw_data!DI9="4+ hrs",4,IF(raw_data!DI9="2-4 hrs",3,IF(raw_data!DI9="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DJ9" s="30">
+        <f>IF(raw_data!DJ9="4+ hrs",4,IF(raw_data!DJ9="2-4 hrs",3,IF(raw_data!DJ9="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DK9" s="30">
+        <f>IF(raw_data!DK9="only news", 1, IF(raw_data!DK9="mostly news", 2, IF(raw_data!DK9="balanced", 3, IF(raw_data!DK9="mostly entertainment", 2, 1))))</f>
+        <v>2</v>
+      </c>
+      <c r="DL9" s="30">
+        <f>IF(raw_data!DL9="no",0,IF(raw_data!DL9="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM9" s="30">
+        <f>IF(raw_data!DM9="no",0,IF(raw_data!DM9="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN9" s="30">
+        <f>IF(raw_data!DN9="no",0,IF(raw_data!DN9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO9" s="30">
+        <f>IF(raw_data!DO9="no",0,IF(raw_data!DO9="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DP9" s="30">
+        <f>IF(raw_data!DP9="no",0,IF(raw_data!DP9="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ9" s="30">
+        <f>IF(raw_data!DQ9="no",0,IF(raw_data!DQ9="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DR9" s="30">
+        <f>IF(raw_data!DR9="interested", 3, IF(raw_data!DR9="neutral", 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="DS9" s="30">
+        <f>IF(raw_data!DS9="vet school", 1, IF(raw_data!DS9="symposia", 1, IF(raw_data!DS9="conferences", 1, IF(raw_data!DS9="online course", 1, IF(raw_data!DS9="websites", 1, IF(raw_data!DS9="documentary", 1, IF(raw_data!DS9="tv", 1, IF(raw_data!DS9="newspaper", 1, IF(raw_data!DS9="blogs", 1, IF(raw_data!DS9="sns", 1, IF(raw_data!DS9="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DT9" s="30">
+        <f>IF(raw_data!DT9="vet school", 1, IF(raw_data!DT9="symposia", 1, IF(raw_data!DT9="conferences", 1, IF(raw_data!DT9="online course", 1, IF(raw_data!DT9="websites", 1, IF(raw_data!DT9="documentary", 1, IF(raw_data!DT9="tv", 1, IF(raw_data!DT9="newspaper", 1, IF(raw_data!DT9="blogs", 1, IF(raw_data!DT9="sns", 1, IF(raw_data!DT9="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU9" s="30">
+        <f>IF(raw_data!DU9="vet school", 1, IF(raw_data!DU9="symposia", 1, IF(raw_data!DU9="conferences", 1, IF(raw_data!DU9="online course", 1, IF(raw_data!DU9="websites", 1, IF(raw_data!DU9="documentary", 1, IF(raw_data!DU9="tv", 1, IF(raw_data!DU9="newspaper", 1, IF(raw_data!DU9="blogs", 1, IF(raw_data!DU9="sns", 1, IF(raw_data!DU9="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10034,8 +13286,156 @@
         <f>IF(raw_data!CJ10="no",0,IF(raw_data!CJ10="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK10" s="30">
+        <f>IF(raw_data!CK10="no",0,IF(raw_data!CK10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL10" s="30">
+        <f>IF(raw_data!CL10="no",0,IF(raw_data!CL10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM10" s="30">
+        <f>IF(raw_data!CM10="no",0,IF(raw_data!CM10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN10" s="30">
+        <f>IF(raw_data!CN10="no",0,IF(raw_data!CN10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO10" s="30">
+        <f>IF(raw_data!CO10="least effective",1,IF(raw_data!CO10="somewhat effective",2,IF(raw_data!CO10="effective",3,4)))</f>
+        <v>2</v>
+      </c>
+      <c r="CP10" s="30">
+        <f>IF(raw_data!CP10="no",0,IF(raw_data!CP10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="30">
+        <f>IF(raw_data!CQ10="no",0,IF(raw_data!CQ10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR10" s="30">
+        <f>IF(raw_data!CR10="no",0,IF(raw_data!CR10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS10" s="30">
+        <f>IF(raw_data!CS10="no",0,IF(raw_data!CS10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT10" s="30">
+        <f>IF(raw_data!CT10="no",0,IF(raw_data!CT10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU10" s="30">
+        <f>IF(raw_data!CU10="no",0,IF(raw_data!CU10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV10" s="30">
+        <f>IF(raw_data!CV10="no",0,IF(raw_data!CV10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW10" s="30">
+        <f>IF(raw_data!CW10="no",0,IF(raw_data!CW10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX10" s="30">
+        <f>IF(raw_data!CX10="no",0,IF(raw_data!CX10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY10" s="30">
+        <f>IF(raw_data!CY10="na",0,IF(raw_data!CY10="tv",1,IF(raw_data!CY10="radio",1,IF(raw_data!CY10="newspaper",1,IF(raw_data!CY10="internet",1,IF(raw_data!CY10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ10" s="30">
+        <f>IF(raw_data!CZ10="na",0,IF(raw_data!CZ10="tv",1,IF(raw_data!CZ10="radio",1,IF(raw_data!CZ10="newspaper",1,IF(raw_data!CZ10="internet",1,IF(raw_data!CZ10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA10" s="30">
+        <f>IF(raw_data!DA10="na",0,IF(raw_data!DA10="tv",1,IF(raw_data!DA10="radio",1,IF(raw_data!DA10="newspaper",1,IF(raw_data!DA10="internet",1,IF(raw_data!DA10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB10" s="30">
+        <f>IF(raw_data!DB10="4+ hrs",4,IF(raw_data!DB10="2-4 hrs",3,IF(raw_data!DB10="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC10" s="30">
+        <f>IF(raw_data!DC10="4+ hrs",4,IF(raw_data!DC10="2-4 hrs",3,IF(raw_data!DC10="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DD10" s="30">
+        <f>IF(raw_data!DD10="4+ hrs",4,IF(raw_data!DD10="2-4 hrs",3,IF(raw_data!DD10="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE10" s="30">
+        <f>IF(raw_data!DE10="na",0,IF(raw_data!DE10="tv",1,IF(raw_data!DE10="radio",1,IF(raw_data!DE10="newspaper",1,IF(raw_data!DE10="internet",1,IF(raw_data!DE10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF10" s="30">
+        <f>IF(raw_data!DF10="na",0,IF(raw_data!DF10="tv",1,IF(raw_data!DF10="radio",1,IF(raw_data!DF10="newspaper",1,IF(raw_data!DF10="internet",1,IF(raw_data!DF10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG10" s="30">
+        <f>IF(raw_data!DG10="na",0,IF(raw_data!DG10="tv",1,IF(raw_data!DG10="radio",1,IF(raw_data!DG10="newspaper",1,IF(raw_data!DG10="internet",1,IF(raw_data!DG10="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH10" s="30">
+        <f>IF(raw_data!DH10="4+ hrs",4,IF(raw_data!DH10="2-4 hrs",3,IF(raw_data!DH10="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI10" s="30">
+        <f>IF(raw_data!DI10="4+ hrs",4,IF(raw_data!DI10="2-4 hrs",3,IF(raw_data!DI10="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DJ10" s="30">
+        <f>IF(raw_data!DJ10="4+ hrs",4,IF(raw_data!DJ10="2-4 hrs",3,IF(raw_data!DJ10="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK10" s="30">
+        <f>IF(raw_data!DK10="only news", 1, IF(raw_data!DK10="mostly news", 2, IF(raw_data!DK10="balanced", 3, IF(raw_data!DK10="mostly entertainment", 2, 1))))</f>
+        <v>1</v>
+      </c>
+      <c r="DL10" s="30">
+        <f>IF(raw_data!DL10="no",0,IF(raw_data!DL10="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM10" s="30">
+        <f>IF(raw_data!DM10="no",0,IF(raw_data!DM10="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN10" s="30">
+        <f>IF(raw_data!DN10="no",0,IF(raw_data!DN10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO10" s="30">
+        <f>IF(raw_data!DO10="no",0,IF(raw_data!DO10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP10" s="30">
+        <f>IF(raw_data!DP10="no",0,IF(raw_data!DP10="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="30">
+        <f>IF(raw_data!DQ10="no",0,IF(raw_data!DQ10="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DR10" s="30">
+        <f>IF(raw_data!DR10="interested", 3, IF(raw_data!DR10="neutral", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="DS10" s="30">
+        <f>IF(raw_data!DS10="vet school", 1, IF(raw_data!DS10="symposia", 1, IF(raw_data!DS10="conferences", 1, IF(raw_data!DS10="online course", 1, IF(raw_data!DS10="websites", 1, IF(raw_data!DS10="documentary", 1, IF(raw_data!DS10="tv", 1, IF(raw_data!DS10="newspaper", 1, IF(raw_data!DS10="blogs", 1, IF(raw_data!DS10="sns", 1, IF(raw_data!DS10="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DT10" s="30">
+        <f>IF(raw_data!DT10="vet school", 1, IF(raw_data!DT10="symposia", 1, IF(raw_data!DT10="conferences", 1, IF(raw_data!DT10="online course", 1, IF(raw_data!DT10="websites", 1, IF(raw_data!DT10="documentary", 1, IF(raw_data!DT10="tv", 1, IF(raw_data!DT10="newspaper", 1, IF(raw_data!DT10="blogs", 1, IF(raw_data!DT10="sns", 1, IF(raw_data!DT10="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU10" s="30">
+        <f>IF(raw_data!DU10="vet school", 1, IF(raw_data!DU10="symposia", 1, IF(raw_data!DU10="conferences", 1, IF(raw_data!DU10="online course", 1, IF(raw_data!DU10="websites", 1, IF(raw_data!DU10="documentary", 1, IF(raw_data!DU10="tv", 1, IF(raw_data!DU10="newspaper", 1, IF(raw_data!DU10="blogs", 1, IF(raw_data!DU10="sns", 1, IF(raw_data!DU10="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10387,8 +13787,156 @@
         <f>IF(raw_data!CJ11="no",0,IF(raw_data!CJ11="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK11" s="30">
+        <f>IF(raw_data!CK11="no",0,IF(raw_data!CK11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL11" s="30">
+        <f>IF(raw_data!CL11="no",0,IF(raw_data!CL11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM11" s="30">
+        <f>IF(raw_data!CM11="no",0,IF(raw_data!CM11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN11" s="30">
+        <f>IF(raw_data!CN11="no",0,IF(raw_data!CN11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO11" s="30">
+        <f>IF(raw_data!CO11="least effective",1,IF(raw_data!CO11="somewhat effective",2,IF(raw_data!CO11="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP11" s="30">
+        <f>IF(raw_data!CP11="no",0,IF(raw_data!CP11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="30">
+        <f>IF(raw_data!CQ11="no",0,IF(raw_data!CQ11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR11" s="30">
+        <f>IF(raw_data!CR11="no",0,IF(raw_data!CR11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS11" s="30">
+        <f>IF(raw_data!CS11="no",0,IF(raw_data!CS11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT11" s="30">
+        <f>IF(raw_data!CT11="no",0,IF(raw_data!CT11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU11" s="30">
+        <f>IF(raw_data!CU11="no",0,IF(raw_data!CU11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV11" s="30">
+        <f>IF(raw_data!CV11="no",0,IF(raw_data!CV11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW11" s="30">
+        <f>IF(raw_data!CW11="no",0,IF(raw_data!CW11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX11" s="30">
+        <f>IF(raw_data!CX11="no",0,IF(raw_data!CX11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY11" s="30">
+        <f>IF(raw_data!CY11="na",0,IF(raw_data!CY11="tv",1,IF(raw_data!CY11="radio",1,IF(raw_data!CY11="newspaper",1,IF(raw_data!CY11="internet",1,IF(raw_data!CY11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="30">
+        <f>IF(raw_data!CZ11="na",0,IF(raw_data!CZ11="tv",1,IF(raw_data!CZ11="radio",1,IF(raw_data!CZ11="newspaper",1,IF(raw_data!CZ11="internet",1,IF(raw_data!CZ11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA11" s="30">
+        <f>IF(raw_data!DA11="na",0,IF(raw_data!DA11="tv",1,IF(raw_data!DA11="radio",1,IF(raw_data!DA11="newspaper",1,IF(raw_data!DA11="internet",1,IF(raw_data!DA11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB11" s="30">
+        <f>IF(raw_data!DB11="4+ hrs",4,IF(raw_data!DB11="2-4 hrs",3,IF(raw_data!DB11="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC11" s="30">
+        <f>IF(raw_data!DC11="4+ hrs",4,IF(raw_data!DC11="2-4 hrs",3,IF(raw_data!DC11="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DD11" s="30">
+        <f>IF(raw_data!DD11="4+ hrs",4,IF(raw_data!DD11="2-4 hrs",3,IF(raw_data!DD11="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE11" s="30">
+        <f>IF(raw_data!DE11="na",0,IF(raw_data!DE11="tv",1,IF(raw_data!DE11="radio",1,IF(raw_data!DE11="newspaper",1,IF(raw_data!DE11="internet",1,IF(raw_data!DE11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF11" s="30">
+        <f>IF(raw_data!DF11="na",0,IF(raw_data!DF11="tv",1,IF(raw_data!DF11="radio",1,IF(raw_data!DF11="newspaper",1,IF(raw_data!DF11="internet",1,IF(raw_data!DF11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG11" s="30">
+        <f>IF(raw_data!DG11="na",0,IF(raw_data!DG11="tv",1,IF(raw_data!DG11="radio",1,IF(raw_data!DG11="newspaper",1,IF(raw_data!DG11="internet",1,IF(raw_data!DG11="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH11" s="30">
+        <f>IF(raw_data!DH11="4+ hrs",4,IF(raw_data!DH11="2-4 hrs",3,IF(raw_data!DH11="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI11" s="30">
+        <f>IF(raw_data!DI11="4+ hrs",4,IF(raw_data!DI11="2-4 hrs",3,IF(raw_data!DI11="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ11" s="30">
+        <f>IF(raw_data!DJ11="4+ hrs",4,IF(raw_data!DJ11="2-4 hrs",3,IF(raw_data!DJ11="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK11" s="30">
+        <f>IF(raw_data!DK11="only news", 1, IF(raw_data!DK11="mostly news", 2, IF(raw_data!DK11="balanced", 3, IF(raw_data!DK11="mostly entertainment", 2, 1))))</f>
+        <v>2</v>
+      </c>
+      <c r="DL11" s="30">
+        <f>IF(raw_data!DL11="no",0,IF(raw_data!DL11="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM11" s="30">
+        <f>IF(raw_data!DM11="no",0,IF(raw_data!DM11="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN11" s="30">
+        <f>IF(raw_data!DN11="no",0,IF(raw_data!DN11="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DO11" s="30">
+        <f>IF(raw_data!DO11="no",0,IF(raw_data!DO11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP11" s="30">
+        <f>IF(raw_data!DP11="no",0,IF(raw_data!DP11="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="30">
+        <f>IF(raw_data!DQ11="no",0,IF(raw_data!DQ11="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DR11" s="30">
+        <f>IF(raw_data!DR11="interested", 3, IF(raw_data!DR11="neutral", 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="DS11" s="30">
+        <f>IF(raw_data!DS11="vet school", 1, IF(raw_data!DS11="symposia", 1, IF(raw_data!DS11="conferences", 1, IF(raw_data!DS11="online course", 1, IF(raw_data!DS11="websites", 1, IF(raw_data!DS11="documentary", 1, IF(raw_data!DS11="tv", 1, IF(raw_data!DS11="newspaper", 1, IF(raw_data!DS11="blogs", 1, IF(raw_data!DS11="sns", 1, IF(raw_data!DS11="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DT11" s="30">
+        <f>IF(raw_data!DT11="vet school", 1, IF(raw_data!DT11="symposia", 1, IF(raw_data!DT11="conferences", 1, IF(raw_data!DT11="online course", 1, IF(raw_data!DT11="websites", 1, IF(raw_data!DT11="documentary", 1, IF(raw_data!DT11="tv", 1, IF(raw_data!DT11="newspaper", 1, IF(raw_data!DT11="blogs", 1, IF(raw_data!DT11="sns", 1, IF(raw_data!DT11="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU11" s="30">
+        <f>IF(raw_data!DU11="vet school", 1, IF(raw_data!DU11="symposia", 1, IF(raw_data!DU11="conferences", 1, IF(raw_data!DU11="online course", 1, IF(raw_data!DU11="websites", 1, IF(raw_data!DU11="documentary", 1, IF(raw_data!DU11="tv", 1, IF(raw_data!DU11="newspaper", 1, IF(raw_data!DU11="blogs", 1, IF(raw_data!DU11="sns", 1, IF(raw_data!DU11="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10740,8 +14288,156 @@
         <f>IF(raw_data!CJ12="no",0,IF(raw_data!CJ12="na",0,1))</f>
         <v>0</v>
       </c>
+      <c r="CK12" s="30">
+        <f>IF(raw_data!CK12="no",0,IF(raw_data!CK12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL12" s="30">
+        <f>IF(raw_data!CL12="no",0,IF(raw_data!CL12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM12" s="30">
+        <f>IF(raw_data!CM12="no",0,IF(raw_data!CM12="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="CN12" s="30">
+        <f>IF(raw_data!CN12="no",0,IF(raw_data!CN12="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="CO12" s="30">
+        <f>IF(raw_data!CO12="least effective",1,IF(raw_data!CO12="somewhat effective",2,IF(raw_data!CO12="effective",3,4)))</f>
+        <v>2</v>
+      </c>
+      <c r="CP12" s="30">
+        <f>IF(raw_data!CP12="no",0,IF(raw_data!CP12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="30">
+        <f>IF(raw_data!CQ12="no",0,IF(raw_data!CQ12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR12" s="30">
+        <f>IF(raw_data!CR12="no",0,IF(raw_data!CR12="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="CS12" s="30">
+        <f>IF(raw_data!CS12="no",0,IF(raw_data!CS12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT12" s="30">
+        <f>IF(raw_data!CT12="no",0,IF(raw_data!CT12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU12" s="30">
+        <f>IF(raw_data!CU12="no",0,IF(raw_data!CU12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV12" s="30">
+        <f>IF(raw_data!CV12="no",0,IF(raw_data!CV12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW12" s="30">
+        <f>IF(raw_data!CW12="no",0,IF(raw_data!CW12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX12" s="30">
+        <f>IF(raw_data!CX12="no",0,IF(raw_data!CX12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY12" s="30">
+        <f>IF(raw_data!CY12="na",0,IF(raw_data!CY12="tv",1,IF(raw_data!CY12="radio",1,IF(raw_data!CY12="newspaper",1,IF(raw_data!CY12="internet",1,IF(raw_data!CY12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ12" s="30">
+        <f>IF(raw_data!CZ12="na",0,IF(raw_data!CZ12="tv",1,IF(raw_data!CZ12="radio",1,IF(raw_data!CZ12="newspaper",1,IF(raw_data!CZ12="internet",1,IF(raw_data!CZ12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA12" s="30">
+        <f>IF(raw_data!DA12="na",0,IF(raw_data!DA12="tv",1,IF(raw_data!DA12="radio",1,IF(raw_data!DA12="newspaper",1,IF(raw_data!DA12="internet",1,IF(raw_data!DA12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB12" s="30">
+        <f>IF(raw_data!DB12="4+ hrs",4,IF(raw_data!DB12="2-4 hrs",3,IF(raw_data!DB12="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DC12" s="30">
+        <f>IF(raw_data!DC12="4+ hrs",4,IF(raw_data!DC12="2-4 hrs",3,IF(raw_data!DC12="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD12" s="30">
+        <f>IF(raw_data!DD12="4+ hrs",4,IF(raw_data!DD12="2-4 hrs",3,IF(raw_data!DD12="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE12" s="30">
+        <f>IF(raw_data!DE12="na",0,IF(raw_data!DE12="tv",1,IF(raw_data!DE12="radio",1,IF(raw_data!DE12="newspaper",1,IF(raw_data!DE12="internet",1,IF(raw_data!DE12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF12" s="30">
+        <f>IF(raw_data!DF12="na",0,IF(raw_data!DF12="tv",1,IF(raw_data!DF12="radio",1,IF(raw_data!DF12="newspaper",1,IF(raw_data!DF12="internet",1,IF(raw_data!DF12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG12" s="30">
+        <f>IF(raw_data!DG12="na",0,IF(raw_data!DG12="tv",1,IF(raw_data!DG12="radio",1,IF(raw_data!DG12="newspaper",1,IF(raw_data!DG12="internet",1,IF(raw_data!DG12="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH12" s="30">
+        <f>IF(raw_data!DH12="4+ hrs",4,IF(raw_data!DH12="2-4 hrs",3,IF(raw_data!DH12="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DI12" s="30">
+        <f>IF(raw_data!DI12="4+ hrs",4,IF(raw_data!DI12="2-4 hrs",3,IF(raw_data!DI12="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ12" s="30">
+        <f>IF(raw_data!DJ12="4+ hrs",4,IF(raw_data!DJ12="2-4 hrs",3,IF(raw_data!DJ12="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK12" s="30">
+        <f>IF(raw_data!DK12="only news", 1, IF(raw_data!DK12="mostly news", 2, IF(raw_data!DK12="balanced", 3, IF(raw_data!DK12="mostly entertainment", 2, 1))))</f>
+        <v>1</v>
+      </c>
+      <c r="DL12" s="30">
+        <f>IF(raw_data!DL12="no",0,IF(raw_data!DL12="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM12" s="30">
+        <f>IF(raw_data!DM12="no",0,IF(raw_data!DM12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DN12" s="30">
+        <f>IF(raw_data!DN12="no",0,IF(raw_data!DN12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO12" s="30">
+        <f>IF(raw_data!DO12="no",0,IF(raw_data!DO12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP12" s="30">
+        <f>IF(raw_data!DP12="no",0,IF(raw_data!DP12="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ12" s="30">
+        <f>IF(raw_data!DQ12="no",0,IF(raw_data!DQ12="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DR12" s="30">
+        <f>IF(raw_data!DR12="interested", 3, IF(raw_data!DR12="neutral", 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="DS12" s="30">
+        <f>IF(raw_data!DS12="vet school", 1, IF(raw_data!DS12="symposia", 1, IF(raw_data!DS12="conferences", 1, IF(raw_data!DS12="online course", 1, IF(raw_data!DS12="websites", 1, IF(raw_data!DS12="documentary", 1, IF(raw_data!DS12="tv", 1, IF(raw_data!DS12="newspaper", 1, IF(raw_data!DS12="blogs", 1, IF(raw_data!DS12="sns", 1, IF(raw_data!DS12="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DT12" s="30">
+        <f>IF(raw_data!DT12="vet school", 1, IF(raw_data!DT12="symposia", 1, IF(raw_data!DT12="conferences", 1, IF(raw_data!DT12="online course", 1, IF(raw_data!DT12="websites", 1, IF(raw_data!DT12="documentary", 1, IF(raw_data!DT12="tv", 1, IF(raw_data!DT12="newspaper", 1, IF(raw_data!DT12="blogs", 1, IF(raw_data!DT12="sns", 1, IF(raw_data!DT12="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DU12" s="30">
+        <f>IF(raw_data!DU12="vet school", 1, IF(raw_data!DU12="symposia", 1, IF(raw_data!DU12="conferences", 1, IF(raw_data!DU12="online course", 1, IF(raw_data!DU12="websites", 1, IF(raw_data!DU12="documentary", 1, IF(raw_data!DU12="tv", 1, IF(raw_data!DU12="newspaper", 1, IF(raw_data!DU12="blogs", 1, IF(raw_data!DU12="sns", 1, IF(raw_data!DU12="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -11093,21 +14789,3443 @@
         <f>IF(raw_data!CJ13="no",0,IF(raw_data!CJ13="na",0,1))</f>
         <v>1</v>
       </c>
+      <c r="CK13" s="30">
+        <f>IF(raw_data!CK13="no",0,IF(raw_data!CK13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CL13" s="30">
+        <f>IF(raw_data!CL13="no",0,IF(raw_data!CL13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CM13" s="30">
+        <f>IF(raw_data!CM13="no",0,IF(raw_data!CM13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CN13" s="30">
+        <f>IF(raw_data!CN13="no",0,IF(raw_data!CN13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CO13" s="30">
+        <f>IF(raw_data!CO13="least effective",1,IF(raw_data!CO13="somewhat effective",2,IF(raw_data!CO13="effective",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="CP13" s="30">
+        <f>IF(raw_data!CP13="no",0,IF(raw_data!CP13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="30">
+        <f>IF(raw_data!CQ13="no",0,IF(raw_data!CQ13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CR13" s="30">
+        <f>IF(raw_data!CR13="no",0,IF(raw_data!CR13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CS13" s="30">
+        <f>IF(raw_data!CS13="no",0,IF(raw_data!CS13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CT13" s="30">
+        <f>IF(raw_data!CT13="no",0,IF(raw_data!CT13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CU13" s="30">
+        <f>IF(raw_data!CU13="no",0,IF(raw_data!CU13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CV13" s="30">
+        <f>IF(raw_data!CV13="no",0,IF(raw_data!CV13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CW13" s="30">
+        <f>IF(raw_data!CW13="no",0,IF(raw_data!CW13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CX13" s="30">
+        <f>IF(raw_data!CX13="no",0,IF(raw_data!CX13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="CY13" s="30">
+        <f>IF(raw_data!CY13="na",0,IF(raw_data!CY13="tv",1,IF(raw_data!CY13="radio",1,IF(raw_data!CY13="newspaper",1,IF(raw_data!CY13="internet",1,IF(raw_data!CY13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CZ13" s="30">
+        <f>IF(raw_data!CZ13="na",0,IF(raw_data!CZ13="tv",1,IF(raw_data!CZ13="radio",1,IF(raw_data!CZ13="newspaper",1,IF(raw_data!CZ13="internet",1,IF(raw_data!CZ13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DA13" s="30">
+        <f>IF(raw_data!DA13="na",0,IF(raw_data!DA13="tv",1,IF(raw_data!DA13="radio",1,IF(raw_data!DA13="newspaper",1,IF(raw_data!DA13="internet",1,IF(raw_data!DA13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DB13" s="30">
+        <f>IF(raw_data!DB13="4+ hrs",4,IF(raw_data!DB13="2-4 hrs",3,IF(raw_data!DB13="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DC13" s="30">
+        <f>IF(raw_data!DC13="4+ hrs",4,IF(raw_data!DC13="2-4 hrs",3,IF(raw_data!DC13="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DD13" s="30">
+        <f>IF(raw_data!DD13="4+ hrs",4,IF(raw_data!DD13="2-4 hrs",3,IF(raw_data!DD13="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DE13" s="30">
+        <f>IF(raw_data!DE13="na",0,IF(raw_data!DE13="tv",1,IF(raw_data!DE13="radio",1,IF(raw_data!DE13="newspaper",1,IF(raw_data!DE13="internet",1,IF(raw_data!DE13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DF13" s="30">
+        <f>IF(raw_data!DF13="na",0,IF(raw_data!DF13="tv",1,IF(raw_data!DF13="radio",1,IF(raw_data!DF13="newspaper",1,IF(raw_data!DF13="internet",1,IF(raw_data!DF13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DG13" s="30">
+        <f>IF(raw_data!DG13="na",0,IF(raw_data!DG13="tv",1,IF(raw_data!DG13="radio",1,IF(raw_data!DG13="newspaper",1,IF(raw_data!DG13="internet",1,IF(raw_data!DG13="sns",1,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DH13" s="30">
+        <f>IF(raw_data!DH13="4+ hrs",4,IF(raw_data!DH13="2-4 hrs",3,IF(raw_data!DH13="1-2 hrs",2,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="DI13" s="30">
+        <f>IF(raw_data!DI13="4+ hrs",4,IF(raw_data!DI13="2-4 hrs",3,IF(raw_data!DI13="1-2 hrs",2,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="DJ13" s="30">
+        <f>IF(raw_data!DJ13="4+ hrs",4,IF(raw_data!DJ13="2-4 hrs",3,IF(raw_data!DJ13="1-2 hrs",2,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="DK13" s="30">
+        <f>IF(raw_data!DK13="only news", 1, IF(raw_data!DK13="mostly news", 2, IF(raw_data!DK13="balanced", 3, IF(raw_data!DK13="mostly entertainment", 2, 1))))</f>
+        <v>3</v>
+      </c>
+      <c r="DL13" s="30">
+        <f>IF(raw_data!DL13="no",0,IF(raw_data!DL13="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DM13" s="30">
+        <f>IF(raw_data!DM13="no",0,IF(raw_data!DM13="na",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="DN13" s="30">
+        <f>IF(raw_data!DN13="no",0,IF(raw_data!DN13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DO13" s="30">
+        <f>IF(raw_data!DO13="no",0,IF(raw_data!DO13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DP13" s="30">
+        <f>IF(raw_data!DP13="no",0,IF(raw_data!DP13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DQ13" s="30">
+        <f>IF(raw_data!DQ13="no",0,IF(raw_data!DQ13="na",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="DR13" s="30">
+        <f>IF(raw_data!DR13="interested", 3, IF(raw_data!DR13="neutral", 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="DS13" s="30">
+        <f>IF(raw_data!DS13="vet school", 1, IF(raw_data!DS13="symposia", 1, IF(raw_data!DS13="conferences", 1, IF(raw_data!DS13="online course", 1, IF(raw_data!DS13="websites", 1, IF(raw_data!DS13="documentary", 1, IF(raw_data!DS13="tv", 1, IF(raw_data!DS13="newspaper", 1, IF(raw_data!DS13="blogs", 1, IF(raw_data!DS13="sns", 1, IF(raw_data!DS13="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="DT13" s="30">
+        <f>IF(raw_data!DT13="vet school", 1, IF(raw_data!DT13="symposia", 1, IF(raw_data!DT13="conferences", 1, IF(raw_data!DT13="online course", 1, IF(raw_data!DT13="websites", 1, IF(raw_data!DT13="documentary", 1, IF(raw_data!DT13="tv", 1, IF(raw_data!DT13="newspaper", 1, IF(raw_data!DT13="blogs", 1, IF(raw_data!DT13="sns", 1, IF(raw_data!DT13="na", 0, 2)))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="DU13" s="30">
+        <f>IF(raw_data!DU13="vet school", 1, IF(raw_data!DU13="symposia", 1, IF(raw_data!DU13="conferences", 1, IF(raw_data!DU13="online course", 1, IF(raw_data!DU13="websites", 1, IF(raw_data!DU13="documentary", 1, IF(raw_data!DU13="tv", 1, IF(raw_data!DU13="newspaper", 1, IF(raw_data!DU13="blogs", 1, IF(raw_data!DU13="sns", 1, IF(raw_data!DU13="na", 0, 2)))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="DL2:DU2"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="M1:AK1"/>
+    <mergeCell ref="AL1:BG1"/>
+    <mergeCell ref="BH1:CJ1"/>
+    <mergeCell ref="CK1:CX1"/>
+    <mergeCell ref="CY1:DU1"/>
+    <mergeCell ref="BY2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CR2"/>
+    <mergeCell ref="CS2:CX2"/>
+    <mergeCell ref="CY2:DD2"/>
+    <mergeCell ref="DE2:DJ2"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D54782C-8EB6-4F99-ABC1-76434D0CABB2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" style="125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="139"/>
+      <c r="BF1" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="136"/>
+      <c r="BO1" s="136"/>
+      <c r="BP1" s="136"/>
+      <c r="BQ1" s="137"/>
+    </row>
+    <row r="2" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="126"/>
+      <c r="B2" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="127" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="127" t="s">
+        <v>270</v>
+      </c>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="129"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="30"/>
+      <c r="BU2" s="30"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BA3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BB3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BE3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="BK3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="BQ3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30">
+        <f>SUM(coded_data!M4:P4)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="125">
+        <f>B4/4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <f t="shared" ref="D4:D13" si="0">IF(E4="very low", 1, IF(E4="low", 2, IF(E4="moderate", 3, IF(E4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="30" t="str">
+        <f t="shared" ref="E4" si="1">IF(C4&lt;=20%, "very low", IF(C4&lt;=40%, "low", IF(C4&lt;=60%, "moderate", IF(C4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="F4" s="30">
+        <f>SUM(coded_data!Q4:Z4)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="125">
+        <f>F4/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" ref="H4:H13" si="2">IF(I4="very low", 1, IF(I4="low", 2, IF(I4="moderate", 3, IF(I4="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="30" t="str">
+        <f t="shared" ref="I4" si="3">IF(G4&lt;=20%, "very low", IF(G4&lt;=40%, "low", IF(G4&lt;=60%, "moderate", IF(G4&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="J4" s="30">
+        <f>SUM(coded_data!AA4:AH4)</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="125">
+        <f>J4/8</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" ref="L4:L13" si="4">IF(M4="very low", 1, IF(M4="low", 2, IF(M4="moderate", 3, IF(M4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="30" t="str">
+        <f t="shared" ref="M4" si="5">IF(K4&lt;=20%, "very low", IF(K4&lt;=40%, "low", IF(K4&lt;=60%, "moderate", IF(K4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="N4" s="30">
+        <f>SUM(coded_data!AI4:AK4)</f>
+        <v>6</v>
+      </c>
+      <c r="O4" s="125">
+        <f>N4/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P4" s="30">
+        <f t="shared" ref="P4:P13" si="6">IF(Q4="very low", 1, IF(Q4="low", 2, IF(Q4="moderate", 3, IF(Q4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="30" t="str">
+        <f t="shared" ref="Q4" si="7">IF(O4&lt;=20%, "very low", IF(O4&lt;=40%, "low", IF(O4&lt;=60%, "moderate", IF(O4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="R4" s="30">
+        <f>SUM(coded_data!AL4)</f>
+        <v>5</v>
+      </c>
+      <c r="S4" s="125">
+        <f>R4/5</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="30">
+        <f t="shared" ref="T4:T13" si="8">IF(U4="very low", 1, IF(U4="low", 2, IF(U4="moderate", 3, IF(U4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="U4" s="30" t="str">
+        <f t="shared" ref="U4" si="9">IF(S4&lt;=20%, "very low", IF(S4&lt;=40%, "low", IF(S4&lt;=60%, "moderate", IF(S4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="V4" s="30">
+        <f>SUM(coded_data!AM4)</f>
+        <v>5</v>
+      </c>
+      <c r="W4" s="125">
+        <f>V4/5</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="30">
+        <f>IF(Y4="very low", 1, IF(Y4="low", 2, IF(Y4="moderate", 3, IF(Y4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="Y4" s="30" t="str">
+        <f>IF(W4&lt;=20%, "very low", IF(W4&lt;=40%, "low", IF(W4&lt;=60%, "moderate", IF(W4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="Z4" s="30">
+        <f>SUM(coded_data!AN4:AU4)</f>
+        <v>27</v>
+      </c>
+      <c r="AA4" s="125">
+        <f>Z4/40</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AB4" s="30">
+        <f>IF(AC4="very low", 1, IF(AC4="low", 2, IF(AC4="moderate", 3, IF(AC4="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="30" t="str">
+        <f>IF(AA4&lt;=20%, "very low", IF(AA4&lt;=40%, "low", IF(AA4&lt;=60%, "moderate", IF(AA4&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AD4" s="30">
+        <f>SUM(coded_data!AV4:BG4)</f>
+        <v>47</v>
+      </c>
+      <c r="AE4" s="125">
+        <f>AD4/55</f>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="AF4" s="30">
+        <f>IF(AG4="very low", 1, IF(AG4="low", 2, IF(AG4="moderate", 3, IF(AG4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="AG4" s="30" t="str">
+        <f>IF(AE4&lt;=20%, "very low", IF(AE4&lt;=40%, "low", IF(AE4&lt;=60%, "moderate", IF(AE4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="AH4" s="30">
+        <f>SUM(coded_data!BH4:BJ4)</f>
+        <v>3</v>
+      </c>
+      <c r="AI4" s="125">
+        <f>AH4/3</f>
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="30">
+        <f>IF(AK4="very low", 1, IF(AK4="low", 2, IF(AK4="moderate", 3, IF(AK4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="AK4" s="30" t="str">
+        <f>IF(AI4&lt;=20%, "very low", IF(AI4&lt;=40%, "low", IF(AI4&lt;=60%, "moderate", IF(AI4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="AL4" s="30">
+        <f>SUM(coded_data!BK4:BN4)</f>
+        <v>2</v>
+      </c>
+      <c r="AM4" s="125">
+        <f>AL4/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AN4" s="30">
+        <f>IF(AO4="very low", 1, IF(AO4="low", 2, IF(AO4="moderate", 3, IF(AO4="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="AO4" s="30" t="str">
+        <f>IF(AM4&lt;=20%, "very low", IF(AM4&lt;=40%, "low", IF(AM4&lt;=60%, "moderate", IF(AM4&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="AP4" s="30">
+        <f>SUM(coded_data!BO4:BP4)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="125">
+        <f>AP4/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR4" s="30">
+        <f>IF(AS4="very low", 1, IF(AS4="low", 2, IF(AS4="moderate", 3, IF(AS4="high", 4, 5))))</f>
+        <v>2</v>
+      </c>
+      <c r="AS4" s="30" t="str">
+        <f>IF(AQ4&lt;=20%, "very low", IF(AQ4&lt;=40%, "low", IF(AQ4&lt;=60%, "moderate", IF(AQ4&lt;=80%, "high", "very high"))))</f>
+        <v>low</v>
+      </c>
+      <c r="AT4" s="30">
+        <f>SUM(coded_data!BQ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="125">
+        <f>AT4/4</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="30">
+        <f>IF(AW4="very low", 1, IF(AW4="low", 2, IF(AW4="moderate", 3, IF(AW4="high", 4, 5))))</f>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="30" t="str">
+        <f>IF(AU4&lt;=20%, "very low", IF(AU4&lt;=40%, "low", IF(AU4&lt;=60%, "moderate", IF(AU4&lt;=80%, "high", "very high"))))</f>
+        <v>very low</v>
+      </c>
+      <c r="AX4" s="30">
+        <f>SUM(coded_data!BR4:BX4)</f>
+        <v>7</v>
+      </c>
+      <c r="AY4" s="125">
+        <f>AX4/7</f>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="30">
+        <f>IF(BA4="very low", 1, IF(BA4="low", 2, IF(BA4="moderate", 3, IF(BA4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BA4" s="30" t="str">
+        <f>IF(AY4&lt;=20%, "very low", IF(AY4&lt;=40%, "low", IF(AY4&lt;=60%, "moderate", IF(AY4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BB4" s="30">
+        <f>SUM(coded_data!BY4:CJ4)</f>
+        <v>4</v>
+      </c>
+      <c r="BC4" s="125">
+        <f>BB4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BD4" s="30">
+        <f>IF(BE4="very low", 1, IF(BE4="low", 2, IF(BE4="moderate", 3, IF(BE4="high", 4, 5))))</f>
+        <v>2</v>
+      </c>
+      <c r="BE4" s="30" t="str">
+        <f>IF(BC4&lt;=20%, "very low", IF(BC4&lt;=40%, "low", IF(BC4&lt;=60%, "moderate", IF(BC4&lt;=80%, "high", "very high"))))</f>
+        <v>low</v>
+      </c>
+      <c r="BF4" s="30">
+        <f>SUM(coded_data!CK4:CN4)</f>
+        <v>4</v>
+      </c>
+      <c r="BG4" s="125">
+        <f>BF4/4</f>
+        <v>1</v>
+      </c>
+      <c r="BH4" s="30">
+        <f>IF(BI4="very low", 1, IF(BI4="low", 2, IF(BI4="moderate", 3, IF(BI4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BI4" s="30" t="str">
+        <f>IF(BG4&lt;=20%, "very low", IF(BG4&lt;=40%, "low", IF(BG4&lt;=60%, "moderate", IF(BG4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BJ4" s="30">
+        <f>SUM(coded_data!CO4:CR4)</f>
+        <v>4</v>
+      </c>
+      <c r="BK4" s="125">
+        <f>BJ4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL4" s="30">
+        <f>IF(BM4="very low", 1, IF(BM4="low", 2, IF(BM4="moderate", 3, IF(BM4="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="BM4" s="30" t="str">
+        <f>IF(BK4&lt;=20%, "very low", IF(BK4&lt;=40%, "low", IF(BK4&lt;=60%, "moderate", IF(BK4&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="BN4" s="30">
+        <f>SUM(coded_data!CS4:CX4)</f>
+        <v>6</v>
+      </c>
+      <c r="BO4" s="125">
+        <f>BN4/6</f>
+        <v>1</v>
+      </c>
+      <c r="BP4" s="30">
+        <f>IF(BQ4="very low", 1, IF(BQ4="low", 2, IF(BQ4="moderate", 3, IF(BQ4="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="30" t="str">
+        <f>IF(BO4&lt;=20%, "very low", IF(BO4&lt;=40%, "low", IF(BO4&lt;=60%, "moderate", IF(BO4&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BR4" s="30"/>
+      <c r="BS4" s="30"/>
+      <c r="BT4" s="30"/>
+      <c r="BU4" s="30"/>
+      <c r="BV4" s="30"/>
+      <c r="BW4" s="30"/>
+      <c r="BX4" s="30"/>
+      <c r="BY4" s="30"/>
+      <c r="BZ4" s="30"/>
+      <c r="CA4" s="30"/>
+      <c r="CB4" s="30"/>
+      <c r="CC4" s="30"/>
+      <c r="CD4" s="30"/>
+      <c r="CE4" s="30"/>
+      <c r="CF4" s="30"/>
+      <c r="CG4" s="30"/>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30">
+        <f>SUM(coded_data!M5:P5)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="125">
+        <f t="shared" ref="C5:C13" si="10">B5/4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="30" t="str">
+        <f t="shared" ref="E5:E13" si="11">IF(C5&lt;=20%, "very low", IF(C5&lt;=40%, "low", IF(C5&lt;=60%, "moderate", IF(C5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="F5" s="30">
+        <f>SUM(coded_data!Q5:Z5)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="125">
+        <f t="shared" ref="G5:G13" si="12">F5/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f t="shared" ref="I5:I13" si="13">IF(G5&lt;=20%, "very low", IF(G5&lt;=40%, "low", IF(G5&lt;=60%, "moderate", IF(G5&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="J5" s="30">
+        <f>SUM(coded_data!AA5:AH5)</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="125">
+        <f t="shared" ref="K5:K13" si="14">J5/8</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="30" t="str">
+        <f t="shared" ref="M5:M13" si="15">IF(K5&lt;=20%, "very low", IF(K5&lt;=40%, "low", IF(K5&lt;=60%, "moderate", IF(K5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="N5" s="30">
+        <f>SUM(coded_data!AI5:AK5)</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="125">
+        <f t="shared" ref="O5:O13" si="16">N5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="30" t="str">
+        <f t="shared" ref="Q5:Q13" si="17">IF(O5&lt;=20%, "very low", IF(O5&lt;=40%, "low", IF(O5&lt;=60%, "moderate", IF(O5&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="R5" s="30">
+        <f>SUM(coded_data!AL5)</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="125">
+        <f t="shared" ref="S5:S13" si="18">R5/5</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U5" s="30" t="str">
+        <f t="shared" ref="U5:U13" si="19">IF(S5&lt;=20%, "very low", IF(S5&lt;=40%, "low", IF(S5&lt;=60%, "moderate", IF(S5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="V5" s="30">
+        <f>SUM(coded_data!AM5)</f>
+        <v>4</v>
+      </c>
+      <c r="W5" s="125">
+        <f t="shared" ref="W5:W13" si="20">V5/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="X5" s="30">
+        <f t="shared" ref="X5:X13" si="21">IF(Y5="very low", 1, IF(Y5="low", 2, IF(Y5="moderate", 3, IF(Y5="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="30" t="str">
+        <f t="shared" ref="Y5:Y13" si="22">IF(W5&lt;=20%, "very low", IF(W5&lt;=40%, "low", IF(W5&lt;=60%, "moderate", IF(W5&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="Z5" s="30">
+        <f>SUM(coded_data!AN5:AU5)</f>
+        <v>27</v>
+      </c>
+      <c r="AA5" s="125">
+        <f t="shared" ref="AA5:AA13" si="23">Z5/40</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AB5" s="30">
+        <f t="shared" ref="AB5:AB13" si="24">IF(AC5="very low", 1, IF(AC5="low", 2, IF(AC5="moderate", 3, IF(AC5="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AC5" s="30" t="str">
+        <f t="shared" ref="AC5:AC13" si="25">IF(AA5&lt;=20%, "very low", IF(AA5&lt;=40%, "low", IF(AA5&lt;=60%, "moderate", IF(AA5&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AD5" s="30">
+        <f>SUM(coded_data!AV5:BG5)</f>
+        <v>47</v>
+      </c>
+      <c r="AE5" s="125">
+        <f t="shared" ref="AE5:AE13" si="26">AD5/55</f>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="AF5" s="30">
+        <f t="shared" ref="AF5:AF13" si="27">IF(AG5="very low", 1, IF(AG5="low", 2, IF(AG5="moderate", 3, IF(AG5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="AG5" s="30" t="str">
+        <f t="shared" ref="AG5:AG13" si="28">IF(AE5&lt;=20%, "very low", IF(AE5&lt;=40%, "low", IF(AE5&lt;=60%, "moderate", IF(AE5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="AH5" s="30">
+        <f>SUM(coded_data!BH5:BJ5)</f>
+        <v>3</v>
+      </c>
+      <c r="AI5" s="125">
+        <f t="shared" ref="AI5:AI13" si="29">AH5/3</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="30">
+        <f t="shared" ref="AJ5:AJ13" si="30">IF(AK5="very low", 1, IF(AK5="low", 2, IF(AK5="moderate", 3, IF(AK5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="AK5" s="30" t="str">
+        <f t="shared" ref="AK5:AK13" si="31">IF(AI5&lt;=20%, "very low", IF(AI5&lt;=40%, "low", IF(AI5&lt;=60%, "moderate", IF(AI5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="AL5" s="30">
+        <f>SUM(coded_data!BK5:BN5)</f>
+        <v>3</v>
+      </c>
+      <c r="AM5" s="125">
+        <f t="shared" ref="AM5:AM13" si="32">AL5/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="AN5" s="30">
+        <f>IF(AO5="very low", 1, IF(AO5="low", 2, IF(AO5="moderate", 3, IF(AO5="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO5" s="30" t="str">
+        <f>IF(AM5&lt;=20%, "very low", IF(AM5&lt;=40%, "low", IF(AM5&lt;=60%, "moderate", IF(AM5&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AP5" s="30">
+        <f>SUM(coded_data!BO5:BP5)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="125">
+        <f t="shared" ref="AQ5:AQ13" si="33">AP5/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR5" s="30">
+        <f t="shared" ref="AR5:AR13" si="34">IF(AS5="very low", 1, IF(AS5="low", 2, IF(AS5="moderate", 3, IF(AS5="high", 4, 5))))</f>
+        <v>2</v>
+      </c>
+      <c r="AS5" s="30" t="str">
+        <f t="shared" ref="AS5:AS13" si="35">IF(AQ5&lt;=20%, "very low", IF(AQ5&lt;=40%, "low", IF(AQ5&lt;=60%, "moderate", IF(AQ5&lt;=80%, "high", "very high"))))</f>
+        <v>low</v>
+      </c>
+      <c r="AT5" s="30">
+        <f>SUM(coded_data!BQ5)</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="125">
+        <f t="shared" ref="AU5:AU13" si="36">AT5/4</f>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="30">
+        <f t="shared" ref="AV5:AV13" si="37">IF(AW5="very low", 1, IF(AW5="low", 2, IF(AW5="moderate", 3, IF(AW5="high", 4, 5))))</f>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="30" t="str">
+        <f t="shared" ref="AW5:AW13" si="38">IF(AU5&lt;=20%, "very low", IF(AU5&lt;=40%, "low", IF(AU5&lt;=60%, "moderate", IF(AU5&lt;=80%, "high", "very high"))))</f>
+        <v>very low</v>
+      </c>
+      <c r="AX5" s="30">
+        <f>SUM(coded_data!BR5:BX5)</f>
+        <v>7</v>
+      </c>
+      <c r="AY5" s="125">
+        <f t="shared" ref="AY5:AY13" si="39">AX5/7</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="30">
+        <f t="shared" ref="AZ5:AZ13" si="40">IF(BA5="very low", 1, IF(BA5="low", 2, IF(BA5="moderate", 3, IF(BA5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BA5" s="30" t="str">
+        <f t="shared" ref="BA5:BA13" si="41">IF(AY5&lt;=20%, "very low", IF(AY5&lt;=40%, "low", IF(AY5&lt;=60%, "moderate", IF(AY5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BB5" s="30">
+        <f>SUM(coded_data!BY5:CJ5)</f>
+        <v>2</v>
+      </c>
+      <c r="BC5" s="125">
+        <f t="shared" ref="BC5:BC13" si="42">BB5/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BD5" s="30">
+        <f t="shared" ref="BD5:BD13" si="43">IF(BE5="very low", 1, IF(BE5="low", 2, IF(BE5="moderate", 3, IF(BE5="high", 4, 5))))</f>
+        <v>1</v>
+      </c>
+      <c r="BE5" s="30" t="str">
+        <f t="shared" ref="BE5:BE13" si="44">IF(BC5&lt;=20%, "very low", IF(BC5&lt;=40%, "low", IF(BC5&lt;=60%, "moderate", IF(BC5&lt;=80%, "high", "very high"))))</f>
+        <v>very low</v>
+      </c>
+      <c r="BF5" s="30">
+        <f>SUM(coded_data!CK5:CN5)</f>
+        <v>4</v>
+      </c>
+      <c r="BG5" s="125">
+        <f t="shared" ref="BG5:BG13" si="45">BF5/4</f>
+        <v>1</v>
+      </c>
+      <c r="BH5" s="30">
+        <f t="shared" ref="BH5:BH13" si="46">IF(BI5="very low", 1, IF(BI5="low", 2, IF(BI5="moderate", 3, IF(BI5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BI5" s="30" t="str">
+        <f t="shared" ref="BI5:BI13" si="47">IF(BG5&lt;=20%, "very low", IF(BG5&lt;=40%, "low", IF(BG5&lt;=60%, "moderate", IF(BG5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BJ5" s="30">
+        <f>SUM(coded_data!CO5:CR5)</f>
+        <v>4</v>
+      </c>
+      <c r="BK5" s="125">
+        <f t="shared" ref="BK5:BK13" si="48">BJ5/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL5" s="30">
+        <f t="shared" ref="BL5:BL13" si="49">IF(BM5="very low", 1, IF(BM5="low", 2, IF(BM5="moderate", 3, IF(BM5="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="BM5" s="30" t="str">
+        <f t="shared" ref="BM5:BM13" si="50">IF(BK5&lt;=20%, "very low", IF(BK5&lt;=40%, "low", IF(BK5&lt;=60%, "moderate", IF(BK5&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="BN5" s="30">
+        <f>SUM(coded_data!CS5:CX5)</f>
+        <v>6</v>
+      </c>
+      <c r="BO5" s="125">
+        <f t="shared" ref="BO5:BO13" si="51">BN5/6</f>
+        <v>1</v>
+      </c>
+      <c r="BP5" s="30">
+        <f t="shared" ref="BP5:BP13" si="52">IF(BQ5="very low", 1, IF(BQ5="low", 2, IF(BQ5="moderate", 3, IF(BQ5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="BQ5" s="30" t="str">
+        <f t="shared" ref="BQ5:BQ13" si="53">IF(BO5&lt;=20%, "very low", IF(BO5&lt;=40%, "low", IF(BO5&lt;=60%, "moderate", IF(BO5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
+    </row>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30">
+        <f>SUM(coded_data!M6:P6)</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F6" s="30">
+        <f>SUM(coded_data!Q6:Z6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="125">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>high</v>
+      </c>
+      <c r="J6" s="30">
+        <f>SUM(coded_data!AA6:AH6)</f>
+        <v>8</v>
+      </c>
+      <c r="K6" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N6" s="30">
+        <f>SUM(coded_data!AI6:AK6)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="125">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P6" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R6" s="30">
+        <f>SUM(coded_data!AL6)</f>
+        <v>5</v>
+      </c>
+      <c r="S6" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U6" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V6" s="30">
+        <f>SUM(coded_data!AM6)</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="125">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="30">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>high</v>
+      </c>
+      <c r="Z6" s="30">
+        <f>SUM(coded_data!AN6:AU6)</f>
+        <v>28</v>
+      </c>
+      <c r="AA6" s="125">
+        <f t="shared" si="23"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB6" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD6" s="30">
+        <f>SUM(coded_data!AV6:BG6)</f>
+        <v>47</v>
+      </c>
+      <c r="AE6" s="125">
+        <f t="shared" si="26"/>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="AF6" s="30">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AG6" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>very high</v>
+      </c>
+      <c r="AH6" s="30">
+        <f>SUM(coded_data!BH6:BJ6)</f>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK6" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL6" s="30">
+        <f>SUM(coded_data!BK6:BN6)</f>
+        <v>3</v>
+      </c>
+      <c r="AM6" s="125">
+        <f t="shared" si="32"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN6" s="30">
+        <f>IF(AO6="very low", 1, IF(AO6="low", 2, IF(AO6="moderate", 3, IF(AO6="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO6" s="30" t="str">
+        <f>IF(AM6&lt;=20%, "very low", IF(AM6&lt;=40%, "low", IF(AM6&lt;=60%, "moderate", IF(AM6&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AP6" s="30">
+        <f>SUM(coded_data!BO6:BP6)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR6" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS6" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT6" s="30">
+        <f>SUM(coded_data!BQ6)</f>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="125">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="30">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>very low</v>
+      </c>
+      <c r="AX6" s="30">
+        <f>SUM(coded_data!BR6:BX6)</f>
+        <v>7</v>
+      </c>
+      <c r="AY6" s="125">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="30">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="BA6" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>very high</v>
+      </c>
+      <c r="BB6" s="30">
+        <f>SUM(coded_data!BY6:CJ6)</f>
+        <v>2</v>
+      </c>
+      <c r="BC6" s="125">
+        <f t="shared" si="42"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BD6" s="30">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>very low</v>
+      </c>
+      <c r="BF6" s="30">
+        <f>SUM(coded_data!CK6:CN6)</f>
+        <v>4</v>
+      </c>
+      <c r="BG6" s="125">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="BH6" s="30">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="BI6" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>very high</v>
+      </c>
+      <c r="BJ6" s="30">
+        <f>SUM(coded_data!CO6:CR6)</f>
+        <v>4</v>
+      </c>
+      <c r="BK6" s="125">
+        <f t="shared" si="48"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL6" s="30">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="BM6" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>moderate</v>
+      </c>
+      <c r="BN6" s="30">
+        <f>SUM(coded_data!CS6:CX6)</f>
+        <v>6</v>
+      </c>
+      <c r="BO6" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP6" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ6" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+    </row>
+    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30">
+        <f>SUM(coded_data!M7:P7)</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F7" s="30">
+        <f>SUM(coded_data!Q7:Z7)</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="125">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>moderate</v>
+      </c>
+      <c r="J7" s="30">
+        <f>SUM(coded_data!AA7:AH7)</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N7" s="30">
+        <f>SUM(coded_data!AI7:AK7)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="125">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R7" s="30">
+        <f>SUM(coded_data!AL7)</f>
+        <v>5</v>
+      </c>
+      <c r="S7" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U7" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V7" s="30">
+        <f>SUM(coded_data!AM7)</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="125">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="X7" s="30">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>high</v>
+      </c>
+      <c r="Z7" s="30">
+        <f>SUM(coded_data!AN7:AU7)</f>
+        <v>27</v>
+      </c>
+      <c r="AA7" s="125">
+        <f t="shared" si="23"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AB7" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD7" s="30">
+        <f>SUM(coded_data!AV7:BG7)</f>
+        <v>43</v>
+      </c>
+      <c r="AE7" s="125">
+        <f t="shared" si="26"/>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="AF7" s="30">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="AG7" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>high</v>
+      </c>
+      <c r="AH7" s="30">
+        <f>SUM(coded_data!BH7:BJ7)</f>
+        <v>3</v>
+      </c>
+      <c r="AI7" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK7" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL7" s="30">
+        <f>SUM(coded_data!BK7:BN7)</f>
+        <v>3</v>
+      </c>
+      <c r="AM7" s="125">
+        <f t="shared" si="32"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN7" s="30">
+        <f>IF(AO7="very low", 1, IF(AO7="low", 2, IF(AO7="moderate", 3, IF(AO7="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO7" s="30" t="str">
+        <f>IF(AM7&lt;=20%, "very low", IF(AM7&lt;=40%, "low", IF(AM7&lt;=60%, "moderate", IF(AM7&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AP7" s="30">
+        <f>SUM(coded_data!BO7:BP7)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR7" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS7" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT7" s="30">
+        <f>SUM(coded_data!BQ7)</f>
+        <v>1</v>
+      </c>
+      <c r="AU7" s="125">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="AV7" s="30">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AW7" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>low</v>
+      </c>
+      <c r="AX7" s="30">
+        <f>SUM(coded_data!BR7:BX7)</f>
+        <v>5</v>
+      </c>
+      <c r="AY7" s="125">
+        <f t="shared" si="39"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AZ7" s="30">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="BA7" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>high</v>
+      </c>
+      <c r="BB7" s="30">
+        <f>SUM(coded_data!BY7:CJ7)</f>
+        <v>5</v>
+      </c>
+      <c r="BC7" s="125">
+        <f t="shared" si="42"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BD7" s="30">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="BE7" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>moderate</v>
+      </c>
+      <c r="BF7" s="30">
+        <f>SUM(coded_data!CK7:CN7)</f>
+        <v>4</v>
+      </c>
+      <c r="BG7" s="125">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="BH7" s="30">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="BI7" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>very high</v>
+      </c>
+      <c r="BJ7" s="30">
+        <f>SUM(coded_data!CO7:CR7)</f>
+        <v>5</v>
+      </c>
+      <c r="BK7" s="125">
+        <f t="shared" si="48"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BL7" s="30">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="BM7" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>high</v>
+      </c>
+      <c r="BN7" s="30">
+        <f>SUM(coded_data!CS7:CX7)</f>
+        <v>6</v>
+      </c>
+      <c r="BO7" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP7" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR7" s="30"/>
+      <c r="BS7" s="30"/>
+      <c r="BT7" s="30"/>
+      <c r="BU7" s="30"/>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30">
+        <f>SUM(coded_data!M8:P8)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F8" s="30">
+        <f>SUM(coded_data!Q8:Z8)</f>
+        <v>7</v>
+      </c>
+      <c r="G8" s="125">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>high</v>
+      </c>
+      <c r="J8" s="30">
+        <f>SUM(coded_data!AA8:AH8)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N8" s="30">
+        <f>SUM(coded_data!AI8:AK8)</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="125">
+        <f t="shared" si="16"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q8" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R8" s="30">
+        <f>SUM(coded_data!AL8)</f>
+        <v>5</v>
+      </c>
+      <c r="S8" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V8" s="30">
+        <f>SUM(coded_data!AM8)</f>
+        <v>4</v>
+      </c>
+      <c r="W8" s="125">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="X8" s="30">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>high</v>
+      </c>
+      <c r="Z8" s="30">
+        <f>SUM(coded_data!AN8:AU8)</f>
+        <v>29</v>
+      </c>
+      <c r="AA8" s="125">
+        <f t="shared" si="23"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AB8" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD8" s="30">
+        <f>SUM(coded_data!AV8:BG8)</f>
+        <v>46</v>
+      </c>
+      <c r="AE8" s="125">
+        <f t="shared" si="26"/>
+        <v>0.83636363636363631</v>
+      </c>
+      <c r="AF8" s="30">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AG8" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>very high</v>
+      </c>
+      <c r="AH8" s="30">
+        <f>SUM(coded_data!BH8:BJ8)</f>
+        <v>3</v>
+      </c>
+      <c r="AI8" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK8" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL8" s="30">
+        <f>SUM(coded_data!BK8:BN8)</f>
+        <v>3</v>
+      </c>
+      <c r="AM8" s="125">
+        <f t="shared" si="32"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN8" s="30">
+        <f>IF(AO8="very low", 1, IF(AO8="low", 2, IF(AO8="moderate", 3, IF(AO8="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO8" s="30" t="str">
+        <f>IF(AM8&lt;=20%, "very low", IF(AM8&lt;=40%, "low", IF(AM8&lt;=60%, "moderate", IF(AM8&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AP8" s="30">
+        <f>SUM(coded_data!BO8:BP8)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="125">
+        <f t="shared" si="33"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AR8" s="30">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="AS8" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>very high</v>
+      </c>
+      <c r="AT8" s="30">
+        <f>SUM(coded_data!BQ8)</f>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="125">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="30">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>very low</v>
+      </c>
+      <c r="AX8" s="30">
+        <f>SUM(coded_data!BR8:BX8)</f>
+        <v>4</v>
+      </c>
+      <c r="AY8" s="125">
+        <f t="shared" si="39"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AZ8" s="30">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="BA8" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>moderate</v>
+      </c>
+      <c r="BB8" s="30">
+        <f>SUM(coded_data!BY8:CJ8)</f>
+        <v>5</v>
+      </c>
+      <c r="BC8" s="125">
+        <f t="shared" si="42"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BD8" s="30">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="BE8" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>moderate</v>
+      </c>
+      <c r="BF8" s="30">
+        <f>SUM(coded_data!CK8:CN8)</f>
+        <v>3</v>
+      </c>
+      <c r="BG8" s="125">
+        <f t="shared" si="45"/>
+        <v>0.75</v>
+      </c>
+      <c r="BH8" s="30">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="BI8" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>high</v>
+      </c>
+      <c r="BJ8" s="30">
+        <f>SUM(coded_data!CO8:CR8)</f>
+        <v>4</v>
+      </c>
+      <c r="BK8" s="125">
+        <f t="shared" si="48"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL8" s="30">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="BM8" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>moderate</v>
+      </c>
+      <c r="BN8" s="30">
+        <f>SUM(coded_data!CS8:CX8)</f>
+        <v>6</v>
+      </c>
+      <c r="BO8" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP8" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ8" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR8" s="30"/>
+      <c r="BS8" s="30"/>
+      <c r="BT8" s="30"/>
+      <c r="BU8" s="30"/>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30">
+        <f>SUM(coded_data!M9:P9)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F9" s="30">
+        <f>SUM(coded_data!Q9:Z9)</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="125">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>high</v>
+      </c>
+      <c r="J9" s="30">
+        <f>SUM(coded_data!AA9:AH9)</f>
+        <v>8</v>
+      </c>
+      <c r="K9" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N9" s="30">
+        <f>SUM(coded_data!AI9:AK9)</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="125">
+        <f t="shared" si="16"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P9" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R9" s="30">
+        <f>SUM(coded_data!AL9)</f>
+        <v>5</v>
+      </c>
+      <c r="S9" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U9" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V9" s="30">
+        <f>SUM(coded_data!AM9)</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="125">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="X9" s="30">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Y9" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>moderate</v>
+      </c>
+      <c r="Z9" s="30">
+        <f>SUM(coded_data!AN9:AU9)</f>
+        <v>29</v>
+      </c>
+      <c r="AA9" s="125">
+        <f t="shared" si="23"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AB9" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD9" s="30">
+        <f>SUM(coded_data!AV9:BG9)</f>
+        <v>47</v>
+      </c>
+      <c r="AE9" s="125">
+        <f t="shared" si="26"/>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="AF9" s="30">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AG9" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>very high</v>
+      </c>
+      <c r="AH9" s="30">
+        <f>SUM(coded_data!BH9:BJ9)</f>
+        <v>3</v>
+      </c>
+      <c r="AI9" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK9" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL9" s="30">
+        <f>SUM(coded_data!BK9:BN9)</f>
+        <v>3</v>
+      </c>
+      <c r="AM9" s="125">
+        <f t="shared" si="32"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN9" s="30">
+        <f>IF(AO9="very low", 1, IF(AO9="low", 2, IF(AO9="moderate", 3, IF(AO9="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO9" s="30" t="str">
+        <f>IF(AM9&lt;=20%, "very low", IF(AM9&lt;=40%, "low", IF(AM9&lt;=60%, "moderate", IF(AM9&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="AP9" s="30">
+        <f>SUM(coded_data!BO9:BP9)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR9" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS9" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT9" s="30">
+        <f>SUM(coded_data!BQ9)</f>
+        <v>1</v>
+      </c>
+      <c r="AU9" s="125">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="AV9" s="30">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AW9" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>low</v>
+      </c>
+      <c r="AX9" s="30">
+        <f>SUM(coded_data!BR9:BX9)</f>
+        <v>4</v>
+      </c>
+      <c r="AY9" s="125">
+        <f t="shared" si="39"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AZ9" s="30">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="BA9" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>moderate</v>
+      </c>
+      <c r="BB9" s="30">
+        <f>SUM(coded_data!BY9:CJ9)</f>
+        <v>1</v>
+      </c>
+      <c r="BC9" s="125">
+        <f t="shared" si="42"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BD9" s="30">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BE9" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>very low</v>
+      </c>
+      <c r="BF9" s="30">
+        <f>SUM(coded_data!CK9:CN9)</f>
+        <v>3</v>
+      </c>
+      <c r="BG9" s="125">
+        <f t="shared" si="45"/>
+        <v>0.75</v>
+      </c>
+      <c r="BH9" s="30">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="BI9" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>high</v>
+      </c>
+      <c r="BJ9" s="30">
+        <f>SUM(coded_data!CO9:CR9)</f>
+        <v>5</v>
+      </c>
+      <c r="BK9" s="125">
+        <f t="shared" si="48"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BL9" s="30">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="BM9" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>high</v>
+      </c>
+      <c r="BN9" s="30">
+        <f>SUM(coded_data!CS9:CX9)</f>
+        <v>6</v>
+      </c>
+      <c r="BO9" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP9" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ9" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+    </row>
+    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30">
+        <f>SUM(coded_data!M10:P10)</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F10" s="30">
+        <f>SUM(coded_data!Q10:Z10)</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="125">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>moderate</v>
+      </c>
+      <c r="J10" s="30">
+        <f>SUM(coded_data!AA10:AH10)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N10" s="30">
+        <f>SUM(coded_data!AI10:AK10)</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="125">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R10" s="30">
+        <f>SUM(coded_data!AL10)</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U10" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V10" s="30">
+        <f>SUM(coded_data!AM10)</f>
+        <v>3</v>
+      </c>
+      <c r="W10" s="125">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="X10" s="30">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>moderate</v>
+      </c>
+      <c r="Z10" s="30">
+        <f>SUM(coded_data!AN10:AU10)</f>
+        <v>28</v>
+      </c>
+      <c r="AA10" s="125">
+        <f t="shared" si="23"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB10" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC10" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD10" s="30">
+        <f>SUM(coded_data!AV10:BG10)</f>
+        <v>42</v>
+      </c>
+      <c r="AE10" s="125">
+        <f t="shared" si="26"/>
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="AF10" s="30">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="AG10" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>high</v>
+      </c>
+      <c r="AH10" s="30">
+        <f>SUM(coded_data!BH10:BJ10)</f>
+        <v>3</v>
+      </c>
+      <c r="AI10" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK10" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL10" s="30">
+        <f>SUM(coded_data!BK10:BN10)</f>
+        <v>2</v>
+      </c>
+      <c r="AM10" s="125">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN10" s="30">
+        <f>IF(AO10="very low", 1, IF(AO10="low", 2, IF(AO10="moderate", 3, IF(AO10="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="AO10" s="30" t="str">
+        <f>IF(AM10&lt;=20%, "very low", IF(AM10&lt;=40%, "low", IF(AM10&lt;=60%, "moderate", IF(AM10&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="AP10" s="30">
+        <f>SUM(coded_data!BO10:BP10)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR10" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS10" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT10" s="30">
+        <f>SUM(coded_data!BQ10)</f>
+        <v>2</v>
+      </c>
+      <c r="AU10" s="125">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="AV10" s="30">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AW10" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>moderate</v>
+      </c>
+      <c r="AX10" s="30">
+        <f>SUM(coded_data!BR10:BX10)</f>
+        <v>4</v>
+      </c>
+      <c r="AY10" s="125">
+        <f t="shared" si="39"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AZ10" s="30">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="BA10" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>moderate</v>
+      </c>
+      <c r="BB10" s="30">
+        <f>SUM(coded_data!BY10:CJ10)</f>
+        <v>2</v>
+      </c>
+      <c r="BC10" s="125">
+        <f t="shared" si="42"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BD10" s="30">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BE10" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>very low</v>
+      </c>
+      <c r="BF10" s="30">
+        <f>SUM(coded_data!CK10:CN10)</f>
+        <v>4</v>
+      </c>
+      <c r="BG10" s="125">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="BH10" s="30">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="BI10" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>very high</v>
+      </c>
+      <c r="BJ10" s="30">
+        <f>SUM(coded_data!CO10:CR10)</f>
+        <v>5</v>
+      </c>
+      <c r="BK10" s="125">
+        <f t="shared" si="48"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BL10" s="30">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="BM10" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>high</v>
+      </c>
+      <c r="BN10" s="30">
+        <f>SUM(coded_data!CS10:CX10)</f>
+        <v>6</v>
+      </c>
+      <c r="BO10" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP10" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ10" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR10" s="30"/>
+      <c r="BS10" s="30"/>
+      <c r="BT10" s="30"/>
+      <c r="BU10" s="30"/>
+    </row>
+    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30">
+        <f>SUM(coded_data!M11:P11)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F11" s="30">
+        <f>SUM(coded_data!Q11:Z11)</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="125">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>moderate</v>
+      </c>
+      <c r="J11" s="30">
+        <f>SUM(coded_data!AA11:AH11)</f>
+        <v>8</v>
+      </c>
+      <c r="K11" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N11" s="30">
+        <f>SUM(coded_data!AI11:AK11)</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="125">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>moderate</v>
+      </c>
+      <c r="R11" s="30">
+        <f>SUM(coded_data!AL11)</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U11" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V11" s="30">
+        <f>SUM(coded_data!AM11)</f>
+        <v>4</v>
+      </c>
+      <c r="W11" s="125">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="X11" s="30">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Y11" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>high</v>
+      </c>
+      <c r="Z11" s="30">
+        <f>SUM(coded_data!AN11:AU11)</f>
+        <v>27</v>
+      </c>
+      <c r="AA11" s="125">
+        <f t="shared" si="23"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AB11" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC11" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD11" s="30">
+        <f>SUM(coded_data!AV11:BG11)</f>
+        <v>43</v>
+      </c>
+      <c r="AE11" s="125">
+        <f t="shared" si="26"/>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="AF11" s="30">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="AG11" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>high</v>
+      </c>
+      <c r="AH11" s="30">
+        <f>SUM(coded_data!BH11:BJ11)</f>
+        <v>3</v>
+      </c>
+      <c r="AI11" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK11" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL11" s="30">
+        <f>SUM(coded_data!BK11:BN11)</f>
+        <v>2</v>
+      </c>
+      <c r="AM11" s="125">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN11" s="30">
+        <f>IF(AO11="very low", 1, IF(AO11="low", 2, IF(AO11="moderate", 3, IF(AO11="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="AO11" s="30" t="str">
+        <f>IF(AM11&lt;=20%, "very low", IF(AM11&lt;=40%, "low", IF(AM11&lt;=60%, "moderate", IF(AM11&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="AP11" s="30">
+        <f>SUM(coded_data!BO11:BP11)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR11" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS11" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT11" s="30">
+        <f>SUM(coded_data!BQ11)</f>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="125">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="AV11" s="30">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AW11" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>low</v>
+      </c>
+      <c r="AX11" s="30">
+        <f>SUM(coded_data!BR11:BX11)</f>
+        <v>3</v>
+      </c>
+      <c r="AY11" s="125">
+        <f t="shared" si="39"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AZ11" s="30">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="BA11" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>moderate</v>
+      </c>
+      <c r="BB11" s="30">
+        <f>SUM(coded_data!BY11:CJ11)</f>
+        <v>5</v>
+      </c>
+      <c r="BC11" s="125">
+        <f t="shared" si="42"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BD11" s="30">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="BE11" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>moderate</v>
+      </c>
+      <c r="BF11" s="30">
+        <f>SUM(coded_data!CK11:CN11)</f>
+        <v>4</v>
+      </c>
+      <c r="BG11" s="125">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="BH11" s="30">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="BI11" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>very high</v>
+      </c>
+      <c r="BJ11" s="30">
+        <f>SUM(coded_data!CO11:CR11)</f>
+        <v>4</v>
+      </c>
+      <c r="BK11" s="125">
+        <f t="shared" si="48"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL11" s="30">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="BM11" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>moderate</v>
+      </c>
+      <c r="BN11" s="30">
+        <f>SUM(coded_data!CS11:CX11)</f>
+        <v>6</v>
+      </c>
+      <c r="BO11" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP11" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="30"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="30"/>
+    </row>
+    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30">
+        <f>SUM(coded_data!M12:P12)</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F12" s="30">
+        <f>SUM(coded_data!Q12:Z12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="125">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>very low</v>
+      </c>
+      <c r="J12" s="30">
+        <f>SUM(coded_data!AA12:AH12)</f>
+        <v>7</v>
+      </c>
+      <c r="K12" s="125">
+        <f t="shared" si="14"/>
+        <v>0.875</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M12" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N12" s="30">
+        <f>SUM(coded_data!AI12:AK12)</f>
+        <v>2</v>
+      </c>
+      <c r="O12" s="125">
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>low</v>
+      </c>
+      <c r="R12" s="30">
+        <f>SUM(coded_data!AL12)</f>
+        <v>5</v>
+      </c>
+      <c r="S12" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U12" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V12" s="30">
+        <f>SUM(coded_data!AM12)</f>
+        <v>3</v>
+      </c>
+      <c r="W12" s="125">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>moderate</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>SUM(coded_data!AN12:AU12)</f>
+        <v>30</v>
+      </c>
+      <c r="AA12" s="125">
+        <f t="shared" si="23"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC12" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD12" s="30">
+        <f>SUM(coded_data!AV12:BG12)</f>
+        <v>40</v>
+      </c>
+      <c r="AE12" s="125">
+        <f t="shared" si="26"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AF12" s="30">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="AG12" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>high</v>
+      </c>
+      <c r="AH12" s="30">
+        <f>SUM(coded_data!BH12:BJ12)</f>
+        <v>3</v>
+      </c>
+      <c r="AI12" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK12" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL12" s="30">
+        <f>SUM(coded_data!BK12:BN12)</f>
+        <v>2</v>
+      </c>
+      <c r="AM12" s="125">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN12" s="30">
+        <f>IF(AO12="very low", 1, IF(AO12="low", 2, IF(AO12="moderate", 3, IF(AO12="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="AO12" s="30" t="str">
+        <f>IF(AM12&lt;=20%, "very low", IF(AM12&lt;=40%, "low", IF(AM12&lt;=60%, "moderate", IF(AM12&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="AP12" s="30">
+        <f>SUM(coded_data!BO12:BP12)</f>
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="125">
+        <f t="shared" si="33"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR12" s="30">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="AS12" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>high</v>
+      </c>
+      <c r="AT12" s="30">
+        <f>SUM(coded_data!BQ12)</f>
+        <v>3</v>
+      </c>
+      <c r="AU12" s="125">
+        <f t="shared" si="36"/>
+        <v>0.75</v>
+      </c>
+      <c r="AV12" s="30">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="AW12" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>high</v>
+      </c>
+      <c r="AX12" s="30">
+        <f>SUM(coded_data!BR12:BX12)</f>
+        <v>2</v>
+      </c>
+      <c r="AY12" s="125">
+        <f t="shared" si="39"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AZ12" s="30">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="BA12" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>low</v>
+      </c>
+      <c r="BB12" s="30">
+        <f>SUM(coded_data!BY12:CJ12)</f>
+        <v>3</v>
+      </c>
+      <c r="BC12" s="125">
+        <f t="shared" si="42"/>
+        <v>0.25</v>
+      </c>
+      <c r="BD12" s="30">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="BE12" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>low</v>
+      </c>
+      <c r="BF12" s="30">
+        <f>SUM(coded_data!CK12:CN12)</f>
+        <v>2</v>
+      </c>
+      <c r="BG12" s="125">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="BH12" s="30">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="BI12" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>moderate</v>
+      </c>
+      <c r="BJ12" s="30">
+        <f>SUM(coded_data!CO12:CR12)</f>
+        <v>4</v>
+      </c>
+      <c r="BK12" s="125">
+        <f t="shared" si="48"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL12" s="30">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="BM12" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>moderate</v>
+      </c>
+      <c r="BN12" s="30">
+        <f>SUM(coded_data!CS12:CX12)</f>
+        <v>6</v>
+      </c>
+      <c r="BO12" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP12" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ12" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
+      <c r="BU12" s="30"/>
+    </row>
+    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30">
+        <f>SUM(coded_data!M13:P13)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="125">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>very high</v>
+      </c>
+      <c r="F13" s="30">
+        <f>SUM(coded_data!Q13:Z13)</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="125">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>high</v>
+      </c>
+      <c r="J13" s="30">
+        <f>SUM(coded_data!AA13:AH13)</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="125">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>very high</v>
+      </c>
+      <c r="N13" s="30">
+        <f>SUM(coded_data!AI13:AK13)</f>
+        <v>6</v>
+      </c>
+      <c r="O13" s="125">
+        <f t="shared" si="16"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>very high</v>
+      </c>
+      <c r="R13" s="30">
+        <f>SUM(coded_data!AL13)</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="125">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U13" s="30" t="str">
+        <f t="shared" si="19"/>
+        <v>very high</v>
+      </c>
+      <c r="V13" s="30">
+        <f>SUM(coded_data!AM13)</f>
+        <v>5</v>
+      </c>
+      <c r="W13" s="125">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="30">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="Y13" s="30" t="str">
+        <f t="shared" si="22"/>
+        <v>very high</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>SUM(coded_data!AN13:AU13)</f>
+        <v>28</v>
+      </c>
+      <c r="AA13" s="125">
+        <f t="shared" si="23"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB13" s="30">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC13" s="30" t="str">
+        <f t="shared" si="25"/>
+        <v>high</v>
+      </c>
+      <c r="AD13" s="30">
+        <f>SUM(coded_data!AV13:BG13)</f>
+        <v>47</v>
+      </c>
+      <c r="AE13" s="125">
+        <f t="shared" si="26"/>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="AF13" s="30">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AG13" s="30" t="str">
+        <f t="shared" si="28"/>
+        <v>very high</v>
+      </c>
+      <c r="AH13" s="30">
+        <f>SUM(coded_data!BH13:BJ13)</f>
+        <v>3</v>
+      </c>
+      <c r="AI13" s="125">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="30">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AK13" s="30" t="str">
+        <f t="shared" si="31"/>
+        <v>very high</v>
+      </c>
+      <c r="AL13" s="30">
+        <f>SUM(coded_data!BK13:BN13)</f>
+        <v>2</v>
+      </c>
+      <c r="AM13" s="125">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN13" s="30">
+        <f>IF(AO13="very low", 1, IF(AO13="low", 2, IF(AO13="moderate", 3, IF(AO13="high", 4, 5))))</f>
+        <v>3</v>
+      </c>
+      <c r="AO13" s="30" t="str">
+        <f>IF(AM13&lt;=20%, "very low", IF(AM13&lt;=40%, "low", IF(AM13&lt;=60%, "moderate", IF(AM13&lt;=80%, "high", "very high"))))</f>
+        <v>moderate</v>
+      </c>
+      <c r="AP13" s="30">
+        <f>SUM(coded_data!BO13:BP13)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="125">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR13" s="30">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AS13" s="30" t="str">
+        <f t="shared" si="35"/>
+        <v>low</v>
+      </c>
+      <c r="AT13" s="30">
+        <f>SUM(coded_data!BQ13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="125">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="30">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="30" t="str">
+        <f t="shared" si="38"/>
+        <v>very low</v>
+      </c>
+      <c r="AX13" s="30">
+        <f>SUM(coded_data!BR13:BX13)</f>
+        <v>7</v>
+      </c>
+      <c r="AY13" s="125">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="30">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="BA13" s="30" t="str">
+        <f t="shared" si="41"/>
+        <v>very high</v>
+      </c>
+      <c r="BB13" s="30">
+        <f>SUM(coded_data!BY13:CJ13)</f>
+        <v>5</v>
+      </c>
+      <c r="BC13" s="125">
+        <f t="shared" si="42"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BD13" s="30">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="BE13" s="30" t="str">
+        <f t="shared" si="44"/>
+        <v>moderate</v>
+      </c>
+      <c r="BF13" s="30">
+        <f>SUM(coded_data!CK13:CN13)</f>
+        <v>4</v>
+      </c>
+      <c r="BG13" s="125">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="BH13" s="30">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="BI13" s="30" t="str">
+        <f t="shared" si="47"/>
+        <v>very high</v>
+      </c>
+      <c r="BJ13" s="30">
+        <f>SUM(coded_data!CO13:CR13)</f>
+        <v>4</v>
+      </c>
+      <c r="BK13" s="125">
+        <f t="shared" si="48"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL13" s="30">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="BM13" s="30" t="str">
+        <f t="shared" si="50"/>
+        <v>moderate</v>
+      </c>
+      <c r="BN13" s="30">
+        <f>SUM(coded_data!CS13:CX13)</f>
+        <v>6</v>
+      </c>
+      <c r="BO13" s="125">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BP13" s="30">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="BQ13" s="30" t="str">
+        <f t="shared" si="53"/>
+        <v>very high</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="AH1:BE1"/>
+    <mergeCell ref="BF1:BQ1"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11125,26 +18243,1446 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C54981-7F4A-45FF-A4A9-1500F9310B98}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="125" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" customWidth="1"/>
+    <col min="13" max="13" width="19.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5">
+        <f>MIN(processed_data!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>MAX(processed_data!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(processed_data!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>MEDIAN(processed_data!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>MODE(processed_data!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>SUM(processed_data!B:B)</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="125">
+        <f>H5/COUNT(processed_data!A:A)/4</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="str">
+        <f>IF(I5&lt;=20%, "very low", IF(I5&lt;=40%, "low", IF(I5&lt;=60%, "moderate", IF(I5&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K5" s="30">
+        <f>IF(J5="very low", 1, IF(J5="low", 2, IF(J5="moderate", 3, IF(J5="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>D5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>_xlfn.STDEV.S(processed_data!B:B)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="30">
+        <f>MIN(processed_data!F:F)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <f>MAX(processed_data!F:F)</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="30">
+        <f>AVERAGE(processed_data!F:F)</f>
+        <v>6.3</v>
+      </c>
+      <c r="F6" s="30">
+        <f>MEDIAN(processed_data!F:F)</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="30">
+        <f>MODE(processed_data!F:F)</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="30">
+        <f>SUM(processed_data!F:F)</f>
+        <v>63</v>
+      </c>
+      <c r="I6" s="125">
+        <f>H6/COUNT(processed_data!A:A)/10</f>
+        <v>0.63</v>
+      </c>
+      <c r="J6" s="30" t="str">
+        <f t="shared" ref="J6:J8" si="0">IF(I6&lt;=20%, "very low", IF(I6&lt;=40%, "low", IF(I6&lt;=60%, "moderate", IF(I6&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" ref="K6:K8" si="1">IF(J6="very low", 1, IF(J6="low", 2, IF(J6="moderate", 3, IF(J6="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" ref="L6:L8" si="2">D6-C6</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="30">
+        <f>_xlfn.STDEV.S(processed_data!F:F)</f>
+        <v>2.1108186931983424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="30">
+        <f>MIN(processed_data!J:J)</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="30">
+        <f>MAX(processed_data!J:J)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="30">
+        <f>AVERAGE(processed_data!J:J)</f>
+        <v>7.9</v>
+      </c>
+      <c r="F7" s="30">
+        <f>MEDIAN(processed_data!J:J)</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="30">
+        <f>MODE(processed_data!J:J)</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="30">
+        <f>SUM(processed_data!J:J)</f>
+        <v>79</v>
+      </c>
+      <c r="I7" s="125">
+        <f>H7/COUNT(processed_data!A:A)/8</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="J7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>very high</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="30">
+        <f>_xlfn.STDEV.S(processed_data!J:J)</f>
+        <v>0.31622776601683794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="30">
+        <f>MIN(processed_data!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <f>MAX(processed_data!N:N)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="30">
+        <f>AVERAGE(processed_data!N:N)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" s="30">
+        <f>MEDIAN(processed_data!N:N)</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="30">
+        <f>MODE(processed_data!N:N)</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="30">
+        <f>SUM(processed_data!N:N)</f>
+        <v>41</v>
+      </c>
+      <c r="I8" s="125">
+        <f>H8/COUNT(processed_data!A:A)/7</f>
+        <v>0.58571428571428563</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>moderate</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="30">
+        <f>_xlfn.STDEV.S(processed_data!N:N)</f>
+        <v>1.2866839377079191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="30">
+        <f>MIN(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <f>MAX(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="30">
+        <f>AVERAGE(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="30">
+        <f>MEDIAN(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="30">
+        <f>MODE(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="30">
+        <f>SUM(processed_data!R:R)</f>
+        <v>50</v>
+      </c>
+      <c r="I11" s="125">
+        <f>H11/COUNT(processed_data!A:A)/5</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f>IF(I11&lt;=20%, "very low", IF(I11&lt;=40%, "low", IF(I11&lt;=60%, "moderate", IF(I11&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K11" s="30">
+        <f>IF(J11="very low", 1, IF(J11="low", 2, IF(J11="moderate", 3, IF(J11="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="30">
+        <f>D11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <f>_xlfn.STDEV.S(processed_data!R:R)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="30">
+        <f>MIN(processed_data!V:V)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
+        <f>MAX(processed_data!V:V)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="30">
+        <f>AVERAGE(processed_data!V:V)</f>
+        <v>3.9</v>
+      </c>
+      <c r="F12" s="30">
+        <f>MEDIAN(processed_data!V:V)</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="30">
+        <f>MODE(processed_data!V:V)</f>
+        <v>4</v>
+      </c>
+      <c r="H12" s="30">
+        <f>SUM(processed_data!V:V)</f>
+        <v>39</v>
+      </c>
+      <c r="I12" s="125">
+        <f>H12/COUNT(processed_data!A:A)/5</f>
+        <v>0.78</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f>IF(I12&lt;=20%, "very low", IF(I12&lt;=40%, "low", IF(I12&lt;=60%, "moderate", IF(I12&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K12" s="30">
+        <f>IF(J12="very low", 1, IF(J12="low", 2, IF(J12="moderate", 3, IF(J12="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="30">
+        <f>D12-C12</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="30">
+        <f>_xlfn.STDEV.S(processed_data!V:V)</f>
+        <v>0.73786478737262229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="30">
+        <f>MIN(processed_data!Z:Z)</f>
+        <v>27</v>
+      </c>
+      <c r="D13" s="30">
+        <f>MAX(processed_data!Z:Z)</f>
+        <v>30</v>
+      </c>
+      <c r="E13" s="30">
+        <f>AVERAGE(processed_data!Z:Z)</f>
+        <v>28</v>
+      </c>
+      <c r="F13" s="30">
+        <f>MEDIAN(processed_data!Z:Z)</f>
+        <v>28</v>
+      </c>
+      <c r="G13" s="30">
+        <f>MODE(processed_data!Z:Z)</f>
+        <v>27</v>
+      </c>
+      <c r="H13" s="30">
+        <f>SUM(processed_data!Z:Z)</f>
+        <v>280</v>
+      </c>
+      <c r="I13" s="125">
+        <f>H13/COUNT(processed_data!A:A)/40</f>
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="30" t="str">
+        <f>IF(I13&lt;=20%, "very low", IF(I13&lt;=40%, "low", IF(I13&lt;=60%, "moderate", IF(I13&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K13" s="30">
+        <f>IF(J13="very low", 1, IF(J13="low", 2, IF(J13="moderate", 3, IF(J13="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="L13" s="30">
+        <f>D13-C13</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="30">
+        <f>_xlfn.STDEV.S(processed_data!Z:Z)</f>
+        <v>1.0540925533894598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="30">
+        <f>MIN(processed_data!AD:AD)</f>
+        <v>40</v>
+      </c>
+      <c r="D14" s="30">
+        <f>MAX(processed_data!AD:AD)</f>
+        <v>47</v>
+      </c>
+      <c r="E14" s="30">
+        <f>AVERAGE(processed_data!AD:AD)</f>
+        <v>44.9</v>
+      </c>
+      <c r="F14" s="30">
+        <f>MEDIAN(processed_data!AD:AD)</f>
+        <v>46.5</v>
+      </c>
+      <c r="G14" s="30">
+        <f>MODE(processed_data!AD:AD)</f>
+        <v>47</v>
+      </c>
+      <c r="H14" s="30">
+        <f>SUM(processed_data!AD:AD)</f>
+        <v>449</v>
+      </c>
+      <c r="I14" s="125">
+        <f>H14/COUNT(processed_data!A:A)/55</f>
+        <v>0.81636363636363629</v>
+      </c>
+      <c r="J14" s="30" t="str">
+        <f>IF(I14&lt;=20%, "very low", IF(I14&lt;=40%, "low", IF(I14&lt;=60%, "moderate", IF(I14&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K14" s="30">
+        <f>IF(J14="very low", 1, IF(J14="low", 2, IF(J14="moderate", 3, IF(J14="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="30">
+        <f>D14-C14</f>
+        <v>7</v>
+      </c>
+      <c r="M14" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AD:AD)</f>
+        <v>2.6436506745197801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="30">
+        <f>MIN(processed_data!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="30">
+        <f>MAX(processed_data!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="30">
+        <f>AVERAGE(processed_data!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="30">
+        <f>MEDIAN(processed_data!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="30">
+        <f>MODE(processed_data!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="30">
+        <f>SUM(processed_data!AH:AH)</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="125">
+        <f>H17/COUNT(processed_data!A:A)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="30" t="str">
+        <f>IF(I17&lt;=20%, "very low", IF(I17&lt;=40%, "low", IF(I17&lt;=60%, "moderate", IF(I17&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K17" s="30">
+        <f>IF(J17="very low", 1, IF(J17="low", 2, IF(J17="moderate", 3, IF(J17="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L17" s="30">
+        <f>D17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AH:AH)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="30">
+        <f>MIN(processed_data!AL:AL)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="30">
+        <f>MAX(processed_data!AL:AL)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="30">
+        <f>AVERAGE(processed_data!AL:AL)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="30">
+        <f>MEDIAN(processed_data!AL:AL)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="30">
+        <f>MODE(processed_data!AL:AL)</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="30">
+        <f>SUM(processed_data!AL:AL)</f>
+        <v>25</v>
+      </c>
+      <c r="I18" s="125">
+        <f>H18/COUNT(processed_data!A:A)/4</f>
+        <v>0.625</v>
+      </c>
+      <c r="J18" s="30" t="str">
+        <f>IF(I18&lt;=20%, "very low", IF(I18&lt;=40%, "low", IF(I18&lt;=60%, "moderate", IF(I18&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K18" s="30">
+        <f>IF(J18="very low", 1, IF(J18="low", 2, IF(J18="moderate", 3, IF(J18="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="30">
+        <f>D18-C18</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AL:AL)</f>
+        <v>0.52704627669472992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="30">
+        <f>MIN(processed_data!AP:AP)</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="30">
+        <f>MAX(processed_data!AP:AP)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="30">
+        <f>AVERAGE(processed_data!AP:AP)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="30">
+        <f>MEDIAN(processed_data!AP:AP)</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="30">
+        <f>MODE(processed_data!AP:AP)</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="30">
+        <f>SUM(processed_data!AP:AP)</f>
+        <v>25</v>
+      </c>
+      <c r="I19" s="125">
+        <f>H19/COUNT(processed_data!A:A)/7</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J19" s="30" t="str">
+        <f>IF(I19&lt;=20%, "very low", IF(I19&lt;=40%, "low", IF(I19&lt;=60%, "moderate", IF(I19&lt;=80%, "high", "very high"))))</f>
+        <v>low</v>
+      </c>
+      <c r="K19" s="30">
+        <f>IF(J19="very low", 1, IF(J19="low", 2, IF(J19="moderate", 3, IF(J19="high", 4, 5))))</f>
+        <v>2</v>
+      </c>
+      <c r="L19" s="30">
+        <f>D19-C19</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AP:AP)</f>
+        <v>1.0801234497346435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="30">
+        <f>MIN(processed_data!AT:AT)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <f>MAX(processed_data!AT:AT)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="30">
+        <f>AVERAGE(processed_data!AT:AT)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="30">
+        <f>MEDIAN(processed_data!AT:AT)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="30">
+        <f>MODE(processed_data!AT:AT)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="30">
+        <f>SUM(processed_data!AT:AT)</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="125">
+        <f>H20/COUNT(processed_data!A:A)/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="30" t="str">
+        <f>IF(I20&lt;=20%, "very low", IF(I20&lt;=40%, "low", IF(I20&lt;=60%, "moderate", IF(I20&lt;=80%, "high", "very high"))))</f>
+        <v>very low</v>
+      </c>
+      <c r="K20" s="30">
+        <f>IF(J20="very low", 1, IF(J20="low", 2, IF(J20="moderate", 3, IF(J20="high", 4, 5))))</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="30">
+        <f>D20-C20</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AT:AT)</f>
+        <v>1.0327955589886444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="30">
+        <f>MIN(processed_data!AX:AX)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="30">
+        <f>MAX(processed_data!AX:AX)</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="30">
+        <f>AVERAGE(processed_data!AX:AX)</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="30">
+        <f>MEDIAN(processed_data!AX:AX)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G21" s="30">
+        <f>MODE(processed_data!AX:AX)</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="30">
+        <f>SUM(processed_data!AX:AX)</f>
+        <v>50</v>
+      </c>
+      <c r="I21" s="125">
+        <f>H21/COUNT(processed_data!A:A)/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J21" s="30" t="str">
+        <f>IF(I21&lt;=20%, "very low", IF(I21&lt;=40%, "low", IF(I21&lt;=60%, "moderate", IF(I21&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K21" s="30">
+        <f>IF(J21="very low", 1, IF(J21="low", 2, IF(J21="moderate", 3, IF(J21="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L21" s="30">
+        <f>D21-C21</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="30">
+        <f>_xlfn.STDEV.S(processed_data!AX:AX)</f>
+        <v>1.8856180831641267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="30">
+        <f>MIN(processed_data!BB:BB)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="30">
+        <f>MAX(processed_data!BB:BB)</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="30">
+        <f>AVERAGE(processed_data!BB:BB)</f>
+        <v>3.4</v>
+      </c>
+      <c r="F22" s="30">
+        <f>MEDIAN(processed_data!BB:BB)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G22" s="30">
+        <f>MODE(processed_data!BB:BB)</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="30">
+        <f>SUM(processed_data!BB:BB)</f>
+        <v>34</v>
+      </c>
+      <c r="I22" s="125">
+        <f>H22/COUNT(processed_data!A:A)/12</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="J22" s="30" t="str">
+        <f>IF(I22&lt;=20%, "very low", IF(I22&lt;=40%, "low", IF(I22&lt;=60%, "moderate", IF(I22&lt;=80%, "high", "very high"))))</f>
+        <v>low</v>
+      </c>
+      <c r="K22" s="30">
+        <f>IF(J22="very low", 1, IF(J22="low", 2, IF(J22="moderate", 3, IF(J22="high", 4, 5))))</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="30">
+        <f>D22-C22</f>
+        <v>4</v>
+      </c>
+      <c r="M22" s="30">
+        <f>_xlfn.STDEV.S(processed_data!BB:BB)</f>
+        <v>1.5776212754932311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I24" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="30">
+        <f>MIN(processed_data!BF:BF)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="30">
+        <f>MAX(processed_data!BF:BF)</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="30">
+        <f>AVERAGE(processed_data!BF:BF)</f>
+        <v>3.6</v>
+      </c>
+      <c r="F25" s="30">
+        <f>MEDIAN(processed_data!BF:BF)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="30">
+        <f>MODE(processed_data!BF:BF)</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="30">
+        <f>SUM(processed_data!BF:BF)</f>
+        <v>36</v>
+      </c>
+      <c r="I25" s="125">
+        <f>H25/COUNT(processed_data!A:A)/4</f>
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="30" t="str">
+        <f>IF(I25&lt;=20%, "very low", IF(I25&lt;=40%, "low", IF(I25&lt;=60%, "moderate", IF(I25&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K25" s="30">
+        <f>IF(J25="very low", 1, IF(J25="low", 2, IF(J25="moderate", 3, IF(J25="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="30">
+        <f>D25-C25</f>
+        <v>2</v>
+      </c>
+      <c r="M25" s="30">
+        <f>_xlfn.STDEV.S(processed_data!BF:BF)</f>
+        <v>0.69920589878010153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="30">
+        <f>MIN(processed_data!BJ:BJ)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="30">
+        <f>MAX(processed_data!BJ:BJ)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="30">
+        <f>AVERAGE(processed_data!BJ:BJ)</f>
+        <v>4.3</v>
+      </c>
+      <c r="F26" s="30">
+        <f>MEDIAN(processed_data!BJ:BJ)</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="30">
+        <f>MODE(processed_data!BJ:BJ)</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="30">
+        <f>SUM(processed_data!BJ:BJ)</f>
+        <v>43</v>
+      </c>
+      <c r="I26" s="125">
+        <f>H26/COUNT(processed_data!A:A)/7</f>
+        <v>0.61428571428571421</v>
+      </c>
+      <c r="J26" s="30" t="str">
+        <f>IF(I26&lt;=20%, "very low", IF(I26&lt;=40%, "low", IF(I26&lt;=60%, "moderate", IF(I26&lt;=80%, "high", "very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K26" s="30">
+        <f>IF(J26="very low", 1, IF(J26="low", 2, IF(J26="moderate", 3, IF(J26="high", 4, 5))))</f>
+        <v>4</v>
+      </c>
+      <c r="L26" s="30">
+        <f>D26-C26</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="30">
+        <f>_xlfn.STDEV.S(processed_data!BJ:BJ)</f>
+        <v>0.48304589153964728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="30">
+        <f>MIN(processed_data!BN:BN)</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="30">
+        <f>MAX(processed_data!BN:BN)</f>
+        <v>6</v>
+      </c>
+      <c r="E27" s="30">
+        <f>AVERAGE(processed_data!BN:BN)</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="30">
+        <f>MEDIAN(processed_data!BN:BN)</f>
+        <v>6</v>
+      </c>
+      <c r="G27" s="30">
+        <f>MODE(processed_data!BN:BN)</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="30">
+        <f>SUM(processed_data!BN:BN)</f>
+        <v>60</v>
+      </c>
+      <c r="I27" s="125">
+        <f>H27/COUNT(processed_data!A:A)/6</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="30" t="str">
+        <f>IF(I27&lt;=20%, "very low", IF(I27&lt;=40%, "low", IF(I27&lt;=60%, "moderate", IF(I27&lt;=80%, "high", "very high"))))</f>
+        <v>very high</v>
+      </c>
+      <c r="K27" s="30">
+        <f>IF(J27="very low", 1, IF(J27="low", 2, IF(J27="moderate", 3, IF(J27="high", 4, 5))))</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="30">
+        <f>D27-C27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="30">
+        <f>_xlfn.STDEV.S(processed_data!BN:BN)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD80EB5C-91D5-4EF7-8B28-98920C3A6C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I14">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4D6CB0A-099B-4CC1-81B9-E5E2657A3920}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C79FDF2-A424-420D-9604-5738D5958E39}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75E2914A-9CFA-49C8-9C77-CB51753C1C1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD80EB5C-91D5-4EF7-8B28-98920C3A6C8A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I5:I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4D6CB0A-099B-4CC1-81B9-E5E2657A3920}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I11:I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C79FDF2-A424-420D-9604-5738D5958E39}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I17:I22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75E2914A-9CFA-49C8-9C77-CB51753C1C1B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I25:I27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF2A556-F626-4A26-B11C-4857991C5AC4}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AMR KAP+ Vet 2.0.xlsx
+++ b/AMR KAP+ Vet 2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113F75E-8D7A-4F72-834F-BBDB21444E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3319397-B180-45A9-B137-6395CA2A767F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
     <sheet name="raw_data" sheetId="10" r:id="rId2"/>
     <sheet name="coded_data" sheetId="11" r:id="rId3"/>
     <sheet name="processed_data" sheetId="12" r:id="rId4"/>
-    <sheet name="survey answers" sheetId="13" r:id="rId5"/>
+    <sheet name="survey_answers" sheetId="13" r:id="rId5"/>
     <sheet name="summary" sheetId="14" r:id="rId6"/>
-    <sheet name="correlations" sheetId="15" r:id="rId7"/>
+    <sheet name="correlation" sheetId="15" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -2399,124 +2399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2554,6 +2440,161 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,15 +2619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2623,22 +2655,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,26 +2685,80 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2770,78 +2856,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2888,20 +2902,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5536,9 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5561,14 +5559,14 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="90"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="114"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -5604,11 +5602,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="97"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -5624,11 +5622,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="121"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5643,62 +5641,62 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="119"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119" t="s">
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="119"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="103" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="119"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -5715,12 +5713,12 @@
       <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -5733,27 +5731,27 @@
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="259" t="str">
+      <c r="B9" s="90" t="str">
         <f>CONCATENATE("(n = ", COUNT(raw_data!A:A), ")")</f>
         <v>(n = 10)</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -5776,12 +5774,12 @@
       <c r="G10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -5794,22 +5792,22 @@
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -5819,23 +5817,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -5845,25 +5843,25 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="125" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -5873,25 +5871,25 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -5904,16 +5902,16 @@
       <c r="A15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="122" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="262"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
@@ -5973,10 +5971,10 @@
     </row>
     <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="6"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
     </row>
     <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="7"/>
@@ -5994,16 +5992,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
     <mergeCell ref="M3:Q3"/>
@@ -6019,6 +6007,16 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" location="raw_data!A1" display="raw_data!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6027,10 +6025,11 @@
     <hyperlink ref="H10:K10" location="survey_answers!A1" display="survey_answers!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="H12:K12" location="summary!A1" display="summary!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="H14:K14" location="correlation!A1" display="correlation!A1" xr:uid="{AE4211FD-F4BD-492D-AB30-B0B526EE63D2}"/>
+    <hyperlink ref="B15:I15" r:id="rId1" display="https://github.com/JNAVillacastin/AMU-AMR-KAP-Excel-Tool-" xr:uid="{0CE8B615-8AFB-4360-ADBF-6F7C9C52C5BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6053,314 +6052,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="156" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="169" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="163" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="166" t="s">
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="167"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
-      <c r="BB1" s="167"/>
-      <c r="BC1" s="167"/>
-      <c r="BD1" s="167"/>
-      <c r="BE1" s="167"/>
-      <c r="BF1" s="167"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="169" t="s">
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="148"/>
+      <c r="AO1" s="148"/>
+      <c r="AP1" s="148"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="148"/>
+      <c r="AS1" s="148"/>
+      <c r="AT1" s="148"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="148"/>
+      <c r="BA1" s="148"/>
+      <c r="BB1" s="148"/>
+      <c r="BC1" s="148"/>
+      <c r="BD1" s="148"/>
+      <c r="BE1" s="148"/>
+      <c r="BF1" s="148"/>
+      <c r="BG1" s="149"/>
+      <c r="BH1" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="BI1" s="170"/>
-      <c r="BJ1" s="170"/>
-      <c r="BK1" s="170"/>
-      <c r="BL1" s="170"/>
-      <c r="BM1" s="170"/>
-      <c r="BN1" s="170"/>
-      <c r="BO1" s="170"/>
-      <c r="BP1" s="170"/>
-      <c r="BQ1" s="170"/>
-      <c r="BR1" s="170"/>
-      <c r="BS1" s="170"/>
-      <c r="BT1" s="170"/>
-      <c r="BU1" s="170"/>
-      <c r="BV1" s="170"/>
-      <c r="BW1" s="170"/>
-      <c r="BX1" s="170"/>
-      <c r="BY1" s="170"/>
-      <c r="BZ1" s="170"/>
-      <c r="CA1" s="170"/>
-      <c r="CB1" s="170"/>
-      <c r="CC1" s="170"/>
-      <c r="CD1" s="170"/>
-      <c r="CE1" s="170"/>
-      <c r="CF1" s="170"/>
-      <c r="CG1" s="170"/>
-      <c r="CH1" s="170"/>
-      <c r="CI1" s="170"/>
-      <c r="CJ1" s="171"/>
-      <c r="CK1" s="142" t="s">
+      <c r="BI1" s="151"/>
+      <c r="BJ1" s="151"/>
+      <c r="BK1" s="151"/>
+      <c r="BL1" s="151"/>
+      <c r="BM1" s="151"/>
+      <c r="BN1" s="151"/>
+      <c r="BO1" s="151"/>
+      <c r="BP1" s="151"/>
+      <c r="BQ1" s="151"/>
+      <c r="BR1" s="151"/>
+      <c r="BS1" s="151"/>
+      <c r="BT1" s="151"/>
+      <c r="BU1" s="151"/>
+      <c r="BV1" s="151"/>
+      <c r="BW1" s="151"/>
+      <c r="BX1" s="151"/>
+      <c r="BY1" s="151"/>
+      <c r="BZ1" s="151"/>
+      <c r="CA1" s="151"/>
+      <c r="CB1" s="151"/>
+      <c r="CC1" s="151"/>
+      <c r="CD1" s="151"/>
+      <c r="CE1" s="151"/>
+      <c r="CF1" s="151"/>
+      <c r="CG1" s="151"/>
+      <c r="CH1" s="151"/>
+      <c r="CI1" s="151"/>
+      <c r="CJ1" s="152"/>
+      <c r="CK1" s="157" t="s">
         <v>281</v>
       </c>
-      <c r="CL1" s="143"/>
-      <c r="CM1" s="143"/>
-      <c r="CN1" s="143"/>
-      <c r="CO1" s="143"/>
-      <c r="CP1" s="143"/>
-      <c r="CQ1" s="143"/>
-      <c r="CR1" s="143"/>
-      <c r="CS1" s="143"/>
-      <c r="CT1" s="143"/>
-      <c r="CU1" s="143"/>
-      <c r="CV1" s="143"/>
-      <c r="CW1" s="143"/>
-      <c r="CX1" s="144"/>
-      <c r="CY1" s="145" t="s">
+      <c r="CL1" s="158"/>
+      <c r="CM1" s="158"/>
+      <c r="CN1" s="158"/>
+      <c r="CO1" s="158"/>
+      <c r="CP1" s="158"/>
+      <c r="CQ1" s="158"/>
+      <c r="CR1" s="158"/>
+      <c r="CS1" s="158"/>
+      <c r="CT1" s="158"/>
+      <c r="CU1" s="158"/>
+      <c r="CV1" s="158"/>
+      <c r="CW1" s="158"/>
+      <c r="CX1" s="159"/>
+      <c r="CY1" s="160" t="s">
         <v>282</v>
       </c>
-      <c r="CZ1" s="146"/>
-      <c r="DA1" s="146"/>
-      <c r="DB1" s="146"/>
-      <c r="DC1" s="146"/>
-      <c r="DD1" s="146"/>
-      <c r="DE1" s="146"/>
-      <c r="DF1" s="146"/>
-      <c r="DG1" s="146"/>
-      <c r="DH1" s="146"/>
-      <c r="DI1" s="146"/>
-      <c r="DJ1" s="146"/>
-      <c r="DK1" s="146"/>
-      <c r="DL1" s="146"/>
-      <c r="DM1" s="146"/>
-      <c r="DN1" s="146"/>
-      <c r="DO1" s="146"/>
-      <c r="DP1" s="146"/>
-      <c r="DQ1" s="146"/>
-      <c r="DR1" s="146"/>
-      <c r="DS1" s="146"/>
-      <c r="DT1" s="146"/>
-      <c r="DU1" s="147"/>
+      <c r="CZ1" s="161"/>
+      <c r="DA1" s="161"/>
+      <c r="DB1" s="161"/>
+      <c r="DC1" s="161"/>
+      <c r="DD1" s="161"/>
+      <c r="DE1" s="161"/>
+      <c r="DF1" s="161"/>
+      <c r="DG1" s="161"/>
+      <c r="DH1" s="161"/>
+      <c r="DI1" s="161"/>
+      <c r="DJ1" s="161"/>
+      <c r="DK1" s="161"/>
+      <c r="DL1" s="161"/>
+      <c r="DM1" s="161"/>
+      <c r="DN1" s="161"/>
+      <c r="DO1" s="161"/>
+      <c r="DP1" s="161"/>
+      <c r="DQ1" s="161"/>
+      <c r="DR1" s="161"/>
+      <c r="DS1" s="161"/>
+      <c r="DT1" s="161"/>
+      <c r="DU1" s="162"/>
     </row>
     <row r="2" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="141"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="148" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="151" t="s">
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="151" t="s">
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="151" t="s">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="153" t="s">
         <v>260</v>
       </c>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="153"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="155"/>
       <c r="AL2" s="36" t="s">
         <v>261</v>
       </c>
       <c r="AM2" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="AN2" s="151" t="s">
+      <c r="AN2" s="153" t="s">
         <v>263</v>
       </c>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="152"/>
-      <c r="AU2" s="153"/>
-      <c r="AV2" s="151" t="s">
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="155"/>
+      <c r="AV2" s="153" t="s">
         <v>264</v>
       </c>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="152"/>
-      <c r="BB2" s="152"/>
-      <c r="BC2" s="152"/>
-      <c r="BD2" s="152"/>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="153"/>
-      <c r="BH2" s="151" t="s">
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="154"/>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="155"/>
+      <c r="BH2" s="153" t="s">
         <v>265</v>
       </c>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="153"/>
-      <c r="BK2" s="151" t="s">
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="155"/>
+      <c r="BK2" s="153" t="s">
         <v>266</v>
       </c>
-      <c r="BL2" s="152"/>
-      <c r="BM2" s="152"/>
-      <c r="BN2" s="153"/>
-      <c r="BO2" s="151" t="s">
+      <c r="BL2" s="154"/>
+      <c r="BM2" s="154"/>
+      <c r="BN2" s="155"/>
+      <c r="BO2" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="BP2" s="153"/>
+      <c r="BP2" s="155"/>
       <c r="BQ2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="BR2" s="151" t="s">
+      <c r="BR2" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="152"/>
-      <c r="BU2" s="152"/>
-      <c r="BV2" s="152"/>
-      <c r="BW2" s="152"/>
-      <c r="BX2" s="153"/>
-      <c r="BY2" s="151" t="s">
+      <c r="BS2" s="154"/>
+      <c r="BT2" s="154"/>
+      <c r="BU2" s="154"/>
+      <c r="BV2" s="154"/>
+      <c r="BW2" s="154"/>
+      <c r="BX2" s="155"/>
+      <c r="BY2" s="153" t="s">
         <v>270</v>
       </c>
-      <c r="BZ2" s="152"/>
-      <c r="CA2" s="152"/>
-      <c r="CB2" s="152"/>
-      <c r="CC2" s="152"/>
-      <c r="CD2" s="152"/>
-      <c r="CE2" s="152"/>
-      <c r="CF2" s="152"/>
-      <c r="CG2" s="152"/>
-      <c r="CH2" s="152"/>
-      <c r="CI2" s="152"/>
-      <c r="CJ2" s="153"/>
-      <c r="CK2" s="151" t="s">
+      <c r="BZ2" s="154"/>
+      <c r="CA2" s="154"/>
+      <c r="CB2" s="154"/>
+      <c r="CC2" s="154"/>
+      <c r="CD2" s="154"/>
+      <c r="CE2" s="154"/>
+      <c r="CF2" s="154"/>
+      <c r="CG2" s="154"/>
+      <c r="CH2" s="154"/>
+      <c r="CI2" s="154"/>
+      <c r="CJ2" s="155"/>
+      <c r="CK2" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="CL2" s="152"/>
-      <c r="CM2" s="152"/>
-      <c r="CN2" s="153"/>
-      <c r="CO2" s="151" t="s">
+      <c r="CL2" s="154"/>
+      <c r="CM2" s="154"/>
+      <c r="CN2" s="155"/>
+      <c r="CO2" s="153" t="s">
         <v>272</v>
       </c>
-      <c r="CP2" s="152"/>
-      <c r="CQ2" s="152"/>
-      <c r="CR2" s="153"/>
-      <c r="CS2" s="151" t="s">
+      <c r="CP2" s="154"/>
+      <c r="CQ2" s="154"/>
+      <c r="CR2" s="155"/>
+      <c r="CS2" s="153" t="s">
         <v>273</v>
       </c>
-      <c r="CT2" s="152"/>
-      <c r="CU2" s="152"/>
-      <c r="CV2" s="152"/>
-      <c r="CW2" s="152"/>
-      <c r="CX2" s="153"/>
-      <c r="CY2" s="154" t="s">
+      <c r="CT2" s="154"/>
+      <c r="CU2" s="154"/>
+      <c r="CV2" s="154"/>
+      <c r="CW2" s="154"/>
+      <c r="CX2" s="155"/>
+      <c r="CY2" s="166" t="s">
         <v>274</v>
       </c>
-      <c r="CZ2" s="154"/>
-      <c r="DA2" s="154"/>
-      <c r="DB2" s="154"/>
-      <c r="DC2" s="154"/>
-      <c r="DD2" s="155"/>
-      <c r="DE2" s="156" t="s">
+      <c r="CZ2" s="166"/>
+      <c r="DA2" s="166"/>
+      <c r="DB2" s="166"/>
+      <c r="DC2" s="166"/>
+      <c r="DD2" s="167"/>
+      <c r="DE2" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="DF2" s="154"/>
-      <c r="DG2" s="154"/>
-      <c r="DH2" s="154"/>
-      <c r="DI2" s="154"/>
-      <c r="DJ2" s="155"/>
+      <c r="DF2" s="166"/>
+      <c r="DG2" s="166"/>
+      <c r="DH2" s="166"/>
+      <c r="DI2" s="166"/>
+      <c r="DJ2" s="167"/>
       <c r="DK2" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="DL2" s="151" t="s">
+      <c r="DL2" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="DM2" s="152"/>
-      <c r="DN2" s="152"/>
-      <c r="DO2" s="152"/>
-      <c r="DP2" s="152"/>
-      <c r="DQ2" s="152"/>
-      <c r="DR2" s="152"/>
-      <c r="DS2" s="152"/>
-      <c r="DT2" s="152"/>
-      <c r="DU2" s="153"/>
+      <c r="DM2" s="154"/>
+      <c r="DN2" s="154"/>
+      <c r="DO2" s="154"/>
+      <c r="DP2" s="154"/>
+      <c r="DQ2" s="154"/>
+      <c r="DR2" s="154"/>
+      <c r="DS2" s="154"/>
+      <c r="DT2" s="154"/>
+      <c r="DU2" s="155"/>
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -10511,14 +10510,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AL1:BG1"/>
-    <mergeCell ref="BH1:CJ1"/>
-    <mergeCell ref="AN2:AU2"/>
-    <mergeCell ref="AV2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BY2:CJ2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="CK1:CX1"/>
     <mergeCell ref="CY1:DU1"/>
@@ -10535,6 +10526,14 @@
     <mergeCell ref="DE2:DJ2"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="M1:AK1"/>
+    <mergeCell ref="AL1:BG1"/>
+    <mergeCell ref="BH1:CJ1"/>
+    <mergeCell ref="AN2:AU2"/>
+    <mergeCell ref="AV2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BY2:CJ2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:A2" location="Intro!A1" display="Intro!A1" xr:uid="{C1E31046-3CB6-45F3-805C-2E9A6B35C007}"/>
@@ -10557,314 +10556,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="156" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="169" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="163" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="166" t="s">
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="167"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
-      <c r="BB1" s="167"/>
-      <c r="BC1" s="167"/>
-      <c r="BD1" s="167"/>
-      <c r="BE1" s="167"/>
-      <c r="BF1" s="167"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="169" t="s">
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="148"/>
+      <c r="AO1" s="148"/>
+      <c r="AP1" s="148"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="148"/>
+      <c r="AS1" s="148"/>
+      <c r="AT1" s="148"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="148"/>
+      <c r="BA1" s="148"/>
+      <c r="BB1" s="148"/>
+      <c r="BC1" s="148"/>
+      <c r="BD1" s="148"/>
+      <c r="BE1" s="148"/>
+      <c r="BF1" s="148"/>
+      <c r="BG1" s="149"/>
+      <c r="BH1" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="BI1" s="170"/>
-      <c r="BJ1" s="170"/>
-      <c r="BK1" s="170"/>
-      <c r="BL1" s="170"/>
-      <c r="BM1" s="170"/>
-      <c r="BN1" s="170"/>
-      <c r="BO1" s="170"/>
-      <c r="BP1" s="170"/>
-      <c r="BQ1" s="170"/>
-      <c r="BR1" s="170"/>
-      <c r="BS1" s="170"/>
-      <c r="BT1" s="170"/>
-      <c r="BU1" s="170"/>
-      <c r="BV1" s="170"/>
-      <c r="BW1" s="170"/>
-      <c r="BX1" s="170"/>
-      <c r="BY1" s="170"/>
-      <c r="BZ1" s="170"/>
-      <c r="CA1" s="170"/>
-      <c r="CB1" s="170"/>
-      <c r="CC1" s="170"/>
-      <c r="CD1" s="170"/>
-      <c r="CE1" s="170"/>
-      <c r="CF1" s="170"/>
-      <c r="CG1" s="170"/>
-      <c r="CH1" s="170"/>
-      <c r="CI1" s="170"/>
-      <c r="CJ1" s="171"/>
-      <c r="CK1" s="142" t="s">
+      <c r="BI1" s="151"/>
+      <c r="BJ1" s="151"/>
+      <c r="BK1" s="151"/>
+      <c r="BL1" s="151"/>
+      <c r="BM1" s="151"/>
+      <c r="BN1" s="151"/>
+      <c r="BO1" s="151"/>
+      <c r="BP1" s="151"/>
+      <c r="BQ1" s="151"/>
+      <c r="BR1" s="151"/>
+      <c r="BS1" s="151"/>
+      <c r="BT1" s="151"/>
+      <c r="BU1" s="151"/>
+      <c r="BV1" s="151"/>
+      <c r="BW1" s="151"/>
+      <c r="BX1" s="151"/>
+      <c r="BY1" s="151"/>
+      <c r="BZ1" s="151"/>
+      <c r="CA1" s="151"/>
+      <c r="CB1" s="151"/>
+      <c r="CC1" s="151"/>
+      <c r="CD1" s="151"/>
+      <c r="CE1" s="151"/>
+      <c r="CF1" s="151"/>
+      <c r="CG1" s="151"/>
+      <c r="CH1" s="151"/>
+      <c r="CI1" s="151"/>
+      <c r="CJ1" s="152"/>
+      <c r="CK1" s="157" t="s">
         <v>281</v>
       </c>
-      <c r="CL1" s="143"/>
-      <c r="CM1" s="143"/>
-      <c r="CN1" s="143"/>
-      <c r="CO1" s="143"/>
-      <c r="CP1" s="143"/>
-      <c r="CQ1" s="143"/>
-      <c r="CR1" s="143"/>
-      <c r="CS1" s="143"/>
-      <c r="CT1" s="143"/>
-      <c r="CU1" s="143"/>
-      <c r="CV1" s="143"/>
-      <c r="CW1" s="143"/>
-      <c r="CX1" s="144"/>
-      <c r="CY1" s="145" t="s">
+      <c r="CL1" s="158"/>
+      <c r="CM1" s="158"/>
+      <c r="CN1" s="158"/>
+      <c r="CO1" s="158"/>
+      <c r="CP1" s="158"/>
+      <c r="CQ1" s="158"/>
+      <c r="CR1" s="158"/>
+      <c r="CS1" s="158"/>
+      <c r="CT1" s="158"/>
+      <c r="CU1" s="158"/>
+      <c r="CV1" s="158"/>
+      <c r="CW1" s="158"/>
+      <c r="CX1" s="159"/>
+      <c r="CY1" s="160" t="s">
         <v>282</v>
       </c>
-      <c r="CZ1" s="146"/>
-      <c r="DA1" s="146"/>
-      <c r="DB1" s="146"/>
-      <c r="DC1" s="146"/>
-      <c r="DD1" s="146"/>
-      <c r="DE1" s="146"/>
-      <c r="DF1" s="146"/>
-      <c r="DG1" s="146"/>
-      <c r="DH1" s="146"/>
-      <c r="DI1" s="146"/>
-      <c r="DJ1" s="146"/>
-      <c r="DK1" s="146"/>
-      <c r="DL1" s="146"/>
-      <c r="DM1" s="146"/>
-      <c r="DN1" s="146"/>
-      <c r="DO1" s="146"/>
-      <c r="DP1" s="146"/>
-      <c r="DQ1" s="146"/>
-      <c r="DR1" s="146"/>
-      <c r="DS1" s="146"/>
-      <c r="DT1" s="146"/>
-      <c r="DU1" s="147"/>
+      <c r="CZ1" s="161"/>
+      <c r="DA1" s="161"/>
+      <c r="DB1" s="161"/>
+      <c r="DC1" s="161"/>
+      <c r="DD1" s="161"/>
+      <c r="DE1" s="161"/>
+      <c r="DF1" s="161"/>
+      <c r="DG1" s="161"/>
+      <c r="DH1" s="161"/>
+      <c r="DI1" s="161"/>
+      <c r="DJ1" s="161"/>
+      <c r="DK1" s="161"/>
+      <c r="DL1" s="161"/>
+      <c r="DM1" s="161"/>
+      <c r="DN1" s="161"/>
+      <c r="DO1" s="161"/>
+      <c r="DP1" s="161"/>
+      <c r="DQ1" s="161"/>
+      <c r="DR1" s="161"/>
+      <c r="DS1" s="161"/>
+      <c r="DT1" s="161"/>
+      <c r="DU1" s="162"/>
     </row>
     <row r="2" spans="1:125" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="141"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="148" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="151" t="s">
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="151" t="s">
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="151" t="s">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="153" t="s">
         <v>260</v>
       </c>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="153"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="155"/>
       <c r="AL2" s="36" t="s">
         <v>261</v>
       </c>
       <c r="AM2" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="AN2" s="151" t="s">
+      <c r="AN2" s="153" t="s">
         <v>263</v>
       </c>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="152"/>
-      <c r="AU2" s="153"/>
-      <c r="AV2" s="151" t="s">
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="155"/>
+      <c r="AV2" s="153" t="s">
         <v>264</v>
       </c>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="152"/>
-      <c r="BB2" s="152"/>
-      <c r="BC2" s="152"/>
-      <c r="BD2" s="152"/>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="153"/>
-      <c r="BH2" s="151" t="s">
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="154"/>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="155"/>
+      <c r="BH2" s="153" t="s">
         <v>265</v>
       </c>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="153"/>
-      <c r="BK2" s="151" t="s">
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="155"/>
+      <c r="BK2" s="153" t="s">
         <v>266</v>
       </c>
-      <c r="BL2" s="152"/>
-      <c r="BM2" s="152"/>
-      <c r="BN2" s="153"/>
-      <c r="BO2" s="151" t="s">
+      <c r="BL2" s="154"/>
+      <c r="BM2" s="154"/>
+      <c r="BN2" s="155"/>
+      <c r="BO2" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="BP2" s="153"/>
+      <c r="BP2" s="155"/>
       <c r="BQ2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="BR2" s="151" t="s">
+      <c r="BR2" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="152"/>
-      <c r="BU2" s="152"/>
-      <c r="BV2" s="152"/>
-      <c r="BW2" s="152"/>
-      <c r="BX2" s="153"/>
-      <c r="BY2" s="151" t="s">
+      <c r="BS2" s="154"/>
+      <c r="BT2" s="154"/>
+      <c r="BU2" s="154"/>
+      <c r="BV2" s="154"/>
+      <c r="BW2" s="154"/>
+      <c r="BX2" s="155"/>
+      <c r="BY2" s="153" t="s">
         <v>270</v>
       </c>
-      <c r="BZ2" s="152"/>
-      <c r="CA2" s="152"/>
-      <c r="CB2" s="152"/>
-      <c r="CC2" s="152"/>
-      <c r="CD2" s="152"/>
-      <c r="CE2" s="152"/>
-      <c r="CF2" s="152"/>
-      <c r="CG2" s="152"/>
-      <c r="CH2" s="152"/>
-      <c r="CI2" s="152"/>
-      <c r="CJ2" s="153"/>
-      <c r="CK2" s="151" t="s">
+      <c r="BZ2" s="154"/>
+      <c r="CA2" s="154"/>
+      <c r="CB2" s="154"/>
+      <c r="CC2" s="154"/>
+      <c r="CD2" s="154"/>
+      <c r="CE2" s="154"/>
+      <c r="CF2" s="154"/>
+      <c r="CG2" s="154"/>
+      <c r="CH2" s="154"/>
+      <c r="CI2" s="154"/>
+      <c r="CJ2" s="155"/>
+      <c r="CK2" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="CL2" s="152"/>
-      <c r="CM2" s="152"/>
-      <c r="CN2" s="153"/>
-      <c r="CO2" s="151" t="s">
+      <c r="CL2" s="154"/>
+      <c r="CM2" s="154"/>
+      <c r="CN2" s="155"/>
+      <c r="CO2" s="153" t="s">
         <v>272</v>
       </c>
-      <c r="CP2" s="152"/>
-      <c r="CQ2" s="152"/>
-      <c r="CR2" s="153"/>
-      <c r="CS2" s="151" t="s">
+      <c r="CP2" s="154"/>
+      <c r="CQ2" s="154"/>
+      <c r="CR2" s="155"/>
+      <c r="CS2" s="153" t="s">
         <v>273</v>
       </c>
-      <c r="CT2" s="152"/>
-      <c r="CU2" s="152"/>
-      <c r="CV2" s="152"/>
-      <c r="CW2" s="152"/>
-      <c r="CX2" s="153"/>
-      <c r="CY2" s="154" t="s">
+      <c r="CT2" s="154"/>
+      <c r="CU2" s="154"/>
+      <c r="CV2" s="154"/>
+      <c r="CW2" s="154"/>
+      <c r="CX2" s="155"/>
+      <c r="CY2" s="166" t="s">
         <v>274</v>
       </c>
-      <c r="CZ2" s="154"/>
-      <c r="DA2" s="154"/>
-      <c r="DB2" s="154"/>
-      <c r="DC2" s="154"/>
-      <c r="DD2" s="155"/>
-      <c r="DE2" s="156" t="s">
+      <c r="CZ2" s="166"/>
+      <c r="DA2" s="166"/>
+      <c r="DB2" s="166"/>
+      <c r="DC2" s="166"/>
+      <c r="DD2" s="167"/>
+      <c r="DE2" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="DF2" s="154"/>
-      <c r="DG2" s="154"/>
-      <c r="DH2" s="154"/>
-      <c r="DI2" s="154"/>
-      <c r="DJ2" s="155"/>
+      <c r="DF2" s="166"/>
+      <c r="DG2" s="166"/>
+      <c r="DH2" s="166"/>
+      <c r="DI2" s="166"/>
+      <c r="DJ2" s="167"/>
       <c r="DK2" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="DL2" s="151" t="s">
+      <c r="DL2" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="DM2" s="152"/>
-      <c r="DN2" s="152"/>
-      <c r="DO2" s="152"/>
-      <c r="DP2" s="152"/>
-      <c r="DQ2" s="152"/>
-      <c r="DR2" s="152"/>
-      <c r="DS2" s="152"/>
-      <c r="DT2" s="152"/>
-      <c r="DU2" s="153"/>
+      <c r="DM2" s="154"/>
+      <c r="DN2" s="154"/>
+      <c r="DO2" s="154"/>
+      <c r="DP2" s="154"/>
+      <c r="DQ2" s="154"/>
+      <c r="DR2" s="154"/>
+      <c r="DS2" s="154"/>
+      <c r="DT2" s="154"/>
+      <c r="DU2" s="155"/>
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -16255,6 +16254,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="DL2:DU2"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="M1:AK1"/>
@@ -16271,14 +16278,6 @@
     <mergeCell ref="AN2:AU2"/>
     <mergeCell ref="AV2:BG2"/>
     <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:A2" location="Intro!A1" display="Intro!A1" xr:uid="{88E11E35-6333-4868-875B-8E0479F7B61D}"/>
@@ -16302,190 +16301,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="156" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="169" t="s">
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="172"/>
-      <c r="AK1" s="172"/>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="172"/>
-      <c r="AO1" s="172"/>
-      <c r="AP1" s="172"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="172"/>
-      <c r="AU1" s="172"/>
-      <c r="AV1" s="172"/>
-      <c r="AW1" s="172"/>
-      <c r="AX1" s="172"/>
-      <c r="AY1" s="172"/>
-      <c r="AZ1" s="172"/>
-      <c r="BA1" s="172"/>
-      <c r="BB1" s="172"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="172"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="142" t="s">
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="184"/>
+      <c r="AK1" s="184"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="184"/>
+      <c r="AO1" s="184"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="184"/>
+      <c r="AS1" s="184"/>
+      <c r="AT1" s="184"/>
+      <c r="AU1" s="184"/>
+      <c r="AV1" s="184"/>
+      <c r="AW1" s="184"/>
+      <c r="AX1" s="184"/>
+      <c r="AY1" s="184"/>
+      <c r="AZ1" s="184"/>
+      <c r="BA1" s="184"/>
+      <c r="BB1" s="184"/>
+      <c r="BC1" s="184"/>
+      <c r="BD1" s="184"/>
+      <c r="BE1" s="185"/>
+      <c r="BF1" s="157" t="s">
         <v>281</v>
       </c>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
-      <c r="BJ1" s="174"/>
-      <c r="BK1" s="174"/>
-      <c r="BL1" s="174"/>
-      <c r="BM1" s="174"/>
-      <c r="BN1" s="174"/>
-      <c r="BO1" s="174"/>
-      <c r="BP1" s="174"/>
-      <c r="BQ1" s="175"/>
+      <c r="BG1" s="186"/>
+      <c r="BH1" s="186"/>
+      <c r="BI1" s="186"/>
+      <c r="BJ1" s="186"/>
+      <c r="BK1" s="186"/>
+      <c r="BL1" s="186"/>
+      <c r="BM1" s="186"/>
+      <c r="BN1" s="186"/>
+      <c r="BO1" s="186"/>
+      <c r="BP1" s="186"/>
+      <c r="BQ1" s="187"/>
     </row>
     <row r="2" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="141"/>
-      <c r="B2" s="151" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="153" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="151" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="151" t="s">
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="182" t="s">
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="181" t="s">
         <v>260</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="176" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="182" t="s">
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="181" t="s">
         <v>262</v>
       </c>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="182" t="s">
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="181" t="s">
         <v>263</v>
       </c>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="182" t="s">
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="181" t="s">
         <v>264</v>
       </c>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="184"/>
-      <c r="AH2" s="176" t="s">
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="176" t="s">
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="176" t="s">
+      <c r="AM2" s="179"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="177"/>
-      <c r="AS2" s="178"/>
-      <c r="AT2" s="176" t="s">
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="178" t="s">
         <v>287</v>
       </c>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="178"/>
-      <c r="AX2" s="179" t="s">
+      <c r="AU2" s="179"/>
+      <c r="AV2" s="179"/>
+      <c r="AW2" s="180"/>
+      <c r="AX2" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="AY2" s="180"/>
-      <c r="AZ2" s="180"/>
-      <c r="BA2" s="181"/>
-      <c r="BB2" s="182" t="s">
+      <c r="AY2" s="189"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="190"/>
+      <c r="BB2" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="BC2" s="183"/>
-      <c r="BD2" s="183"/>
-      <c r="BE2" s="184"/>
-      <c r="BF2" s="182" t="s">
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="183"/>
+      <c r="BF2" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="BG2" s="183"/>
-      <c r="BH2" s="183"/>
-      <c r="BI2" s="184"/>
-      <c r="BJ2" s="182" t="s">
+      <c r="BG2" s="182"/>
+      <c r="BH2" s="182"/>
+      <c r="BI2" s="183"/>
+      <c r="BJ2" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="BK2" s="183"/>
-      <c r="BL2" s="183"/>
-      <c r="BM2" s="184"/>
-      <c r="BN2" s="182" t="s">
+      <c r="BK2" s="182"/>
+      <c r="BL2" s="182"/>
+      <c r="BM2" s="183"/>
+      <c r="BN2" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="BO2" s="183"/>
-      <c r="BP2" s="183"/>
-      <c r="BQ2" s="184"/>
+      <c r="BO2" s="182"/>
+      <c r="BP2" s="182"/>
+      <c r="BQ2" s="183"/>
       <c r="BR2" s="30"/>
       <c r="BS2" s="30"/>
       <c r="BT2" s="30"/>
@@ -19524,12 +19523,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="R1:AG1"/>
@@ -19546,6 +19539,12 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:A2" location="Intro!A1" display="Intro!A1" xr:uid="{730CB848-2407-41A5-9455-70DA152EBB91}"/>
@@ -19560,7 +19559,7 @@
   <dimension ref="A1:BB35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19607,120 +19606,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="215" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
-      <c r="G1" s="205" t="s">
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="243"/>
+      <c r="G1" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="207"/>
-      <c r="N1" s="199" t="s">
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="237"/>
+      <c r="N1" s="229" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="201"/>
-      <c r="Z1" s="193" t="s">
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
+      <c r="Z1" s="223" t="s">
         <v>280</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="195"/>
-      <c r="AG1" s="187" t="s">
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="225"/>
+      <c r="AG1" s="217" t="s">
         <v>281</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="189"/>
-      <c r="AN1" s="228" t="s">
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="219"/>
+      <c r="AN1" s="196" t="s">
         <v>433</v>
       </c>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="229"/>
-      <c r="AU1" s="229"/>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="230"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="198"/>
     </row>
     <row r="2" spans="1:54" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="186"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="216"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="210"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="204"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="198"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="191"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="192"/>
-      <c r="AN2" s="231"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="232"/>
-      <c r="AY2" s="232"/>
-      <c r="AZ2" s="232"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="233"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="246"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="240"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="234"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="227"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="228"/>
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="222"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="200"/>
+      <c r="AQ2" s="200"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="200"/>
+      <c r="AT2" s="200"/>
+      <c r="AU2" s="200"/>
+      <c r="AV2" s="200"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="200"/>
+      <c r="AZ2" s="200"/>
+      <c r="BA2" s="200"/>
+      <c r="BB2" s="201"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81" t="s">
@@ -19825,33 +19824,33 @@
       <c r="AL3" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="AN3" s="220" t="s">
+      <c r="AN3" s="202" t="s">
         <v>434</v>
       </c>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="221"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="204"/>
       <c r="AU3" s="30"/>
-      <c r="AV3" s="235" t="s">
+      <c r="AV3" s="205" t="s">
         <v>435</v>
       </c>
-      <c r="AW3" s="236"/>
+      <c r="AW3" s="206"/>
       <c r="AX3" s="30"/>
-      <c r="AY3" s="235" t="s">
+      <c r="AY3" s="205" t="s">
         <v>436</v>
       </c>
-      <c r="AZ3" s="237"/>
-      <c r="BA3" s="237"/>
-      <c r="BB3" s="236"/>
+      <c r="AZ3" s="207"/>
+      <c r="BA3" s="207"/>
+      <c r="BB3" s="206"/>
     </row>
     <row r="4" spans="1:54" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="218">
-        <v>1</v>
-      </c>
-      <c r="B4" s="222" t="s">
+      <c r="A4" s="194">
+        <v>1</v>
+      </c>
+      <c r="B4" s="192" t="s">
         <v>335</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -19976,19 +19975,19 @@
         <f t="shared" ref="AL4" si="7">IF(AJ4&lt;=20%, "very low", IF(AJ4&lt;=40%, "low", IF(AJ4&lt;=60%, "moderate", IF(AJ4&lt;=80%, "high", "very high"))))</f>
         <v>very high</v>
       </c>
-      <c r="AN4" s="238" t="s">
+      <c r="AN4" s="208" t="s">
         <v>437</v>
       </c>
-      <c r="AO4" s="151" t="s">
+      <c r="AO4" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="153"/>
-      <c r="AR4" s="151" t="s">
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="153" t="s">
         <v>439</v>
       </c>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="153"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="155"/>
       <c r="AU4" s="30"/>
       <c r="AV4" s="14" t="s">
         <v>243</v>
@@ -20012,8 +20011,8 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="218"/>
-      <c r="B5" s="222"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="47" t="s">
         <v>152</v>
       </c>
@@ -20136,7 +20135,7 @@
         <f t="shared" ref="AL5:AL9" si="15">IF(AJ5&lt;=20%, "very low", IF(AJ5&lt;=40%, "low", IF(AJ5&lt;=60%, "moderate", IF(AJ5&lt;=80%, "high", "very high"))))</f>
         <v>very high</v>
       </c>
-      <c r="AN5" s="239"/>
+      <c r="AN5" s="209"/>
       <c r="AO5" s="81" t="s">
         <v>440</v>
       </c>
@@ -20181,8 +20180,8 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="218"/>
-      <c r="B6" s="222"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="47" t="s">
         <v>336</v>
       </c>
@@ -20358,8 +20357,8 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="218"/>
-      <c r="B7" s="222"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="47" t="s">
         <v>337</v>
       </c>
@@ -20535,8 +20534,8 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="218"/>
-      <c r="B8" s="222"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="47" t="s">
         <v>338</v>
       </c>
@@ -20712,8 +20711,8 @@
       </c>
     </row>
     <row r="9" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="218"/>
-      <c r="B9" s="222"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="47" t="s">
         <v>339</v>
       </c>
@@ -20864,10 +20863,10 @@
         <v>4</v>
       </c>
       <c r="AU9" s="30"/>
-      <c r="AV9" s="220" t="s">
+      <c r="AV9" s="202" t="s">
         <v>445</v>
       </c>
-      <c r="AW9" s="221"/>
+      <c r="AW9" s="204"/>
       <c r="AX9" s="30"/>
       <c r="AY9" s="14" t="s">
         <v>251</v>
@@ -20886,8 +20885,8 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="218"/>
-      <c r="B10" s="222"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="47" t="s">
         <v>340</v>
       </c>
@@ -21047,8 +21046,8 @@
       </c>
     </row>
     <row r="11" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="219"/>
-      <c r="B11" s="223"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="66" t="s">
         <v>341</v>
       </c>
@@ -21208,10 +21207,10 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="217">
+      <c r="A12" s="214">
         <v>2</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="191" t="s">
         <v>342</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -21373,8 +21372,8 @@
       </c>
     </row>
     <row r="13" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="218"/>
-      <c r="B13" s="222"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="47" t="s">
         <v>344</v>
       </c>
@@ -21465,15 +21464,15 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
-      <c r="AN13" s="220" t="s">
+      <c r="AN13" s="202" t="s">
         <v>447</v>
       </c>
-      <c r="AO13" s="152"/>
-      <c r="AP13" s="152"/>
-      <c r="AQ13" s="152"/>
-      <c r="AR13" s="152"/>
-      <c r="AS13" s="152"/>
-      <c r="AT13" s="153"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="154"/>
+      <c r="AR13" s="154"/>
+      <c r="AS13" s="154"/>
+      <c r="AT13" s="155"/>
       <c r="AU13" s="30"/>
       <c r="AV13" s="14" t="s">
         <v>233</v>
@@ -21500,8 +21499,8 @@
       </c>
     </row>
     <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="218"/>
-      <c r="B14" s="222"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="47" t="s">
         <v>345</v>
       </c>
@@ -21575,19 +21574,19 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
-      <c r="AN14" s="238" t="s">
+      <c r="AN14" s="208" t="s">
         <v>448</v>
       </c>
-      <c r="AO14" s="152" t="s">
+      <c r="AO14" s="154" t="s">
         <v>438</v>
       </c>
-      <c r="AP14" s="152"/>
-      <c r="AQ14" s="153"/>
-      <c r="AR14" s="151" t="s">
+      <c r="AP14" s="154"/>
+      <c r="AQ14" s="155"/>
+      <c r="AR14" s="153" t="s">
         <v>439</v>
       </c>
-      <c r="AS14" s="152"/>
-      <c r="AT14" s="153"/>
+      <c r="AS14" s="154"/>
+      <c r="AT14" s="155"/>
       <c r="AU14" s="30"/>
       <c r="AV14" s="14" t="s">
         <v>449</v>
@@ -21614,8 +21613,8 @@
       </c>
     </row>
     <row r="15" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="218"/>
-      <c r="B15" s="222"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="47" t="s">
         <v>346</v>
       </c>
@@ -21689,7 +21688,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
-      <c r="AN15" s="240"/>
+      <c r="AN15" s="213"/>
       <c r="AO15" s="12" t="s">
         <v>440</v>
       </c>
@@ -21723,8 +21722,8 @@
       <c r="BB15" s="30"/>
     </row>
     <row r="16" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="219"/>
-      <c r="B16" s="223"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="66" t="s">
         <v>347</v>
       </c>
@@ -21826,10 +21825,10 @@
         <v>0</v>
       </c>
       <c r="AU16" s="30"/>
-      <c r="AV16" s="220" t="s">
+      <c r="AV16" s="202" t="s">
         <v>456</v>
       </c>
-      <c r="AW16" s="221"/>
+      <c r="AW16" s="204"/>
       <c r="AX16" s="30"/>
       <c r="AY16" s="30"/>
       <c r="AZ16" s="30"/>
@@ -21837,10 +21836,10 @@
       <c r="BB16" s="30"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="217">
+      <c r="A17" s="214">
         <v>3</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="210" t="s">
         <v>348</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -21956,8 +21955,8 @@
       <c r="BB17" s="30"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="218"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="47" t="s">
         <v>452</v>
       </c>
@@ -22071,8 +22070,8 @@
       <c r="BB18" s="30"/>
     </row>
     <row r="19" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="218"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="194"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="47" t="s">
         <v>453</v>
       </c>
@@ -22186,8 +22185,8 @@
       <c r="BB19" s="30"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="218"/>
-      <c r="B20" s="226"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="211"/>
       <c r="C20" s="47" t="s">
         <v>454</v>
       </c>
@@ -22261,8 +22260,8 @@
       <c r="AL20" s="30"/>
     </row>
     <row r="21" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="219"/>
-      <c r="B21" s="227"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="66" t="s">
         <v>455</v>
       </c>
@@ -22336,10 +22335,10 @@
       <c r="AL21" s="30"/>
     </row>
     <row r="22" spans="1:54" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="217">
+      <c r="A22" s="214">
         <v>4</v>
       </c>
-      <c r="B22" s="224" t="s">
+      <c r="B22" s="191" t="s">
         <v>349</v>
       </c>
       <c r="C22" s="45" t="s">
@@ -22417,8 +22416,8 @@
       <c r="AL22" s="30"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A23" s="218"/>
-      <c r="B23" s="222"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="192"/>
       <c r="C23" s="47" t="s">
         <v>351</v>
       </c>
@@ -22494,8 +22493,8 @@
       <c r="AL23" s="30"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A24" s="218"/>
-      <c r="B24" s="222"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="192"/>
       <c r="C24" s="47" t="s">
         <v>352</v>
       </c>
@@ -22571,8 +22570,8 @@
       <c r="AL24" s="30"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A25" s="218"/>
-      <c r="B25" s="222"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="47" t="s">
         <v>353</v>
       </c>
@@ -22617,8 +22616,8 @@
       <c r="AL25" s="30"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A26" s="219"/>
-      <c r="B26" s="223"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="193"/>
       <c r="C26" s="66" t="s">
         <v>354</v>
       </c>
@@ -22663,10 +22662,10 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A27" s="217">
+      <c r="A27" s="214">
         <v>5</v>
       </c>
-      <c r="B27" s="224" t="s">
+      <c r="B27" s="191" t="s">
         <v>355</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -22713,8 +22712,8 @@
       <c r="AL27" s="30"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A28" s="218"/>
-      <c r="B28" s="222"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="47" t="s">
         <v>357</v>
       </c>
@@ -22759,8 +22758,8 @@
       <c r="AL28" s="30"/>
     </row>
     <row r="29" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="219"/>
-      <c r="B29" s="223"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="66" t="s">
         <v>358</v>
       </c>
@@ -22805,10 +22804,10 @@
       <c r="AL29" s="30"/>
     </row>
     <row r="30" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="217">
+      <c r="A30" s="214">
         <v>6</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="191" t="s">
         <v>359</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -22855,8 +22854,8 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A31" s="218"/>
-      <c r="B31" s="222"/>
+      <c r="A31" s="194"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="1" t="s">
         <v>361</v>
       </c>
@@ -22901,8 +22900,8 @@
       <c r="AL31" s="30"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A32" s="218"/>
-      <c r="B32" s="222"/>
+      <c r="A32" s="194"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="1" t="s">
         <v>362</v>
       </c>
@@ -22947,8 +22946,8 @@
       <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A33" s="218"/>
-      <c r="B33" s="222"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="1" t="s">
         <v>363</v>
       </c>
@@ -22993,8 +22992,8 @@
       <c r="AL33" s="30"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A34" s="218"/>
-      <c r="B34" s="222"/>
+      <c r="A34" s="194"/>
+      <c r="B34" s="192"/>
       <c r="C34" s="1" t="s">
         <v>364</v>
       </c>
@@ -23039,8 +23038,8 @@
       <c r="AL34" s="30"/>
     </row>
     <row r="35" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="219"/>
-      <c r="B35" s="223"/>
+      <c r="A35" s="195"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="42" t="s">
         <v>358</v>
       </c>
@@ -23086,6 +23085,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AG1:AL2"/>
+    <mergeCell ref="Z1:AE2"/>
+    <mergeCell ref="N1:X2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AN13:AT13"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AQ14"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="A4:A11"/>
@@ -23102,21 +23116,6 @@
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AN13:AT13"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AQ14"/>
-    <mergeCell ref="AR14:AT14"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AL2"/>
-    <mergeCell ref="Z1:AE2"/>
-    <mergeCell ref="N1:X2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="AO6:AQ12 AR11:AT11">
     <cfRule type="top10" dxfId="23" priority="33" percent="1" rank="10"/>
@@ -23322,6 +23321,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1:A2" location="Intro!A1" display="Intro!A1" xr:uid="{2295D669-2441-4FAC-9528-6626116F37BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -23464,56 +23466,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="215" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="242" t="str">
+      <c r="B1" s="248" t="str">
         <f>CONCATENATE("SUMMARY OF VARIABLE SCORE AT (n = ", COUNT(raw_data!A:A), ")")</f>
         <v>SUMMARY OF VARIABLE SCORE AT (n = 10)</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="185"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="250" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -23765,21 +23767,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="252" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="247"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
@@ -24031,21 +24033,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="254" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="248"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="248"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="248"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
@@ -24401,21 +24403,21 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
@@ -24804,56 +24806,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="215" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="257" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="253"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="259"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="186"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="256"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="261"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="262"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="255" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="250"/>
+      <c r="A4" s="256"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
@@ -25728,12 +25730,12 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="249" t="s">
+      <c r="A23" s="255" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="250"/>
+      <c r="A24" s="256"/>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
@@ -26611,7 +26613,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="249" t="s">
+      <c r="A43" s="255" t="s">
         <v>329</v>
       </c>
       <c r="B43" s="46"/>
@@ -26620,7 +26622,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="250"/>
+      <c r="A44" s="256"/>
       <c r="B44" s="38"/>
       <c r="C44" t="s">
         <v>326</v>
